--- a/miscs/excel/004.up and out call.xlsx
+++ b/miscs/excel/004.up and out call.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322D459-9811-4DC7-BCE9-31ED1463DB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B183C-B99F-4CD8-837D-EBD693BC1065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（bs）" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>spot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>EventDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uoc pays alive * MAX(spot() - 120, 0.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,6 +105,26 @@
   </si>
   <si>
     <t>repo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARRIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRIKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if spot() &gt; BARRIER:0.1 then alive = 0 endif uoc pays alive * MAX(spot() - STRIKE, 0.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +224,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,10 +553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,10 +573,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,18 +621,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A175,B17:B175)</f>
-        <v>~ScriptProduct~my_product~000001DAD9CEB810</v>
+        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A177,B17:B177)</f>
+        <v>~ScriptProduct~my_product~00000277DB31FC50</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000001DAAF2AB1D0</v>
+        <v>~BSModelData_~model~00000277DB157C80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,7 +642,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1"/>
-        <v>-24.143194353558606</v>
+        <v>-24.143194353558609</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -663,1907 +691,1452 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>44829</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>44836</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f ca="1">"if spot() &gt; "&amp;D18&amp;":0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D18" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="B20" s="7" t="str">
+        <f ca="1">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>44843</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" ref="B19:B82" ca="1" si="0">"if spot() &gt; "&amp;D19&amp;":0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D19" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="B21" s="7" t="str">
+        <f t="shared" ref="B21:B84" si="0">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>44850</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D20" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>44857</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D21" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>44864</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D22" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>44871</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D23" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>44878</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D24" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>44885</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D25" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>44892</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D26" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>44899</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D27" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>44906</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D28" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>44913</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D29" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>44920</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D30" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>44927</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D31" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>44934</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D32" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>44941</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D33" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="B35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>44948</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D34" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="B36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>44955</v>
       </c>
-      <c r="B35" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D35" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="B37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>44962</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D36" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="B38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>44969</v>
       </c>
-      <c r="B37" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D37" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="B39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>44976</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D38" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="B40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>44983</v>
       </c>
-      <c r="B39" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D39" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="B41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>44990</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D40" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="B42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>44997</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D41" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="B43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>45004</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D42" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="B44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <v>45011</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D43" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="B45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>45018</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D44" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="B46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>45025</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D45" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="B47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>45032</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D46" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="B48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>45039</v>
       </c>
-      <c r="B47" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D47" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="B49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>45046</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D48" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="B50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>45053</v>
       </c>
-      <c r="B49" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D49" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="B51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
         <v>45060</v>
       </c>
-      <c r="B50" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D50" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="B52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>45067</v>
       </c>
-      <c r="B51" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D51" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="B53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
         <v>45074</v>
       </c>
-      <c r="B52" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D52" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="B54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
         <v>45081</v>
       </c>
-      <c r="B53" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D53" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="B55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
         <v>45088</v>
       </c>
-      <c r="B54" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D54" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="B56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>45095</v>
       </c>
-      <c r="B55" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D55" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="B57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>45102</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D56" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="B58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>45109</v>
       </c>
-      <c r="B57" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D57" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="B59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>45116</v>
       </c>
-      <c r="B58" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D58" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="B60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>45123</v>
       </c>
-      <c r="B59" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D59" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="B61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>45130</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D60" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="B62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>45137</v>
       </c>
-      <c r="B61" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D61" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="B63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>45144</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D62" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="B64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
         <v>45151</v>
       </c>
-      <c r="B63" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D63" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="B65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
         <v>45158</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D64" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="B66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
         <v>45165</v>
       </c>
-      <c r="B65" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D65" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="B67" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>45172</v>
       </c>
-      <c r="B66" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D66" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="B68" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <v>45179</v>
       </c>
-      <c r="B67" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D67" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="B69" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>45186</v>
       </c>
-      <c r="B68" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D68" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="B70" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <v>45193</v>
       </c>
-      <c r="B69" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D69" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="B71" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>45200</v>
       </c>
-      <c r="B70" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D70" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="B72" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
         <v>45207</v>
       </c>
-      <c r="B71" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D71" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="B73" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
         <v>45214</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D72" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="B74" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>45221</v>
       </c>
-      <c r="B73" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D73" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="B75" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
         <v>45228</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D74" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="B76" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
         <v>45235</v>
       </c>
-      <c r="B75" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D75" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="B77" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
         <v>45242</v>
       </c>
-      <c r="B76" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D76" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="B78" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
         <v>45249</v>
       </c>
-      <c r="B77" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D77" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="B79" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
         <v>45256</v>
       </c>
-      <c r="B78" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D78" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="B80" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
         <v>45263</v>
       </c>
-      <c r="B79" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D79" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="B81" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
         <v>45270</v>
       </c>
-      <c r="B80" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D80" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="B82" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
         <v>45277</v>
       </c>
-      <c r="B81" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D81" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="B83" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
         <v>45284</v>
       </c>
-      <c r="B82" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D82" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="B84" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
         <v>45291</v>
       </c>
-      <c r="B83" s="2" t="str">
-        <f t="shared" ref="B83:B146" ca="1" si="1">"if spot() &gt; "&amp;D83&amp;":0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D83" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="B85" s="7" t="str">
+        <f t="shared" ref="B85:B148" si="1">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
         <v>45298</v>
       </c>
-      <c r="B84" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D84" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="B86" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
         <v>45305</v>
       </c>
-      <c r="B85" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D85" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="B87" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
         <v>45312</v>
       </c>
-      <c r="B86" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D86" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="B88" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
         <v>45319</v>
       </c>
-      <c r="B87" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D87" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="B89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
         <v>45326</v>
       </c>
-      <c r="B88" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D88" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="B90" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
         <v>45333</v>
       </c>
-      <c r="B89" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D89" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="B91" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
         <v>45340</v>
       </c>
-      <c r="B90" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D90" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="B92" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
         <v>45347</v>
       </c>
-      <c r="B91" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D91" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="B93" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
         <v>45354</v>
       </c>
-      <c r="B92" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D92" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="B94" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
         <v>45361</v>
       </c>
-      <c r="B93" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D93" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="B95" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
         <v>45368</v>
       </c>
-      <c r="B94" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D94" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="B96" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
         <v>45375</v>
       </c>
-      <c r="B95" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D95" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="B97" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
         <v>45382</v>
       </c>
-      <c r="B96" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D96" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="B98" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
         <v>45389</v>
       </c>
-      <c r="B97" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D97" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="B99" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
         <v>45396</v>
       </c>
-      <c r="B98" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D98" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="B100" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
         <v>45403</v>
       </c>
-      <c r="B99" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D99" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="B101" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
         <v>45410</v>
       </c>
-      <c r="B100" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D100" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="B102" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
         <v>45417</v>
       </c>
-      <c r="B101" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D101" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="B103" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
         <v>45424</v>
       </c>
-      <c r="B102" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D102" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="B104" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
         <v>45431</v>
       </c>
-      <c r="B103" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D103" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="B105" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
         <v>45438</v>
       </c>
-      <c r="B104" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D104" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="B106" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>45445</v>
       </c>
-      <c r="B105" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D105" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="B107" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
         <v>45452</v>
       </c>
-      <c r="B106" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D106" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="B108" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
         <v>45459</v>
       </c>
-      <c r="B107" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D107" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="B109" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
         <v>45466</v>
       </c>
-      <c r="B108" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D108" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="B110" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
         <v>45473</v>
       </c>
-      <c r="B109" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D109" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="B111" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="9">
         <v>45480</v>
       </c>
-      <c r="B110" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D110" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="B112" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
         <v>45487</v>
       </c>
-      <c r="B111" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D111" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="B113" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
         <v>45494</v>
       </c>
-      <c r="B112" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D112" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="B114" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
         <v>45501</v>
       </c>
-      <c r="B113" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D113" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="B115" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
         <v>45508</v>
       </c>
-      <c r="B114" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D114" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="B116" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
         <v>45515</v>
       </c>
-      <c r="B115" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D115" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="B117" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
         <v>45522</v>
       </c>
-      <c r="B116" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D116" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="B118" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
         <v>45529</v>
       </c>
-      <c r="B117" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D117" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="B119" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
         <v>45536</v>
       </c>
-      <c r="B118" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D118" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="B120" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
         <v>45543</v>
       </c>
-      <c r="B119" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D119" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="B121" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
         <v>45550</v>
       </c>
-      <c r="B120" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D120" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="B122" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
         <v>45557</v>
       </c>
-      <c r="B121" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D121" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="B123" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
         <v>45564</v>
       </c>
-      <c r="B122" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D122" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="B124" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
         <v>45571</v>
       </c>
-      <c r="B123" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D123" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="B125" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
         <v>45578</v>
       </c>
-      <c r="B124" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D124" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="B126" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
         <v>45585</v>
       </c>
-      <c r="B125" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D125" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="B127" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
         <v>45592</v>
       </c>
-      <c r="B126" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D126" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="B128" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
         <v>45599</v>
       </c>
-      <c r="B127" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D127" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="B129" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
         <v>45606</v>
       </c>
-      <c r="B128" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D128" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="B130" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
         <v>45613</v>
       </c>
-      <c r="B129" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D129" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="B131" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
         <v>45620</v>
       </c>
-      <c r="B130" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D130" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="B132" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
         <v>45627</v>
       </c>
-      <c r="B131" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D131" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="B133" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
         <v>45634</v>
       </c>
-      <c r="B132" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D132" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="B134" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
         <v>45641</v>
       </c>
-      <c r="B133" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D133" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="B135" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
         <v>45648</v>
       </c>
-      <c r="B134" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D134" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="B136" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
         <v>45655</v>
       </c>
-      <c r="B135" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D135" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="B137" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="9">
         <v>45662</v>
       </c>
-      <c r="B136" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D136" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="B138" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="9">
         <v>45669</v>
       </c>
-      <c r="B137" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D137" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="B139" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="9">
         <v>45676</v>
       </c>
-      <c r="B138" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D138" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="B140" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>45683</v>
       </c>
-      <c r="B139" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D139" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="B141" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="9">
         <v>45690</v>
       </c>
-      <c r="B140" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D140" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="B142" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="9">
         <v>45697</v>
       </c>
-      <c r="B141" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D141" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="B143" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="9">
         <v>45704</v>
       </c>
-      <c r="B142" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D142" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="B144" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
         <v>45711</v>
       </c>
-      <c r="B143" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D143" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="B145" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="9">
         <v>45718</v>
       </c>
-      <c r="B144" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D144" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="B146" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
         <v>45725</v>
       </c>
-      <c r="B145" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D145" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="B147" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
         <v>45732</v>
       </c>
-      <c r="B146" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D146" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="B148" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
         <v>45739</v>
       </c>
-      <c r="B147" s="2" t="str">
-        <f t="shared" ref="B147:B174" ca="1" si="2">"if spot() &gt; "&amp;D147&amp;":0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D147" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="B149" s="7" t="str">
+        <f t="shared" ref="B149:B176" si="2">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
         <v>45746</v>
       </c>
-      <c r="B148" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D148" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="B150" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="9">
         <v>45753</v>
       </c>
-      <c r="B149" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D149" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="B151" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
         <v>45760</v>
       </c>
-      <c r="B150" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D150" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="B152" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
         <v>45767</v>
       </c>
-      <c r="B151" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D151" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="B153" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
         <v>45774</v>
       </c>
-      <c r="B152" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D152" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="B154" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
         <v>45781</v>
       </c>
-      <c r="B153" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D153" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="B155" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
         <v>45788</v>
       </c>
-      <c r="B154" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D154" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="B156" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
         <v>45795</v>
       </c>
-      <c r="B155" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D155" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="B157" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
         <v>45802</v>
       </c>
-      <c r="B156" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D156" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="B158" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="9">
         <v>45809</v>
       </c>
-      <c r="B157" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D157" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="B159" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="9">
         <v>45816</v>
       </c>
-      <c r="B158" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D158" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="B160" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="9">
         <v>45823</v>
       </c>
-      <c r="B159" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D159" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="B161" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="9">
         <v>45830</v>
       </c>
-      <c r="B160" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D160" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="B162" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="9">
         <v>45837</v>
       </c>
-      <c r="B161" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D161" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="B163" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="9">
         <v>45844</v>
       </c>
-      <c r="B162" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D162" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="B164" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="9">
         <v>45851</v>
       </c>
-      <c r="B163" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D163" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="B165" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="9">
         <v>45858</v>
       </c>
-      <c r="B164" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D164" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="B166" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="9">
         <v>45865</v>
       </c>
-      <c r="B165" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D165" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="B167" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="9">
         <v>45872</v>
       </c>
-      <c r="B166" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D166" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="B168" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="9">
         <v>45879</v>
       </c>
-      <c r="B167" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D167" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="B169" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="9">
         <v>45886</v>
       </c>
-      <c r="B168" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D168" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="B170" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="9">
         <v>45893</v>
       </c>
-      <c r="B169" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D169" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="B171" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="9">
         <v>45900</v>
       </c>
-      <c r="B170" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D170" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="B172" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
         <v>45907</v>
       </c>
-      <c r="B171" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D171" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="B173" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="9">
         <v>45914</v>
       </c>
-      <c r="B172" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D172" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="B174" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
         <v>45921</v>
       </c>
-      <c r="B173" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D173" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="B175" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
         <v>45925</v>
       </c>
-      <c r="B174" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>if spot() &gt; 150:0.1 then alive = 0 endif</v>
-      </c>
-      <c r="D174" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="B176" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
         <v>45925</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>5</v>
+      <c r="B177" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2151,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ3175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -2590,7 +2163,7 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
@@ -2611,7 +2184,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2628,12 +2201,12 @@
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.DUPIREMODELDATA.NEW("model",B2,B3,B4,A10:A60,B9:BJ9,B10:BJ60)</f>
-        <v>~DupireModelData_~model~000001DB1B25F2F0</v>
+        <v>~DupireModelData_~model~00000277DB6F0730</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -15630,7 +15203,7 @@
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
@@ -15640,7 +15213,7 @@
       </c>
       <c r="B63" s="6">
         <f ca="1"/>
-        <v>-7.545056547320364E-2</v>
+        <v>-7.5450565473203612E-2</v>
       </c>
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.2">
@@ -15650,7 +15223,7 @@
       </c>
       <c r="B64" s="6">
         <f ca="1"/>
-        <v>-0.12939736786026612</v>
+        <v>-0.12939736786026604</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -15660,7 +15233,7 @@
       </c>
       <c r="B65" s="6">
         <f ca="1"/>
-        <v>-0.30623186611244635</v>
+        <v>-0.30623186611244629</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -15670,7 +15243,7 @@
       </c>
       <c r="B66" s="6">
         <f ca="1"/>
-        <v>-0.12200770576550411</v>
+        <v>-0.1220077057655041</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -15680,7 +15253,7 @@
       </c>
       <c r="B67" s="6">
         <f ca="1"/>
-        <v>-0.16898820579480953</v>
+        <v>-0.1689882057948095</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -15690,7 +15263,7 @@
       </c>
       <c r="B68" s="6">
         <f ca="1"/>
-        <v>-0.38588349923155435</v>
+        <v>-0.38588349923155429</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -15700,7 +15273,7 @@
       </c>
       <c r="B69" s="6">
         <f ca="1"/>
-        <v>0.16852287890314488</v>
+        <v>0.16852287890314485</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -15710,7 +15283,7 @@
       </c>
       <c r="B70" s="6">
         <f ca="1"/>
-        <v>-4.3232166824504967E-3</v>
+        <v>-4.3232166824505036E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -15740,7 +15313,7 @@
       </c>
       <c r="B73" s="6">
         <f ca="1"/>
-        <v>9.5780560824422489E-2</v>
+        <v>9.5780560824422475E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -15750,7 +15323,7 @@
       </c>
       <c r="B74" s="6">
         <f ca="1"/>
-        <v>3.3363666969300113E-2</v>
+        <v>3.3363666969300099E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -15760,7 +15333,7 @@
       </c>
       <c r="B75" s="6">
         <f ca="1"/>
-        <v>0.19470286144548363</v>
+        <v>0.1947028614454836</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -15780,7 +15353,7 @@
       </c>
       <c r="B77" s="6">
         <f ca="1"/>
-        <v>9.4914957522726925E-2</v>
+        <v>9.4914957522726912E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -15800,7 +15373,7 @@
       </c>
       <c r="B79" s="6">
         <f ca="1"/>
-        <v>-2.8908877730815366E-2</v>
+        <v>-2.8908877730815359E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -15810,7 +15383,7 @@
       </c>
       <c r="B80" s="6">
         <f ca="1"/>
-        <v>-2.334624414085254E-2</v>
+        <v>-2.3346244140852533E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -15820,7 +15393,7 @@
       </c>
       <c r="B81" s="6">
         <f ca="1"/>
-        <v>2.0525186733817317E-2</v>
+        <v>2.0525186733817313E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -15840,7 +15413,7 @@
       </c>
       <c r="B83" s="6">
         <f ca="1"/>
-        <v>1.9399760540380166E-3</v>
+        <v>1.9399760540380149E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -15860,7 +15433,7 @@
       </c>
       <c r="B85" s="6">
         <f ca="1"/>
-        <v>0.22072951848622335</v>
+        <v>0.22072951848622338</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -15870,7 +15443,7 @@
       </c>
       <c r="B86" s="6">
         <f ca="1"/>
-        <v>-5.3475604225303092E-2</v>
+        <v>-5.3475604225303078E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -15890,7 +15463,7 @@
       </c>
       <c r="B88" s="6">
         <f ca="1"/>
-        <v>0.13657743151027199</v>
+        <v>0.13657743151027202</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -15910,7 +15483,7 @@
       </c>
       <c r="B90" s="6">
         <f ca="1"/>
-        <v>0.1299458465742632</v>
+        <v>0.12994584657426317</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -15920,7 +15493,7 @@
       </c>
       <c r="B91" s="6">
         <f ca="1"/>
-        <v>0.12264187767085269</v>
+        <v>0.12264187767085268</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -15940,7 +15513,7 @@
       </c>
       <c r="B93" s="6">
         <f ca="1"/>
-        <v>0.10209779975523958</v>
+        <v>0.1020977997552396</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -15950,7 +15523,7 @@
       </c>
       <c r="B94" s="6">
         <f ca="1"/>
-        <v>7.7126614611773323E-2</v>
+        <v>7.712661461177335E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -15960,7 +15533,7 @@
       </c>
       <c r="B95" s="6">
         <f ca="1"/>
-        <v>5.8363061842932613E-2</v>
+        <v>5.8363061842932606E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -15980,7 +15553,7 @@
       </c>
       <c r="B97" s="6">
         <f ca="1"/>
-        <v>1.2801071918312479E-2</v>
+        <v>1.2801071918312475E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -15990,7 +15563,7 @@
       </c>
       <c r="B98" s="6">
         <f ca="1"/>
-        <v>1.2380757448071933E-3</v>
+        <v>1.2380757448071935E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -16250,7 +15823,7 @@
       </c>
       <c r="B124" s="6">
         <f ca="1"/>
-        <v>4.300557628765514E-2</v>
+        <v>4.3005576287655119E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -16280,7 +15853,7 @@
       </c>
       <c r="B127" s="6">
         <f ca="1"/>
-        <v>0.15162282187512791</v>
+        <v>0.15162282187512793</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -16290,7 +15863,7 @@
       </c>
       <c r="B128" s="6">
         <f ca="1"/>
-        <v>-7.780925472125283E-2</v>
+        <v>-7.7809254721252857E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -16300,7 +15873,7 @@
       </c>
       <c r="B129" s="6">
         <f ca="1"/>
-        <v>0.21115445948836734</v>
+        <v>0.21115445948836728</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -16310,7 +15883,7 @@
       </c>
       <c r="B130" s="6">
         <f ca="1"/>
-        <v>7.8588910905269579E-2</v>
+        <v>7.8588910905269621E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -16320,7 +15893,7 @@
       </c>
       <c r="B131" s="6">
         <f ca="1"/>
-        <v>-9.8858234189095659E-2</v>
+        <v>-9.8858234189095645E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -16330,7 +15903,7 @@
       </c>
       <c r="B132" s="6">
         <f ca="1"/>
-        <v>-0.15969916434264891</v>
+        <v>-0.15969916434264889</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -16340,7 +15913,7 @@
       </c>
       <c r="B133" s="6">
         <f ca="1"/>
-        <v>-0.32121448426224158</v>
+        <v>-0.32121448426224153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -16380,7 +15953,7 @@
       </c>
       <c r="B137" s="6">
         <f ca="1"/>
-        <v>-0.21993284486802311</v>
+        <v>-0.21993284486802314</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -16390,7 +15963,7 @@
       </c>
       <c r="B138" s="6">
         <f ca="1"/>
-        <v>-8.3579144268513011E-2</v>
+        <v>-8.3579144268512998E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -16410,7 +15983,7 @@
       </c>
       <c r="B140" s="6">
         <f ca="1"/>
-        <v>3.8285546764660686E-2</v>
+        <v>3.8285546764660672E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -16420,7 +15993,7 @@
       </c>
       <c r="B141" s="6">
         <f ca="1"/>
-        <v>3.4442041285239859E-2</v>
+        <v>3.4442041285239873E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -16430,7 +16003,7 @@
       </c>
       <c r="B142" s="6">
         <f ca="1"/>
-        <v>-3.6741966485708322E-2</v>
+        <v>-3.6741966485708363E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -16460,7 +16033,7 @@
       </c>
       <c r="B145" s="6">
         <f ca="1"/>
-        <v>0.21045196133950639</v>
+        <v>0.21045196133950642</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -16470,7 +16043,7 @@
       </c>
       <c r="B146" s="6">
         <f ca="1"/>
-        <v>1.3819018951269985E-2</v>
+        <v>1.3819018951269992E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -16480,7 +16053,7 @@
       </c>
       <c r="B147" s="6">
         <f ca="1"/>
-        <v>9.509547963352187E-2</v>
+        <v>9.5095479633521857E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -16490,7 +16063,7 @@
       </c>
       <c r="B148" s="6">
         <f ca="1"/>
-        <v>-2.9681716096030208E-2</v>
+        <v>-2.9681716096030198E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -16500,7 +16073,7 @@
       </c>
       <c r="B149" s="6">
         <f ca="1"/>
-        <v>-4.9890442526089443E-2</v>
+        <v>-4.9890442526089464E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -16540,7 +16113,7 @@
       </c>
       <c r="B153" s="6">
         <f ca="1"/>
-        <v>0.12052495328583365</v>
+        <v>0.12052495328583364</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -16560,7 +16133,7 @@
       </c>
       <c r="B155" s="6">
         <f ca="1"/>
-        <v>0.16468261509834642</v>
+        <v>0.16468261509834647</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -16580,7 +16153,7 @@
       </c>
       <c r="B157" s="6">
         <f ca="1"/>
-        <v>0.11832639427796106</v>
+        <v>0.11832639427796104</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -16590,7 +16163,7 @@
       </c>
       <c r="B158" s="6">
         <f ca="1"/>
-        <v>7.6739893290539832E-2</v>
+        <v>7.6739893290539846E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -16610,7 +16183,7 @@
       </c>
       <c r="B160" s="6">
         <f ca="1"/>
-        <v>4.8864176687193157E-4</v>
+        <v>4.8864176687193146E-4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -16880,7 +16453,7 @@
       </c>
       <c r="B187" s="6">
         <f ca="1"/>
-        <v>0.15447846843460888</v>
+        <v>0.15447846843460891</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -16920,7 +16493,7 @@
       </c>
       <c r="B191" s="6">
         <f ca="1"/>
-        <v>-1.8694664829107081E-2</v>
+        <v>-1.8694664829107074E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -16950,7 +16523,7 @@
       </c>
       <c r="B194" s="6">
         <f ca="1"/>
-        <v>0.3006309991325769</v>
+        <v>0.30063099913257685</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -16960,7 +16533,7 @@
       </c>
       <c r="B195" s="6">
         <f ca="1"/>
-        <v>-9.5398796172461386E-2</v>
+        <v>-9.5398796172461359E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -16980,7 +16553,7 @@
       </c>
       <c r="B197" s="6">
         <f ca="1"/>
-        <v>-8.8818520249284352E-3</v>
+        <v>-8.8818520249284178E-3</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -17010,7 +16583,7 @@
       </c>
       <c r="B200" s="6">
         <f ca="1"/>
-        <v>-0.20049485333201383</v>
+        <v>-0.20049485333201381</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -17030,7 +16603,7 @@
       </c>
       <c r="B202" s="6">
         <f ca="1"/>
-        <v>-0.11689871851951388</v>
+        <v>-0.11689871851951389</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -17040,7 +16613,7 @@
       </c>
       <c r="B203" s="6">
         <f ca="1"/>
-        <v>-4.55995987103021E-2</v>
+        <v>-4.5599598710302072E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -17050,7 +16623,7 @@
       </c>
       <c r="B204" s="6">
         <f ca="1"/>
-        <v>-5.0591169136672727E-2</v>
+        <v>-5.059116913667272E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -17060,7 +16633,7 @@
       </c>
       <c r="B205" s="6">
         <f ca="1"/>
-        <v>0.21495224550813896</v>
+        <v>0.21495224550813899</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -17070,7 +16643,7 @@
       </c>
       <c r="B206" s="6">
         <f ca="1"/>
-        <v>0.36755223114395147</v>
+        <v>0.36755223114395141</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -17100,7 +16673,7 @@
       </c>
       <c r="B209" s="6">
         <f ca="1"/>
-        <v>3.3434157298082717E-2</v>
+        <v>3.3434157298082703E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -17110,7 +16683,7 @@
       </c>
       <c r="B210" s="6">
         <f ca="1"/>
-        <v>2.7314106525686593E-2</v>
+        <v>2.7314106525686596E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -17150,7 +16723,7 @@
       </c>
       <c r="B214" s="6">
         <f ca="1"/>
-        <v>1.601945863888497E-2</v>
+        <v>1.6019458638884924E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -17180,7 +16753,7 @@
       </c>
       <c r="B217" s="6">
         <f ca="1"/>
-        <v>0.25412910359639385</v>
+        <v>0.2541291035963939</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -17190,7 +16763,7 @@
       </c>
       <c r="B218" s="6">
         <f ca="1"/>
-        <v>0.23092121313620026</v>
+        <v>0.23092121313620023</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -17500,7 +17073,7 @@
       </c>
       <c r="B249" s="6">
         <f ca="1"/>
-        <v>1.4807966622765158E-2</v>
+        <v>1.4807966622765159E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -17510,7 +17083,7 @@
       </c>
       <c r="B250" s="6">
         <f ca="1"/>
-        <v>4.145517023683918E-2</v>
+        <v>4.1455170236839194E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -17530,7 +17103,7 @@
       </c>
       <c r="B252" s="6">
         <f ca="1"/>
-        <v>-0.11532782705477865</v>
+        <v>-0.11532782705477866</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -17540,7 +17113,7 @@
       </c>
       <c r="B253" s="6">
         <f ca="1"/>
-        <v>2.011451496522558E-2</v>
+        <v>2.0114514965225594E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -17560,7 +17133,7 @@
       </c>
       <c r="B255" s="6">
         <f ca="1"/>
-        <v>7.4481518312244407E-2</v>
+        <v>7.4481518312244421E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -17570,7 +17143,7 @@
       </c>
       <c r="B256" s="6">
         <f ca="1"/>
-        <v>-3.6573143266221547E-3</v>
+        <v>-3.6573143266221617E-3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -17580,7 +17153,7 @@
       </c>
       <c r="B257" s="6">
         <f ca="1"/>
-        <v>0.14152234530173541</v>
+        <v>0.14152234530173544</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -17590,7 +17163,7 @@
       </c>
       <c r="B258" s="6">
         <f ca="1"/>
-        <v>4.1663093531387009E-2</v>
+        <v>4.1663093531387002E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -17610,7 +17183,7 @@
       </c>
       <c r="B260" s="6">
         <f ca="1"/>
-        <v>-0.1212777173806255</v>
+        <v>-0.12127771738062551</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -17640,7 +17213,7 @@
       </c>
       <c r="B263" s="6">
         <f ca="1"/>
-        <v>-0.14097575068363882</v>
+        <v>-0.1409757506836388</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -17650,7 +17223,7 @@
       </c>
       <c r="B264" s="6">
         <f ca="1"/>
-        <v>-6.0531049060790418E-2</v>
+        <v>-6.0531049060790439E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -17660,7 +17233,7 @@
       </c>
       <c r="B265" s="6">
         <f ca="1"/>
-        <v>-5.3646032006726185E-2</v>
+        <v>-5.3646032006726178E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -17680,7 +17253,7 @@
       </c>
       <c r="B267" s="6">
         <f ca="1"/>
-        <v>0.10446627259128467</v>
+        <v>0.10446627259128465</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -17690,7 +17263,7 @@
       </c>
       <c r="B268" s="6">
         <f ca="1"/>
-        <v>-7.6009796675879246E-2</v>
+        <v>-7.600979667587926E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -17700,7 +17273,7 @@
       </c>
       <c r="B269" s="6">
         <f ca="1"/>
-        <v>1.3135735418262377E-2</v>
+        <v>1.3135735418262373E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -17710,7 +17283,7 @@
       </c>
       <c r="B270" s="6">
         <f ca="1"/>
-        <v>0.17606935518290026</v>
+        <v>0.17606935518290023</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -17720,7 +17293,7 @@
       </c>
       <c r="B271" s="6">
         <f ca="1"/>
-        <v>-1.0414820249799232E-2</v>
+        <v>-1.0414820249799218E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -17730,7 +17303,7 @@
       </c>
       <c r="B272" s="6">
         <f ca="1"/>
-        <v>-0.11054010406597006</v>
+        <v>-0.11054010406596999</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -17740,7 +17313,7 @@
       </c>
       <c r="B273" s="6">
         <f ca="1"/>
-        <v>0.16584294113391279</v>
+        <v>0.16584294113391276</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -17750,7 +17323,7 @@
       </c>
       <c r="B274" s="6">
         <f ca="1"/>
-        <v>0.40412937422571565</v>
+        <v>0.40412937422571571</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -17760,7 +17333,7 @@
       </c>
       <c r="B275" s="6">
         <f ca="1"/>
-        <v>6.8384806366282892E-3</v>
+        <v>6.8384806366282719E-3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -17790,7 +17363,7 @@
       </c>
       <c r="B278" s="6">
         <f ca="1"/>
-        <v>0.2920789839208543</v>
+        <v>0.29207898392085435</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -18100,7 +17673,7 @@
       </c>
       <c r="B309" s="6">
         <f ca="1"/>
-        <v>1.345674663414881E-3</v>
+        <v>1.3456746634148812E-3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -18170,7 +17743,7 @@
       </c>
       <c r="B316" s="6">
         <f ca="1"/>
-        <v>2.2486137414171159E-2</v>
+        <v>2.248613741417118E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -18180,7 +17753,7 @@
       </c>
       <c r="B317" s="6">
         <f ca="1"/>
-        <v>-0.17883773529255845</v>
+        <v>-0.17883773529255842</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -18210,7 +17783,7 @@
       </c>
       <c r="B320" s="6">
         <f ca="1"/>
-        <v>1.2753551300811725E-2</v>
+        <v>1.2753551300811718E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -18260,7 +17833,7 @@
       </c>
       <c r="B325" s="6">
         <f ca="1"/>
-        <v>-4.1376421371027525E-2</v>
+        <v>-4.1376421371027511E-2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -18270,7 +17843,7 @@
       </c>
       <c r="B326" s="6">
         <f ca="1"/>
-        <v>6.6200220084364506E-2</v>
+        <v>6.6200220084364492E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -18280,7 +17853,7 @@
       </c>
       <c r="B327" s="6">
         <f ca="1"/>
-        <v>-6.0798955482738219E-2</v>
+        <v>-6.0798955482738233E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -18290,7 +17863,7 @@
       </c>
       <c r="B328" s="6">
         <f ca="1"/>
-        <v>-8.7183259920011025E-2</v>
+        <v>-8.7183259920011011E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -18300,7 +17873,7 @@
       </c>
       <c r="B329" s="6">
         <f ca="1"/>
-        <v>5.2006862077253316E-2</v>
+        <v>5.2006862077253309E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -18310,7 +17883,7 @@
       </c>
       <c r="B330" s="6">
         <f ca="1"/>
-        <v>-0.1264982296478048</v>
+        <v>-0.12649822964780483</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -18320,7 +17893,7 @@
       </c>
       <c r="B331" s="6">
         <f ca="1"/>
-        <v>-0.10876644305872314</v>
+        <v>-0.10876644305872316</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -18330,7 +17903,7 @@
       </c>
       <c r="B332" s="6">
         <f ca="1"/>
-        <v>0.19240235421681579</v>
+        <v>0.19240235421681581</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -18340,7 +17913,7 @@
       </c>
       <c r="B333" s="6">
         <f ca="1"/>
-        <v>3.104877456606869E-2</v>
+        <v>3.10487745660687E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -18350,7 +17923,7 @@
       </c>
       <c r="B334" s="6">
         <f ca="1"/>
-        <v>3.0431419899403851E-2</v>
+        <v>3.0431419899403855E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -18390,7 +17963,7 @@
       </c>
       <c r="B338" s="6">
         <f ca="1"/>
-        <v>3.9230040967391709E-2</v>
+        <v>3.9230040967391702E-2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -18400,7 +17973,7 @@
       </c>
       <c r="B339" s="6">
         <f ca="1"/>
-        <v>-8.3648217105404196E-3</v>
+        <v>-8.3648217105404335E-3</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -18410,7 +17983,7 @@
       </c>
       <c r="B340" s="6">
         <f ca="1"/>
-        <v>0.24830845930607814</v>
+        <v>0.24830845930607809</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -18420,7 +17993,7 @@
       </c>
       <c r="B341" s="6">
         <f ca="1"/>
-        <v>0.39043044712131642</v>
+        <v>0.39043044712131647</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -18430,7 +18003,7 @@
       </c>
       <c r="B342" s="6">
         <f ca="1"/>
-        <v>0.58130620350340567</v>
+        <v>0.58130620350340578</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -18710,7 +18283,7 @@
       </c>
       <c r="B370" s="6">
         <f ca="1"/>
-        <v>3.0801396989299756E-5</v>
+        <v>3.0801396989299621E-5</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -18720,7 +18293,7 @@
       </c>
       <c r="B371" s="6">
         <f ca="1"/>
-        <v>-4.7086585593187945E-3</v>
+        <v>-4.7086585593187954E-3</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -18750,7 +18323,7 @@
       </c>
       <c r="B374" s="6">
         <f ca="1"/>
-        <v>6.1066030421960932E-2</v>
+        <v>6.1066030421960953E-2</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -18770,7 +18343,7 @@
       </c>
       <c r="B376" s="6">
         <f ca="1"/>
-        <v>-1.6699008275117964E-2</v>
+        <v>-1.6699008275117961E-2</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -18780,7 +18353,7 @@
       </c>
       <c r="B377" s="6">
         <f ca="1"/>
-        <v>-8.2584010207749289E-2</v>
+        <v>-8.2584010207749275E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -18790,7 +18363,7 @@
       </c>
       <c r="B378" s="6">
         <f ca="1"/>
-        <v>-3.0464837545119736E-2</v>
+        <v>-3.0464837545119729E-2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -18820,7 +18393,7 @@
       </c>
       <c r="B381" s="6">
         <f ca="1"/>
-        <v>-3.6940967782793911E-2</v>
+        <v>-3.6940967782793904E-2</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -18830,7 +18403,7 @@
       </c>
       <c r="B382" s="6">
         <f ca="1"/>
-        <v>-0.21002328211967061</v>
+        <v>-0.21002328211967058</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -18880,7 +18453,7 @@
       </c>
       <c r="B387" s="6">
         <f ca="1"/>
-        <v>3.8127780042363751E-2</v>
+        <v>3.8127780042363744E-2</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -18890,7 +18463,7 @@
       </c>
       <c r="B388" s="6">
         <f ca="1"/>
-        <v>4.1418882671087211E-2</v>
+        <v>4.1418882671087204E-2</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -18920,7 +18493,7 @@
       </c>
       <c r="B391" s="6">
         <f ca="1"/>
-        <v>-0.12076931942492461</v>
+        <v>-0.12076931942492458</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -18930,7 +18503,7 @@
       </c>
       <c r="B392" s="6">
         <f ca="1"/>
-        <v>-0.12441863668983018</v>
+        <v>-0.12441863668983015</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -18960,7 +18533,7 @@
       </c>
       <c r="B395" s="6">
         <f ca="1"/>
-        <v>1.3133951712978827E-2</v>
+        <v>1.3133951712978841E-2</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -18980,7 +18553,7 @@
       </c>
       <c r="B397" s="6">
         <f ca="1"/>
-        <v>-0.22662533275297975</v>
+        <v>-0.22662533275297977</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -18990,7 +18563,7 @@
       </c>
       <c r="B398" s="6">
         <f ca="1"/>
-        <v>3.3119126297263806E-3</v>
+        <v>3.3119126297263459E-3</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -19000,7 +18573,7 @@
       </c>
       <c r="B399" s="6">
         <f ca="1"/>
-        <v>4.8753020536156579E-2</v>
+        <v>4.8753020536156572E-2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -19010,7 +18583,7 @@
       </c>
       <c r="B400" s="6">
         <f ca="1"/>
-        <v>2.5875352887746804E-2</v>
+        <v>2.5875352887746811E-2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -19020,7 +18593,7 @@
       </c>
       <c r="B401" s="6">
         <f ca="1"/>
-        <v>-3.1660843243774085E-2</v>
+        <v>-3.166084324377412E-2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -19030,7 +18603,7 @@
       </c>
       <c r="B402" s="6">
         <f ca="1"/>
-        <v>0.21351360083217197</v>
+        <v>0.21351360083217194</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -19040,7 +18613,7 @@
       </c>
       <c r="B403" s="6">
         <f ca="1"/>
-        <v>0.30285159489565805</v>
+        <v>0.30285159489565799</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -19320,7 +18893,7 @@
       </c>
       <c r="B431" s="6">
         <f ca="1"/>
-        <v>-2.8148296356484581E-4</v>
+        <v>-2.8148296356484586E-4</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -19340,7 +18913,7 @@
       </c>
       <c r="B433" s="6">
         <f ca="1"/>
-        <v>-1.8819018295320193E-3</v>
+        <v>-1.8819018295320191E-3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -19370,7 +18943,7 @@
       </c>
       <c r="B436" s="6">
         <f ca="1"/>
-        <v>-1.5504538662786661E-2</v>
+        <v>-1.5504538662786659E-2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -19380,7 +18953,7 @@
       </c>
       <c r="B437" s="6">
         <f ca="1"/>
-        <v>-2.9209513781558987E-2</v>
+        <v>-2.9209513781558991E-2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -19390,7 +18963,7 @@
       </c>
       <c r="B438" s="6">
         <f ca="1"/>
-        <v>-1.2977926881851717E-2</v>
+        <v>-1.2977926881851714E-2</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -19420,7 +18993,7 @@
       </c>
       <c r="B441" s="6">
         <f ca="1"/>
-        <v>-1.9329881650080667E-2</v>
+        <v>-1.9329881650080663E-2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -19430,7 +19003,7 @@
       </c>
       <c r="B442" s="6">
         <f ca="1"/>
-        <v>-0.14992241994117878</v>
+        <v>-0.14992241994117875</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -19440,7 +19013,7 @@
       </c>
       <c r="B443" s="6">
         <f ca="1"/>
-        <v>3.9395023474430545E-3</v>
+        <v>3.9395023474430579E-3</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -19470,7 +19043,7 @@
       </c>
       <c r="B446" s="6">
         <f ca="1"/>
-        <v>9.741221012408835E-2</v>
+        <v>9.7412210124088364E-2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -19480,7 +19053,7 @@
       </c>
       <c r="B447" s="6">
         <f ca="1"/>
-        <v>-7.5871475795136464E-2</v>
+        <v>-7.5871475795136478E-2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -19490,7 +19063,7 @@
       </c>
       <c r="B448" s="6">
         <f ca="1"/>
-        <v>-0.20797057072349523</v>
+        <v>-0.2079705707234952</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -19560,7 +19133,7 @@
       </c>
       <c r="B455" s="6">
         <f ca="1"/>
-        <v>-0.14737262800474954</v>
+        <v>-0.14737262800474957</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -19570,7 +19143,7 @@
       </c>
       <c r="B456" s="6">
         <f ca="1"/>
-        <v>-5.6421174139868746E-4</v>
+        <v>-5.6421174139868291E-4</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -19580,7 +19153,7 @@
       </c>
       <c r="B457" s="6">
         <f ca="1"/>
-        <v>-0.10401631091668323</v>
+        <v>-0.10401631091668324</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -19590,7 +19163,7 @@
       </c>
       <c r="B458" s="6">
         <f ca="1"/>
-        <v>0.11329222578503426</v>
+        <v>0.11329222578503424</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -19600,7 +19173,7 @@
       </c>
       <c r="B459" s="6">
         <f ca="1"/>
-        <v>4.1131833266708648E-2</v>
+        <v>4.1131833266708724E-2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -19610,7 +19183,7 @@
       </c>
       <c r="B460" s="6">
         <f ca="1"/>
-        <v>-4.0099920926811368E-2</v>
+        <v>-4.0099920926811382E-2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -19620,7 +19193,7 @@
       </c>
       <c r="B461" s="6">
         <f ca="1"/>
-        <v>-0.10850928676275291</v>
+        <v>-0.10850928676275294</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -19630,7 +19203,7 @@
       </c>
       <c r="B462" s="6">
         <f ca="1"/>
-        <v>-0.24001969441473719</v>
+        <v>-0.24001969441473725</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -19640,7 +19213,7 @@
       </c>
       <c r="B463" s="6">
         <f ca="1"/>
-        <v>-0.15701487770071518</v>
+        <v>-0.15701487770071521</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -19650,7 +19223,7 @@
       </c>
       <c r="B464" s="6">
         <f ca="1"/>
-        <v>-9.9692019366165063E-2</v>
+        <v>-9.9692019366165036E-2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -19990,7 +19563,7 @@
       </c>
       <c r="B498" s="6">
         <f ca="1"/>
-        <v>-1.0481623678882357E-2</v>
+        <v>-1.0481623678882359E-2</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -20040,7 +19613,7 @@
       </c>
       <c r="B503" s="6">
         <f ca="1"/>
-        <v>6.193352636878334E-2</v>
+        <v>6.1933526368783354E-2</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -20050,7 +19623,7 @@
       </c>
       <c r="B504" s="6">
         <f ca="1"/>
-        <v>7.6584924753124284E-2</v>
+        <v>7.658492475312427E-2</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -20060,7 +19633,7 @@
       </c>
       <c r="B505" s="6">
         <f ca="1"/>
-        <v>8.9338630534741656E-2</v>
+        <v>8.9338630534741642E-2</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -20080,7 +19653,7 @@
       </c>
       <c r="B507" s="6">
         <f ca="1"/>
-        <v>-4.4273238829675189E-2</v>
+        <v>-4.4273238829675196E-2</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -20100,7 +19673,7 @@
       </c>
       <c r="B509" s="6">
         <f ca="1"/>
-        <v>-0.26082302821448761</v>
+        <v>-0.26082302821448766</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -20120,7 +19693,7 @@
       </c>
       <c r="B511" s="6">
         <f ca="1"/>
-        <v>-9.6861243706207398E-2</v>
+        <v>-9.6861243706207384E-2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -20170,7 +19743,7 @@
       </c>
       <c r="B516" s="6">
         <f ca="1"/>
-        <v>-0.17939379938224576</v>
+        <v>-0.17939379938224578</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -20220,7 +19793,7 @@
       </c>
       <c r="B521" s="6">
         <f ca="1"/>
-        <v>-0.26439872773388839</v>
+        <v>-0.26439872773388834</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -20230,7 +19803,7 @@
       </c>
       <c r="B522" s="6">
         <f ca="1"/>
-        <v>-0.32576295822793011</v>
+        <v>-0.32576295822793017</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -20250,7 +19823,7 @@
       </c>
       <c r="B524" s="6">
         <f ca="1"/>
-        <v>-0.1897117174143147</v>
+        <v>-0.18971171741431472</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -20260,7 +19833,7 @@
       </c>
       <c r="B525" s="6">
         <f ca="1"/>
-        <v>-0.19896186623027567</v>
+        <v>-0.1989618662302757</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -20580,7 +20153,7 @@
       </c>
       <c r="B557" s="6">
         <f ca="1"/>
-        <v>-1.0086684441771875E-3</v>
+        <v>-1.0086684441771878E-3</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -20610,7 +20183,7 @@
       </c>
       <c r="B560" s="6">
         <f ca="1"/>
-        <v>-7.0973624901490865E-3</v>
+        <v>-7.0973624901490874E-3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -20630,7 +20203,7 @@
       </c>
       <c r="B562" s="6">
         <f ca="1"/>
-        <v>-4.3949076044295359E-3</v>
+        <v>-4.3949076044295377E-3</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -20680,7 +20253,7 @@
       </c>
       <c r="B567" s="6">
         <f ca="1"/>
-        <v>-5.3770658450374466E-2</v>
+        <v>-5.3770658450374459E-2</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -20700,7 +20273,7 @@
       </c>
       <c r="B569" s="6">
         <f ca="1"/>
-        <v>-5.2459308553826703E-2</v>
+        <v>-5.2459308553826696E-2</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -20740,7 +20313,7 @@
       </c>
       <c r="B573" s="6">
         <f ca="1"/>
-        <v>-5.0614994482388438E-2</v>
+        <v>-5.0614994482388431E-2</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -20790,7 +20363,7 @@
       </c>
       <c r="B578" s="6">
         <f ca="1"/>
-        <v>-0.11749095567631848</v>
+        <v>-0.11749095567631844</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -20800,7 +20373,7 @@
       </c>
       <c r="B579" s="6">
         <f ca="1"/>
-        <v>0.11838114506001289</v>
+        <v>0.1183811450600129</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -20840,7 +20413,7 @@
       </c>
       <c r="B583" s="6">
         <f ca="1"/>
-        <v>-7.7559864331098238E-2</v>
+        <v>-7.7559864331098252E-2</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -20850,7 +20423,7 @@
       </c>
       <c r="B584" s="6">
         <f ca="1"/>
-        <v>-0.36177213156296684</v>
+        <v>-0.36177213156296673</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -20870,7 +20443,7 @@
       </c>
       <c r="B586" s="6">
         <f ca="1"/>
-        <v>-0.41817679699647381</v>
+        <v>-0.41817679699647387</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -21200,7 +20773,7 @@
       </c>
       <c r="B619" s="6">
         <f ca="1"/>
-        <v>-1.7487504297959465E-3</v>
+        <v>-1.7487504297959463E-3</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -21210,7 +20783,7 @@
       </c>
       <c r="B620" s="6">
         <f ca="1"/>
-        <v>-2.2572101568765161E-3</v>
+        <v>-2.2572101568765156E-3</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -21220,7 +20793,7 @@
       </c>
       <c r="B621" s="6">
         <f ca="1"/>
-        <v>-1.848550890659704E-3</v>
+        <v>-1.8485508906597044E-3</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -21230,7 +20803,7 @@
       </c>
       <c r="B622" s="6">
         <f ca="1"/>
-        <v>-1.7355786397900003E-2</v>
+        <v>-1.7355786397899999E-2</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -21280,7 +20853,7 @@
       </c>
       <c r="B627" s="6">
         <f ca="1"/>
-        <v>7.2677247289448842E-4</v>
+        <v>7.2677247289448799E-4</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -21290,7 +20863,7 @@
       </c>
       <c r="B628" s="6">
         <f ca="1"/>
-        <v>-2.3183796862785482E-2</v>
+        <v>-2.3183796862785485E-2</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -21320,7 +20893,7 @@
       </c>
       <c r="B631" s="6">
         <f ca="1"/>
-        <v>-4.2641554977528862E-2</v>
+        <v>-4.2641554977528869E-2</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -21340,7 +20913,7 @@
       </c>
       <c r="B633" s="6">
         <f ca="1"/>
-        <v>-2.718353881262173E-2</v>
+        <v>-2.7183538812621727E-2</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -21350,7 +20923,7 @@
       </c>
       <c r="B634" s="6">
         <f ca="1"/>
-        <v>0.12376619130257192</v>
+        <v>0.12376619130257194</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -21370,7 +20943,7 @@
       </c>
       <c r="B636" s="6">
         <f ca="1"/>
-        <v>-6.1651803979077741E-2</v>
+        <v>-6.1651803979077748E-2</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -21380,7 +20953,7 @@
       </c>
       <c r="B637" s="6">
         <f ca="1"/>
-        <v>-0.14689178889551369</v>
+        <v>-0.14689178889551371</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -21390,7 +20963,7 @@
       </c>
       <c r="B638" s="6">
         <f ca="1"/>
-        <v>-7.0499703158655461E-2</v>
+        <v>-7.0499703158655447E-2</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -21400,7 +20973,7 @@
       </c>
       <c r="B639" s="6">
         <f ca="1"/>
-        <v>-3.1099333966342724E-3</v>
+        <v>-3.1099333966342719E-3</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -21410,7 +20983,7 @@
       </c>
       <c r="B640" s="6">
         <f ca="1"/>
-        <v>6.9040678090166192E-3</v>
+        <v>6.9040678090166209E-3</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -21420,7 +20993,7 @@
       </c>
       <c r="B641" s="6">
         <f ca="1"/>
-        <v>1.3705810950093286E-2</v>
+        <v>1.3705810950093293E-2</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -21470,7 +21043,7 @@
       </c>
       <c r="B646" s="6">
         <f ca="1"/>
-        <v>-0.18937249292736039</v>
+        <v>-0.18937249292736036</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -21490,7 +21063,7 @@
       </c>
       <c r="B648" s="6">
         <f ca="1"/>
-        <v>-0.35859633192251966</v>
+        <v>-0.35859633192251972</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -21850,7 +21423,7 @@
       </c>
       <c r="B684" s="6">
         <f ca="1"/>
-        <v>-2.9322976661098057E-3</v>
+        <v>-2.9322976661098048E-3</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -21870,7 +21443,7 @@
       </c>
       <c r="B686" s="6">
         <f ca="1"/>
-        <v>-8.4865736757312824E-3</v>
+        <v>-8.4865736757312807E-3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -21880,7 +21453,7 @@
       </c>
       <c r="B687" s="6">
         <f ca="1"/>
-        <v>-6.4561328333698868E-3</v>
+        <v>-6.4561328333698877E-3</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -21900,7 +21473,7 @@
       </c>
       <c r="B689" s="6">
         <f ca="1"/>
-        <v>-6.8759274097460908E-3</v>
+        <v>-6.8759274097460917E-3</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -21910,7 +21483,7 @@
       </c>
       <c r="B690" s="6">
         <f ca="1"/>
-        <v>-1.7209441455324596E-2</v>
+        <v>-1.7209441455324593E-2</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -21930,7 +21503,7 @@
       </c>
       <c r="B692" s="6">
         <f ca="1"/>
-        <v>7.8942012694828215E-3</v>
+        <v>7.8942012694828197E-3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -21940,7 +21513,7 @@
       </c>
       <c r="B693" s="6">
         <f ca="1"/>
-        <v>2.3811598442209089E-2</v>
+        <v>2.3811598442209085E-2</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -21960,7 +21533,7 @@
       </c>
       <c r="B695" s="6">
         <f ca="1"/>
-        <v>4.9205234537394262E-2</v>
+        <v>4.9205234537394268E-2</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -21970,7 +21543,7 @@
       </c>
       <c r="B696" s="6">
         <f ca="1"/>
-        <v>-4.7757736860291116E-3</v>
+        <v>-4.7757736860291125E-3</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -21980,7 +21553,7 @@
       </c>
       <c r="B697" s="6">
         <f ca="1"/>
-        <v>2.7736415400215569E-2</v>
+        <v>2.7736415400215573E-2</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -22030,7 +21603,7 @@
       </c>
       <c r="B702" s="6">
         <f ca="1"/>
-        <v>-1.3906424464298295E-2</v>
+        <v>-1.3906424464298293E-2</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -22040,7 +21613,7 @@
       </c>
       <c r="B703" s="6">
         <f ca="1"/>
-        <v>-2.8331287896213135E-2</v>
+        <v>-2.8331287896213139E-2</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -22060,7 +21633,7 @@
       </c>
       <c r="B705" s="6">
         <f ca="1"/>
-        <v>-3.3410374890288634E-2</v>
+        <v>-3.3410374890288627E-2</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -22090,7 +21663,7 @@
       </c>
       <c r="B708" s="6">
         <f ca="1"/>
-        <v>-4.5887229931303062E-3</v>
+        <v>-4.5887229931303071E-3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -43170,7 +42743,7 @@
       </c>
       <c r="B2816" s="6">
         <f ca="1"/>
-        <v>3.9586992985086869E-4</v>
+        <v>3.9586992985086875E-4</v>
       </c>
     </row>
     <row r="2817" spans="1:2" x14ac:dyDescent="0.2">
@@ -43180,7 +42753,7 @@
       </c>
       <c r="B2817" s="6">
         <f ca="1"/>
-        <v>1.7145816630521949E-3</v>
+        <v>1.7145816630521951E-3</v>
       </c>
     </row>
     <row r="2818" spans="1:2" x14ac:dyDescent="0.2">
@@ -43190,7 +42763,7 @@
       </c>
       <c r="B2818" s="6">
         <f ca="1"/>
-        <v>1.6298367451695374E-3</v>
+        <v>1.6298367451695376E-3</v>
       </c>
     </row>
     <row r="2819" spans="1:2" x14ac:dyDescent="0.2">
@@ -43220,7 +42793,7 @@
       </c>
       <c r="B2821" s="6">
         <f ca="1"/>
-        <v>2.1720307593248618E-3</v>
+        <v>2.1720307593248614E-3</v>
       </c>
     </row>
     <row r="2822" spans="1:2" x14ac:dyDescent="0.2">
@@ -43250,7 +42823,7 @@
       </c>
       <c r="B2824" s="6">
         <f ca="1"/>
-        <v>1.1832819448346871E-3</v>
+        <v>1.1832819448346868E-3</v>
       </c>
     </row>
     <row r="2825" spans="1:2" x14ac:dyDescent="0.2">
@@ -43270,7 +42843,7 @@
       </c>
       <c r="B2826" s="6">
         <f ca="1"/>
-        <v>5.8107922999613235E-4</v>
+        <v>5.8107922999613246E-4</v>
       </c>
     </row>
     <row r="2827" spans="1:2" x14ac:dyDescent="0.2">
@@ -43280,7 +42853,7 @@
       </c>
       <c r="B2827" s="6">
         <f ca="1"/>
-        <v>1.7750409658777557E-3</v>
+        <v>1.7750409658777555E-3</v>
       </c>
     </row>
     <row r="2828" spans="1:2" x14ac:dyDescent="0.2">
@@ -43310,7 +42883,7 @@
       </c>
       <c r="B2830" s="6">
         <f ca="1"/>
-        <v>7.3443206464768708E-4</v>
+        <v>7.3443206464768719E-4</v>
       </c>
     </row>
     <row r="2831" spans="1:2" x14ac:dyDescent="0.2">
@@ -43320,7 +42893,7 @@
       </c>
       <c r="B2831" s="6">
         <f ca="1"/>
-        <v>-6.7078984016987736E-5</v>
+        <v>-6.7078984016987722E-5</v>
       </c>
     </row>
     <row r="2832" spans="1:2" x14ac:dyDescent="0.2">
@@ -43730,7 +43303,7 @@
       </c>
       <c r="B2872" s="6">
         <f ca="1"/>
-        <v>4.5921336830803574E-4</v>
+        <v>4.592133683080358E-4</v>
       </c>
     </row>
     <row r="2873" spans="1:2" x14ac:dyDescent="0.2">
@@ -43740,7 +43313,7 @@
       </c>
       <c r="B2873" s="6">
         <f ca="1"/>
-        <v>2.181413347908142E-5</v>
+        <v>2.1814133479081403E-5</v>
       </c>
     </row>
     <row r="2874" spans="1:2" x14ac:dyDescent="0.2">
@@ -43750,7 +43323,7 @@
       </c>
       <c r="B2874" s="6">
         <f ca="1"/>
-        <v>-8.203731147970782E-4</v>
+        <v>-8.2037311479707831E-4</v>
       </c>
     </row>
     <row r="2875" spans="1:2" x14ac:dyDescent="0.2">
@@ -43760,7 +43333,7 @@
       </c>
       <c r="B2875" s="6">
         <f ca="1"/>
-        <v>2.2369074447319997E-3</v>
+        <v>2.2369074447320001E-3</v>
       </c>
     </row>
     <row r="2876" spans="1:2" x14ac:dyDescent="0.2">
@@ -43770,7 +43343,7 @@
       </c>
       <c r="B2876" s="6">
         <f ca="1"/>
-        <v>1.8689687521372903E-3</v>
+        <v>1.8689687521372899E-3</v>
       </c>
     </row>
     <row r="2877" spans="1:2" x14ac:dyDescent="0.2">
@@ -43780,7 +43353,7 @@
       </c>
       <c r="B2877" s="6">
         <f ca="1"/>
-        <v>2.5139578907518905E-3</v>
+        <v>2.5139578907518909E-3</v>
       </c>
     </row>
     <row r="2878" spans="1:2" x14ac:dyDescent="0.2">
@@ -43790,7 +43363,7 @@
       </c>
       <c r="B2878" s="6">
         <f ca="1"/>
-        <v>6.2220618364912184E-3</v>
+        <v>6.2220618364912175E-3</v>
       </c>
     </row>
     <row r="2879" spans="1:2" x14ac:dyDescent="0.2">
@@ -43830,7 +43403,7 @@
       </c>
       <c r="B2882" s="6">
         <f ca="1"/>
-        <v>2.6870542010239301E-3</v>
+        <v>2.6870542010239305E-3</v>
       </c>
     </row>
     <row r="2883" spans="1:2" x14ac:dyDescent="0.2">
@@ -43840,7 +43413,7 @@
       </c>
       <c r="B2883" s="6">
         <f ca="1"/>
-        <v>7.1489099116495269E-3</v>
+        <v>7.1489099116495251E-3</v>
       </c>
     </row>
     <row r="2884" spans="1:2" x14ac:dyDescent="0.2">
@@ -43850,7 +43423,7 @@
       </c>
       <c r="B2884" s="6">
         <f ca="1"/>
-        <v>5.0446425028412819E-3</v>
+        <v>5.0446425028412827E-3</v>
       </c>
     </row>
     <row r="2885" spans="1:2" x14ac:dyDescent="0.2">
@@ -43900,7 +43473,7 @@
       </c>
       <c r="B2889" s="6">
         <f ca="1"/>
-        <v>3.5108644194675612E-3</v>
+        <v>3.5108644194675608E-3</v>
       </c>
     </row>
     <row r="2890" spans="1:2" x14ac:dyDescent="0.2">
@@ -43910,7 +43483,7 @@
       </c>
       <c r="B2890" s="6">
         <f ca="1"/>
-        <v>2.8879024114297218E-3</v>
+        <v>2.8879024114297222E-3</v>
       </c>
     </row>
     <row r="2891" spans="1:2" x14ac:dyDescent="0.2">
@@ -44360,7 +43933,7 @@
       </c>
       <c r="B2935" s="6">
         <f ca="1"/>
-        <v>1.177900251728833E-2</v>
+        <v>1.1779002517288327E-2</v>
       </c>
     </row>
     <row r="2936" spans="1:2" x14ac:dyDescent="0.2">
@@ -44380,7 +43953,7 @@
       </c>
       <c r="B2937" s="6">
         <f ca="1"/>
-        <v>1.6551813570153149E-2</v>
+        <v>1.6551813570153145E-2</v>
       </c>
     </row>
     <row r="2938" spans="1:2" x14ac:dyDescent="0.2">
@@ -44440,7 +44013,7 @@
       </c>
       <c r="B2943" s="6">
         <f ca="1"/>
-        <v>1.9246622544664926E-2</v>
+        <v>1.9246622544664929E-2</v>
       </c>
     </row>
     <row r="2944" spans="1:2" x14ac:dyDescent="0.2">
@@ -44470,7 +44043,7 @@
       </c>
       <c r="B2946" s="6">
         <f ca="1"/>
-        <v>1.9910993858053051E-2</v>
+        <v>1.9910993858053047E-2</v>
       </c>
     </row>
     <row r="2947" spans="1:2" x14ac:dyDescent="0.2">
@@ -44490,7 +44063,7 @@
       </c>
       <c r="B2948" s="6">
         <f ca="1"/>
-        <v>1.5350241134256572E-2</v>
+        <v>1.535024113425657E-2</v>
       </c>
     </row>
     <row r="2949" spans="1:2" x14ac:dyDescent="0.2">
@@ -44500,7 +44073,7 @@
       </c>
       <c r="B2949" s="6">
         <f ca="1"/>
-        <v>1.3377758931668005E-2</v>
+        <v>1.3377758931668003E-2</v>
       </c>
     </row>
     <row r="2950" spans="1:2" x14ac:dyDescent="0.2">
@@ -44520,7 +44093,7 @@
       </c>
       <c r="B2951" s="6">
         <f ca="1"/>
-        <v>1.2987314544759378E-2</v>
+        <v>1.2987314544759376E-2</v>
       </c>
     </row>
     <row r="2952" spans="1:2" x14ac:dyDescent="0.2">
@@ -44530,7 +44103,7 @@
       </c>
       <c r="B2952" s="6">
         <f ca="1"/>
-        <v>1.0310401594468313E-2</v>
+        <v>1.0310401594468312E-2</v>
       </c>
     </row>
     <row r="2953" spans="1:2" x14ac:dyDescent="0.2">
@@ -44560,7 +44133,7 @@
       </c>
       <c r="B2955" s="6">
         <f ca="1"/>
-        <v>6.0740111855962413E-3</v>
+        <v>6.0740111855962405E-3</v>
       </c>
     </row>
     <row r="2956" spans="1:2" x14ac:dyDescent="0.2">
@@ -44570,7 +44143,7 @@
       </c>
       <c r="B2956" s="6">
         <f ca="1"/>
-        <v>4.2189622949436812E-3</v>
+        <v>4.2189622949436803E-3</v>
       </c>
     </row>
     <row r="2957" spans="1:2" x14ac:dyDescent="0.2">
@@ -44580,7 +44153,7 @@
       </c>
       <c r="B2957" s="6">
         <f ca="1"/>
-        <v>2.4245109860421866E-3</v>
+        <v>2.4245109860421871E-3</v>
       </c>
     </row>
     <row r="2958" spans="1:2" x14ac:dyDescent="0.2">
@@ -44920,7 +44493,7 @@
       </c>
       <c r="B2991" s="6">
         <f ca="1"/>
-        <v>1.4923346925449922E-4</v>
+        <v>1.4923346925449919E-4</v>
       </c>
     </row>
     <row r="2992" spans="1:2" x14ac:dyDescent="0.2">
@@ -44930,7 +44503,7 @@
       </c>
       <c r="B2992" s="6">
         <f ca="1"/>
-        <v>1.8816888252661456E-3</v>
+        <v>1.8816888252661454E-3</v>
       </c>
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.2">
@@ -44960,7 +44533,7 @@
       </c>
       <c r="B2995" s="6">
         <f ca="1"/>
-        <v>3.0029426170676797E-2</v>
+        <v>3.0029426170676794E-2</v>
       </c>
     </row>
     <row r="2996" spans="1:2" x14ac:dyDescent="0.2">
@@ -45020,7 +44593,7 @@
       </c>
       <c r="B3001" s="6">
         <f ca="1"/>
-        <v>5.5829721958734951E-2</v>
+        <v>5.5829721958734944E-2</v>
       </c>
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.2">
@@ -45060,7 +44633,7 @@
       </c>
       <c r="B3005" s="6">
         <f ca="1"/>
-        <v>4.6642355965109225E-2</v>
+        <v>4.6642355965109232E-2</v>
       </c>
     </row>
     <row r="3006" spans="1:2" x14ac:dyDescent="0.2">
@@ -45070,7 +44643,7 @@
       </c>
       <c r="B3006" s="6">
         <f ca="1"/>
-        <v>3.8034704954899468E-2</v>
+        <v>3.8034704954899454E-2</v>
       </c>
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.2">
@@ -45110,7 +44683,7 @@
       </c>
       <c r="B3010" s="6">
         <f ca="1"/>
-        <v>2.9962513717887301E-2</v>
+        <v>2.9962513717887305E-2</v>
       </c>
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.2">
@@ -45150,7 +44723,7 @@
       </c>
       <c r="B3014" s="6">
         <f ca="1"/>
-        <v>2.7763015262830818E-2</v>
+        <v>2.7763015262830825E-2</v>
       </c>
     </row>
     <row r="3015" spans="1:2" x14ac:dyDescent="0.2">
@@ -45180,7 +44753,7 @@
       </c>
       <c r="B3017" s="6">
         <f ca="1"/>
-        <v>1.3839551548305067E-2</v>
+        <v>1.3839551548305065E-2</v>
       </c>
     </row>
     <row r="3018" spans="1:2" x14ac:dyDescent="0.2">
@@ -45210,7 +44783,7 @@
       </c>
       <c r="B3020" s="6">
         <f ca="1"/>
-        <v>5.6563304504506154E-3</v>
+        <v>5.6563304504506163E-3</v>
       </c>
     </row>
     <row r="3021" spans="1:2" x14ac:dyDescent="0.2">
@@ -45220,7 +44793,7 @@
       </c>
       <c r="B3021" s="6">
         <f ca="1"/>
-        <v>4.1959675510271363E-3</v>
+        <v>4.1959675510271355E-3</v>
       </c>
     </row>
     <row r="3022" spans="1:2" x14ac:dyDescent="0.2">
@@ -45560,7 +45133,7 @@
       </c>
       <c r="B3055" s="6">
         <f ca="1"/>
-        <v>2.6017169691313659E-4</v>
+        <v>2.6017169691313746E-4</v>
       </c>
     </row>
     <row r="3056" spans="1:2" x14ac:dyDescent="0.2">
@@ -45570,7 +45143,7 @@
       </c>
       <c r="B3056" s="6">
         <f ca="1"/>
-        <v>-1.7777082250987397E-2</v>
+        <v>-1.7777082250987401E-2</v>
       </c>
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.2">
@@ -45580,7 +45153,7 @@
       </c>
       <c r="B3057" s="6">
         <f ca="1"/>
-        <v>6.7868729060286639E-2</v>
+        <v>6.7868729060286626E-2</v>
       </c>
     </row>
     <row r="3058" spans="1:2" x14ac:dyDescent="0.2">
@@ -45650,7 +45223,7 @@
       </c>
       <c r="B3064" s="6">
         <f ca="1"/>
-        <v>8.7166154188097048E-2</v>
+        <v>8.7166154188097034E-2</v>
       </c>
     </row>
     <row r="3065" spans="1:2" x14ac:dyDescent="0.2">
@@ -45670,7 +45243,7 @@
       </c>
       <c r="B3066" s="6">
         <f ca="1"/>
-        <v>9.7830265431597271E-2</v>
+        <v>9.7830265431597258E-2</v>
       </c>
     </row>
     <row r="3067" spans="1:2" x14ac:dyDescent="0.2">
@@ -45690,7 +45263,7 @@
       </c>
       <c r="B3068" s="6">
         <f ca="1"/>
-        <v>8.2463065166934038E-2</v>
+        <v>8.2463065166934052E-2</v>
       </c>
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.2">
@@ -45720,7 +45293,7 @@
       </c>
       <c r="B3071" s="6">
         <f ca="1"/>
-        <v>8.5758443887764116E-2</v>
+        <v>8.5758443887764102E-2</v>
       </c>
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.2">
@@ -45730,7 +45303,7 @@
       </c>
       <c r="B3072" s="6">
         <f ca="1"/>
-        <v>7.8351460336804332E-2</v>
+        <v>7.8351460336804318E-2</v>
       </c>
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.2">
@@ -45750,7 +45323,7 @@
       </c>
       <c r="B3074" s="6">
         <f ca="1"/>
-        <v>6.4351035791861896E-2</v>
+        <v>6.435103579186191E-2</v>
       </c>
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.2">
@@ -45770,7 +45343,7 @@
       </c>
       <c r="B3076" s="6">
         <f ca="1"/>
-        <v>5.5355313494541133E-2</v>
+        <v>5.535531349454114E-2</v>
       </c>
     </row>
     <row r="3077" spans="1:2" x14ac:dyDescent="0.2">
@@ -45800,7 +45373,7 @@
       </c>
       <c r="B3079" s="6">
         <f ca="1"/>
-        <v>3.2109718758059222E-2</v>
+        <v>3.2109718758059229E-2</v>
       </c>
     </row>
     <row r="3080" spans="1:2" x14ac:dyDescent="0.2">
@@ -45860,7 +45433,7 @@
       </c>
       <c r="B3085" s="6">
         <f ca="1"/>
-        <v>3.2189232002999312E-4</v>
+        <v>3.2189232002999307E-4</v>
       </c>
     </row>
     <row r="3086" spans="1:2" x14ac:dyDescent="0.2">
@@ -46140,7 +45713,7 @@
       </c>
       <c r="B3113" s="6">
         <f ca="1"/>
-        <v>4.3596057660083794E-2</v>
+        <v>4.3596057660083787E-2</v>
       </c>
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.2">
@@ -46150,7 +45723,7 @@
       </c>
       <c r="B3114" s="6">
         <f ca="1"/>
-        <v>-0.3016229906545792</v>
+        <v>-0.30162299065457926</v>
       </c>
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.2">
@@ -46180,7 +45753,7 @@
       </c>
       <c r="B3117" s="6">
         <f ca="1"/>
-        <v>2.023953918812315E-2</v>
+        <v>2.0239539188123157E-2</v>
       </c>
     </row>
     <row r="3118" spans="1:2" x14ac:dyDescent="0.2">
@@ -46190,7 +45763,7 @@
       </c>
       <c r="B3118" s="6">
         <f ca="1"/>
-        <v>-0.14612199027670622</v>
+        <v>-0.14612199027670619</v>
       </c>
     </row>
     <row r="3119" spans="1:2" x14ac:dyDescent="0.2">
@@ -46200,7 +45773,7 @@
       </c>
       <c r="B3119" s="6">
         <f ca="1"/>
-        <v>5.807664144378083E-2</v>
+        <v>5.8076641443780816E-2</v>
       </c>
     </row>
     <row r="3120" spans="1:2" x14ac:dyDescent="0.2">
@@ -46210,7 +45783,7 @@
       </c>
       <c r="B3120" s="6">
         <f ca="1"/>
-        <v>3.2476804701401379E-2</v>
+        <v>3.2476804701401393E-2</v>
       </c>
     </row>
     <row r="3121" spans="1:2" x14ac:dyDescent="0.2">
@@ -46220,7 +45793,7 @@
       </c>
       <c r="B3121" s="6">
         <f ca="1"/>
-        <v>3.850869273926532E-2</v>
+        <v>3.8508692739265313E-2</v>
       </c>
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.2">
@@ -46230,7 +45803,7 @@
       </c>
       <c r="B3122" s="6">
         <f ca="1"/>
-        <v>-4.5080718187857992E-2</v>
+        <v>-4.5080718187858027E-2</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.2">
@@ -46240,7 +45813,7 @@
       </c>
       <c r="B3123" s="6">
         <f ca="1"/>
-        <v>-2.4496502919239611E-2</v>
+        <v>-2.4496502919239636E-2</v>
       </c>
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.2">
@@ -46260,7 +45833,7 @@
       </c>
       <c r="B3125" s="6">
         <f ca="1"/>
-        <v>0.12461779765357536</v>
+        <v>0.12461779765357535</v>
       </c>
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.2">
@@ -46270,7 +45843,7 @@
       </c>
       <c r="B3126" s="6">
         <f ca="1"/>
-        <v>-2.9558583489058307E-2</v>
+        <v>-2.9558583489058297E-2</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.2">
@@ -46280,7 +45853,7 @@
       </c>
       <c r="B3127" s="6">
         <f ca="1"/>
-        <v>-3.626558201430824E-2</v>
+        <v>-3.6265582014308247E-2</v>
       </c>
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.2">
@@ -46290,7 +45863,7 @@
       </c>
       <c r="B3128" s="6">
         <f ca="1"/>
-        <v>0.15720158594547923</v>
+        <v>0.15720158594547926</v>
       </c>
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.2">
@@ -46300,7 +45873,7 @@
       </c>
       <c r="B3129" s="6">
         <f ca="1"/>
-        <v>-6.4747817839325428E-2</v>
+        <v>-6.4747817839325414E-2</v>
       </c>
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.2">
@@ -46310,7 +45883,7 @@
       </c>
       <c r="B3130" s="6">
         <f ca="1"/>
-        <v>8.630574411270367E-2</v>
+        <v>8.6305744112703683E-2</v>
       </c>
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.2">
@@ -46320,7 +45893,7 @@
       </c>
       <c r="B3131" s="6">
         <f ca="1"/>
-        <v>0.11813942094505971</v>
+        <v>0.11813942094505972</v>
       </c>
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.2">
@@ -46330,7 +45903,7 @@
       </c>
       <c r="B3132" s="6">
         <f ca="1"/>
-        <v>0.11576363488799107</v>
+        <v>0.11576363488799106</v>
       </c>
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.2">
@@ -46340,7 +45913,7 @@
       </c>
       <c r="B3133" s="6">
         <f ca="1"/>
-        <v>0.11709810045783732</v>
+        <v>0.11709810045783733</v>
       </c>
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.2">
@@ -46350,7 +45923,7 @@
       </c>
       <c r="B3134" s="6">
         <f ca="1"/>
-        <v>0.11874164363394196</v>
+        <v>0.11874164363394195</v>
       </c>
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.2">
@@ -46370,7 +45943,7 @@
       </c>
       <c r="B3136" s="6">
         <f ca="1"/>
-        <v>6.2133571423305542E-2</v>
+        <v>6.2133571423305549E-2</v>
       </c>
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.2">
@@ -46390,7 +45963,7 @@
       </c>
       <c r="B3138" s="6">
         <f ca="1"/>
-        <v>9.8023897745761979E-2</v>
+        <v>9.8023897745761965E-2</v>
       </c>
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.2">

--- a/miscs/excel/004.up and out call.xlsx
+++ b/miscs/excel/004.up and out call.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B183C-B99F-4CD8-837D-EBD693BC1065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F06C4B6-B1EC-465B-80B3-35ED1576097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（bs）" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>spot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>if spot() &gt; BARRIER:0.1 then alive = 0 endif uoc pays alive * MAX(spot() - STRIKE, 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START: 2022-09-25
+END: 2025-09-25
+FREQ: 1W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +241,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +562,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,13 +630,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A177,B17:B177)</f>
-        <v>~ScriptProduct~my_product~00000277DB31FC50</v>
+        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A21,B17:B21)</f>
+        <v>~ScriptProduct~my_product~000002469E61DCC0</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~00000277DB157C80</v>
+        <v>~BSModelData_~model~0000024713A3E830</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,12 +646,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^16,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",FALSE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
         <f ca="1"/>
-        <v>-24.143194353558609</v>
+        <v>-18.892646019270579</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -653,7 +662,7 @@
       </c>
       <c r="B11" s="6">
         <f ca="1"/>
-        <v>20.55605259060485</v>
+        <v>15.309354984281471</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,7 +672,7 @@
       </c>
       <c r="B12" s="6">
         <f ca="1"/>
-        <v>6.6006144675234149E-2</v>
+        <v>4.93210541223024E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,7 +682,7 @@
       </c>
       <c r="B13" s="6">
         <f ca="1"/>
-        <v>1.2916204631704933</v>
+        <v>-2.9438546765797025</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +692,7 @@
       </c>
       <c r="B14" s="6">
         <f ca="1"/>
-        <v>1.1946229411296772</v>
+        <v>1.1933405362874316</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,9 +727,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>44836</v>
+    <row r="20" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B20" s="7" t="str">
         <f ca="1">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
@@ -729,1415 +738,14 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
-        <v>44843</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f t="shared" ref="B21:B84" si="0">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>44850</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>44857</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>44864</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>44871</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>44878</v>
-      </c>
-      <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
-        <v>44885</v>
-      </c>
-      <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>44892</v>
-      </c>
-      <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>44899</v>
-      </c>
-      <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>44906</v>
-      </c>
-      <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>44913</v>
-      </c>
-      <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>44920</v>
-      </c>
-      <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>44927</v>
-      </c>
-      <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>44934</v>
-      </c>
-      <c r="B34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>44941</v>
-      </c>
-      <c r="B35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>44948</v>
-      </c>
-      <c r="B36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>44955</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>44962</v>
-      </c>
-      <c r="B38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>44969</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>44976</v>
-      </c>
-      <c r="B40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>44983</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>44990</v>
-      </c>
-      <c r="B42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>44997</v>
-      </c>
-      <c r="B43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>45004</v>
-      </c>
-      <c r="B44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>45011</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>45018</v>
-      </c>
-      <c r="B46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>45025</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
-        <v>45032</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
-        <v>45039</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
-        <v>45046</v>
-      </c>
-      <c r="B50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
-        <v>45053</v>
-      </c>
-      <c r="B51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
-        <v>45060</v>
-      </c>
-      <c r="B52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
-        <v>45067</v>
-      </c>
-      <c r="B53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
-        <v>45074</v>
-      </c>
-      <c r="B54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
-        <v>45081</v>
-      </c>
-      <c r="B55" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>45088</v>
-      </c>
-      <c r="B56" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>45095</v>
-      </c>
-      <c r="B57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
-        <v>45102</v>
-      </c>
-      <c r="B58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
-        <v>45109</v>
-      </c>
-      <c r="B59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
-        <v>45116</v>
-      </c>
-      <c r="B60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
-        <v>45123</v>
-      </c>
-      <c r="B61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
-        <v>45130</v>
-      </c>
-      <c r="B62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
-        <v>45137</v>
-      </c>
-      <c r="B63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
-        <v>45144</v>
-      </c>
-      <c r="B64" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
-        <v>45151</v>
-      </c>
-      <c r="B65" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
-        <v>45158</v>
-      </c>
-      <c r="B66" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
-        <v>45165</v>
-      </c>
-      <c r="B67" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
-        <v>45172</v>
-      </c>
-      <c r="B68" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
-        <v>45179</v>
-      </c>
-      <c r="B69" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
-        <v>45186</v>
-      </c>
-      <c r="B70" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9">
-        <v>45193</v>
-      </c>
-      <c r="B71" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="9">
-        <v>45200</v>
-      </c>
-      <c r="B72" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
-        <v>45207</v>
-      </c>
-      <c r="B73" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="9">
-        <v>45214</v>
-      </c>
-      <c r="B74" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="9">
-        <v>45221</v>
-      </c>
-      <c r="B75" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="9">
-        <v>45228</v>
-      </c>
-      <c r="B76" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9">
-        <v>45235</v>
-      </c>
-      <c r="B77" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9">
-        <v>45242</v>
-      </c>
-      <c r="B78" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
-        <v>45249</v>
-      </c>
-      <c r="B79" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
-        <v>45256</v>
-      </c>
-      <c r="B80" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9">
-        <v>45263</v>
-      </c>
-      <c r="B81" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
-        <v>45270</v>
-      </c>
-      <c r="B82" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9">
-        <v>45277</v>
-      </c>
-      <c r="B83" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9">
-        <v>45284</v>
-      </c>
-      <c r="B84" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9">
-        <v>45291</v>
-      </c>
-      <c r="B85" s="7" t="str">
-        <f t="shared" ref="B85:B148" si="1">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9">
-        <v>45298</v>
-      </c>
-      <c r="B86" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9">
-        <v>45305</v>
-      </c>
-      <c r="B87" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9">
-        <v>45312</v>
-      </c>
-      <c r="B88" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9">
-        <v>45319</v>
-      </c>
-      <c r="B89" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9">
-        <v>45326</v>
-      </c>
-      <c r="B90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9">
-        <v>45333</v>
-      </c>
-      <c r="B91" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9">
-        <v>45340</v>
-      </c>
-      <c r="B92" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="9">
-        <v>45347</v>
-      </c>
-      <c r="B93" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="9">
-        <v>45354</v>
-      </c>
-      <c r="B94" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="9">
-        <v>45361</v>
-      </c>
-      <c r="B95" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="9">
-        <v>45368</v>
-      </c>
-      <c r="B96" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="9">
-        <v>45375</v>
-      </c>
-      <c r="B97" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
-        <v>45382</v>
-      </c>
-      <c r="B98" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9">
-        <v>45389</v>
-      </c>
-      <c r="B99" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9">
-        <v>45396</v>
-      </c>
-      <c r="B100" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="9">
-        <v>45403</v>
-      </c>
-      <c r="B101" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9">
-        <v>45410</v>
-      </c>
-      <c r="B102" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
-        <v>45417</v>
-      </c>
-      <c r="B103" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9">
-        <v>45424</v>
-      </c>
-      <c r="B104" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9">
-        <v>45431</v>
-      </c>
-      <c r="B105" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9">
-        <v>45438</v>
-      </c>
-      <c r="B106" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="9">
-        <v>45445</v>
-      </c>
-      <c r="B107" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="9">
-        <v>45452</v>
-      </c>
-      <c r="B108" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="9">
-        <v>45459</v>
-      </c>
-      <c r="B109" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="9">
-        <v>45466</v>
-      </c>
-      <c r="B110" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="9">
-        <v>45473</v>
-      </c>
-      <c r="B111" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="9">
-        <v>45480</v>
-      </c>
-      <c r="B112" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="9">
-        <v>45487</v>
-      </c>
-      <c r="B113" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="9">
-        <v>45494</v>
-      </c>
-      <c r="B114" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="9">
-        <v>45501</v>
-      </c>
-      <c r="B115" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="9">
-        <v>45508</v>
-      </c>
-      <c r="B116" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="9">
-        <v>45515</v>
-      </c>
-      <c r="B117" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="9">
-        <v>45522</v>
-      </c>
-      <c r="B118" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="9">
-        <v>45529</v>
-      </c>
-      <c r="B119" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="9">
-        <v>45536</v>
-      </c>
-      <c r="B120" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="9">
-        <v>45543</v>
-      </c>
-      <c r="B121" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="9">
-        <v>45550</v>
-      </c>
-      <c r="B122" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="9">
-        <v>45557</v>
-      </c>
-      <c r="B123" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="9">
-        <v>45564</v>
-      </c>
-      <c r="B124" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="9">
-        <v>45571</v>
-      </c>
-      <c r="B125" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="9">
-        <v>45578</v>
-      </c>
-      <c r="B126" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="9">
-        <v>45585</v>
-      </c>
-      <c r="B127" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="9">
-        <v>45592</v>
-      </c>
-      <c r="B128" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="9">
-        <v>45599</v>
-      </c>
-      <c r="B129" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="9">
-        <v>45606</v>
-      </c>
-      <c r="B130" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="9">
-        <v>45613</v>
-      </c>
-      <c r="B131" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="9">
-        <v>45620</v>
-      </c>
-      <c r="B132" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="9">
-        <v>45627</v>
-      </c>
-      <c r="B133" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="9">
-        <v>45634</v>
-      </c>
-      <c r="B134" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="9">
-        <v>45641</v>
-      </c>
-      <c r="B135" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="9">
-        <v>45648</v>
-      </c>
-      <c r="B136" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="9">
-        <v>45655</v>
-      </c>
-      <c r="B137" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="9">
-        <v>45662</v>
-      </c>
-      <c r="B138" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="9">
-        <v>45669</v>
-      </c>
-      <c r="B139" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="9">
-        <v>45676</v>
-      </c>
-      <c r="B140" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="9">
-        <v>45683</v>
-      </c>
-      <c r="B141" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="9">
-        <v>45690</v>
-      </c>
-      <c r="B142" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="9">
-        <v>45697</v>
-      </c>
-      <c r="B143" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="9">
-        <v>45704</v>
-      </c>
-      <c r="B144" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="9">
-        <v>45711</v>
-      </c>
-      <c r="B145" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="9">
-        <v>45718</v>
-      </c>
-      <c r="B146" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="9">
-        <v>45725</v>
-      </c>
-      <c r="B147" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="9">
-        <v>45732</v>
-      </c>
-      <c r="B148" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="9">
-        <v>45739</v>
-      </c>
-      <c r="B149" s="7" t="str">
-        <f t="shared" ref="B149:B176" si="2">"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="9">
-        <v>45746</v>
-      </c>
-      <c r="B150" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="9">
-        <v>45753</v>
-      </c>
-      <c r="B151" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="9">
-        <v>45760</v>
-      </c>
-      <c r="B152" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="9">
-        <v>45767</v>
-      </c>
-      <c r="B153" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="9">
-        <v>45774</v>
-      </c>
-      <c r="B154" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="9">
-        <v>45781</v>
-      </c>
-      <c r="B155" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="9">
-        <v>45788</v>
-      </c>
-      <c r="B156" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="9">
-        <v>45795</v>
-      </c>
-      <c r="B157" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="9">
-        <v>45802</v>
-      </c>
-      <c r="B158" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="9">
-        <v>45809</v>
-      </c>
-      <c r="B159" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="9">
-        <v>45816</v>
-      </c>
-      <c r="B160" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="9">
-        <v>45823</v>
-      </c>
-      <c r="B161" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="9">
-        <v>45830</v>
-      </c>
-      <c r="B162" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="9">
-        <v>45837</v>
-      </c>
-      <c r="B163" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="9">
-        <v>45844</v>
-      </c>
-      <c r="B164" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="9">
-        <v>45851</v>
-      </c>
-      <c r="B165" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="9">
-        <v>45858</v>
-      </c>
-      <c r="B166" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="9">
-        <v>45865</v>
-      </c>
-      <c r="B167" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="9">
-        <v>45872</v>
-      </c>
-      <c r="B168" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="9">
-        <v>45879</v>
-      </c>
-      <c r="B169" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="9">
-        <v>45886</v>
-      </c>
-      <c r="B170" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="9">
-        <v>45893</v>
-      </c>
-      <c r="B171" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="9">
-        <v>45900</v>
-      </c>
-      <c r="B172" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="9">
-        <v>45907</v>
-      </c>
-      <c r="B173" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="9">
-        <v>45914</v>
-      </c>
-      <c r="B174" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="9">
-        <v>45921</v>
-      </c>
-      <c r="B175" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="9">
         <v>45925</v>
       </c>
-      <c r="B176" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="9">
-        <v>45925</v>
-      </c>
-      <c r="B177" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="33" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/miscs/excel/004.up and out call.xlsx
+++ b/miscs/excel/004.up and out call.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F9F58-AF44-4F3E-8603-53C302A8B313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E01CC08-17DC-4BA8-BA4D-43B8904D7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（bs）" sheetId="6" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if spot() &gt; BARRIER:0.1 then alive = 0 endif uoc pays alive * MAX(spot() - STRIKE, 0.0)</t>
+    <t>START: 2022-09-25
+END: 2025-09-25
+FREQ: 1W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>START: 2022-09-25
-END: 2025-09-25
-FREQ: 1W</t>
+    <t>if spot() &gt; BARRIER:0.1 then alive = 0 end uoc pays alive * MAX(spot() - STRIKE, 0.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,11 +639,11 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str" cm="1">
         <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A21,B17:B21)</f>
-        <v>~ScriptProduct~my_product~0000020C805AE920</v>
+        <v>~ScriptProduct~my_product~000001D7399E3820</v>
       </c>
       <c r="C7" s="4" t="str" cm="1">
         <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~0000020D234F2680</v>
+        <v>~BSModelData_~model~000001D78DC8BD70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,11 +727,11 @@
     </row>
     <row r="20" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f>"if spot() &gt; BARRIER:0.1 then alive = 0 endif"</f>
-        <v>if spot() &gt; BARRIER:0.1 then alive = 0 endif</v>
+        <f>"if spot() &gt; BARRIER:0.1 then alive = 0 end"</f>
+        <v>if spot() &gt; BARRIER:0.1 then alive = 0 end</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>45925</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">

--- a/miscs/excel/004.up and out call.xlsx
+++ b/miscs/excel/004.up and out call.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E01CC08-17DC-4BA8-BA4D-43B8904D7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98617A3D-A316-4795-AF05-B36E413A58A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（bs）" sheetId="6" r:id="rId1"/>
@@ -570,10 +570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,12 +638,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str" cm="1">
-        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A21,B17:B21)</f>
-        <v>~ScriptProduct~my_product~000001D7399E3820</v>
+        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A19:A23,B19:B23)</f>
+        <v>~ScriptProduct~my_product~000001DE590403F0</v>
       </c>
       <c r="C7" s="4" t="str" cm="1">
         <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000001D78DC8BD70</v>
+        <v>~BSModelData_~model~000001DE58CA5960</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,97 +653,113 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
-        <f t="array" ref="A10:B14">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
-        <v>d_div</v>
+        <f t="array" ref="A10:B16">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
+        <v>d_BARRIER</v>
       </c>
       <c r="B10" s="7">
-        <v>-25.727182110747986</v>
+        <v>5.7016227365132531E-2</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
-        <v>d_rate</v>
+        <v>d_div</v>
       </c>
       <c r="B11" s="7">
-        <v>22.173288242955877</v>
+        <v>-25.727182149630956</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
-        <v>d_spot</v>
+        <v>d_rate</v>
       </c>
       <c r="B12" s="7">
-        <v>6.5288328272586932E-2</v>
+        <v>22.17328827796462</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
-        <v>d_vol</v>
+        <v>d_spot</v>
       </c>
       <c r="B13" s="7">
-        <v>1.6522859549701001</v>
+        <v>6.5288328361859452E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
-        <v>value</v>
+        <v>d_STRIKE</v>
       </c>
       <c r="B14" s="7">
-        <v>1.183550421299379</v>
+        <v>-0.11582252291073977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <v>d_vol</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.6522859858166434</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="str">
+        <v>PV</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.1835504225896105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>44829</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="22" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B22" s="8" t="str">
         <f>"if spot() &gt; BARRIER:0.1 then alive = 0 end"</f>
         <v>if spot() &gt; BARRIER:0.1 then alive = 0 end</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>45925</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="35" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/miscs/excel/004.up and out call.xlsx
+++ b/miscs/excel/004.up and out call.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wegam\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207BF2F-03D2-4573-83D0-A3D34555E3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682B923-F43A-4617-8598-839E1BD87987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（bs）" sheetId="6" r:id="rId1"/>
@@ -572,8 +572,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -639,11 +639,11 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A19:A23,B19:B23)</f>
-        <v>~ScriptProduct~my_product~000002B9530AAC80</v>
+        <v>~ScriptProduct~my_product~000001F5328A0150</v>
       </c>
       <c r="C7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000002B952D5E1C0</v>
+        <v>~BSModelData_~model~000001F5BDFB6CA0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
       </c>
       <c r="B10" s="7">
         <f ca="1"/>
-        <v>8.3085603048394102E-2</v>
+        <v>8.308560332805133E-2</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B11" s="7">
         <f ca="1"/>
-        <v>-16.872171820495044</v>
+        <v>-16.872171690411196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
       </c>
       <c r="B12" s="7">
         <f ca="1"/>
-        <v>12.894552066749906</v>
+        <v>12.894551937247655</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
       </c>
       <c r="B13" s="7">
         <f ca="1"/>
-        <v>4.2586247817268691E-2</v>
+        <v>4.2586247387176077E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
       </c>
       <c r="B14" s="7">
         <f ca="1"/>
-        <v>-0.12830366926759432</v>
+        <v>-0.12830366926193024</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1"/>
-        <v>-5.2420043345999892</v>
+        <v>-5.2420044424740935</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       </c>
       <c r="B16" s="4">
         <f ca="1"/>
-        <v>1.3246635128804527</v>
+        <v>1.3246635126867625</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,8 +786,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ3175"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.DUPIREMODELDATA.NEW("model",B2,B3,B4,A10:A60,B9:BJ9,B10:BJ60)</f>
-        <v>~DupireModelData_~model~0000015EFFA257B0</v>
+        <v>~DupireModelData_~model~000001F53320BE30</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="B63" s="2">
         <f ca="1"/>
-        <v>8.308560332805455E-2</v>
+        <v>8.3085603048395393E-2</v>
       </c>
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.25">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="B64" s="2">
         <f ca="1"/>
-        <v>-5.3115580528710071E-2</v>
+        <v>-5.3115704816906133E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="B65" s="2">
         <f ca="1"/>
-        <v>-8.0053920028643616E-2</v>
+        <v>-8.0053952642915593E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="B66" s="2">
         <f ca="1"/>
-        <v>-0.22476710656933593</v>
+        <v>-0.22476717462430088</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="B67" s="2">
         <f ca="1"/>
-        <v>-1.9817241458099231E-2</v>
+        <v>-1.9817136289260205E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="B68" s="2">
         <f ca="1"/>
-        <v>-9.7125203470467214E-2</v>
+        <v>-9.712518924589543E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="B69" s="2">
         <f ca="1"/>
-        <v>-8.3013874622928807E-2</v>
+        <v>-8.3013878351872669E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="B70" s="2">
         <f ca="1"/>
-        <v>-1.006775815177742E-2</v>
+        <v>-1.0067758551644181E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
       </c>
       <c r="B71" s="2">
         <f ca="1"/>
-        <v>-1.9017090761530627E-2</v>
+        <v>-1.9017053606661134E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="B72" s="2">
         <f ca="1"/>
-        <v>8.2126752703796671E-2</v>
+        <v>8.2126771463403886E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B73" s="2">
         <f ca="1"/>
-        <v>1.1108497249140613E-2</v>
+        <v>1.1108493624556052E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B74" s="2">
         <f ca="1"/>
-        <v>-1.1222788067788446E-2</v>
+        <v>-1.1222803311533797E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="B75" s="2">
         <f ca="1"/>
-        <v>-2.0138373295130713E-2</v>
+        <v>-2.0138373377890401E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="B76" s="2">
         <f ca="1"/>
-        <v>-6.7364993490153791E-3</v>
+        <v>-6.7364897782944142E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -13988,7 +13988,7 @@
       </c>
       <c r="B77" s="2">
         <f ca="1"/>
-        <v>1.6513814677294597E-2</v>
+        <v>1.6513806379184131E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="B78" s="2">
         <f ca="1"/>
-        <v>-2.6548805247937218E-2</v>
+        <v>-2.6548807113396321E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B79" s="2">
         <f ca="1"/>
-        <v>9.4617244562099703E-2</v>
+        <v>9.4617238303054366E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="B80" s="2">
         <f ca="1"/>
-        <v>6.5513272804645917E-2</v>
+        <v>6.5513246560311544E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="B81" s="2">
         <f ca="1"/>
-        <v>6.0661320091909866E-2</v>
+        <v>6.0661319039678932E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="B82" s="2">
         <f ca="1"/>
-        <v>0.11262787525965577</v>
+        <v>0.11262786139428908</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B83" s="2">
         <f ca="1"/>
-        <v>2.1301888508751549E-2</v>
+        <v>2.1301886044163252E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="B84" s="2">
         <f ca="1"/>
-        <v>-2.4785180973644561E-2</v>
+        <v>-2.47851642215502E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="B85" s="2">
         <f ca="1"/>
-        <v>5.8372330397077018E-4</v>
+        <v>5.8369076209671689E-4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="B86" s="2">
         <f ca="1"/>
-        <v>9.0000843596090965E-2</v>
+        <v>9.0000864392309379E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="B87" s="2">
         <f ca="1"/>
-        <v>0.10574905107359152</v>
+        <v>0.10574904298236223</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="B88" s="2">
         <f ca="1"/>
-        <v>0.10231782002923093</v>
+        <v>0.10231781465941635</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="B89" s="2">
         <f ca="1"/>
-        <v>0.13943972459460308</v>
+        <v>0.13943972298552873</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B90" s="2">
         <f ca="1"/>
-        <v>9.0399063085943879E-2</v>
+        <v>9.039907041754805E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="B91" s="2">
         <f ca="1"/>
-        <v>0.12945477594845844</v>
+        <v>0.12945477641817829</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B92" s="2">
         <f ca="1"/>
-        <v>0.11911102008044597</v>
+        <v>0.11911102009425741</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="B93" s="2">
         <f ca="1"/>
-        <v>0.10527530664749639</v>
+        <v>0.105275306651334</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="B94" s="2">
         <f ca="1"/>
-        <v>0.10550561432603776</v>
+        <v>0.10550561432964456</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B95" s="2">
         <f ca="1"/>
-        <v>8.0480357073989039E-2</v>
+        <v>8.0480357079879924E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="B96" s="2">
         <f ca="1"/>
-        <v>6.0549722422406013E-2</v>
+        <v>6.0549722423211244E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B97" s="2">
         <f ca="1"/>
-        <v>3.4693126416048214E-2</v>
+        <v>3.4693126407215794E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="B98" s="2">
         <f ca="1"/>
-        <v>1.3348362820163197E-2</v>
+        <v>1.3348362815711178E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="B99" s="2">
         <f ca="1"/>
-        <v>8.8190580439453437E-4</v>
+        <v>8.8190580132228359E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -14218,7 +14218,7 @@
       </c>
       <c r="B100" s="2">
         <f ca="1"/>
-        <v>1.224869172769505E-5</v>
+        <v>1.2248691685024898E-5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="B125" s="2">
         <f ca="1"/>
-        <v>1.1765071177880315E-4</v>
+        <v>1.1765077992615687E-4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="B126" s="2">
         <f ca="1"/>
-        <v>8.4708512480738078E-3</v>
+        <v>8.4708561546833917E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B127" s="2">
         <f ca="1"/>
-        <v>-2.9047355959083317E-4</v>
+        <v>-2.9051292822187408E-4</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="B128" s="2">
         <f ca="1"/>
-        <v>-6.1014448838879062E-2</v>
+        <v>-6.1014460289036329E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="B129" s="2">
         <f ca="1"/>
-        <v>-0.10985748662048674</v>
+        <v>-0.10985750181902322</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B130" s="2">
         <f ca="1"/>
-        <v>-9.8165592316965686E-2</v>
+        <v>-9.8165594552735158E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B131" s="2">
         <f ca="1"/>
-        <v>-0.13577059238200087</v>
+        <v>-0.13577060629186974</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="B132" s="2">
         <f ca="1"/>
-        <v>-8.6874044629445882E-2</v>
+        <v>-8.6874019279486986E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="B133" s="2">
         <f ca="1"/>
-        <v>-8.4374480768529617E-3</v>
+        <v>-8.437468603645009E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="B134" s="2">
         <f ca="1"/>
-        <v>6.1665296406812647E-2</v>
+        <v>6.1665261607627184E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="B135" s="2">
         <f ca="1"/>
-        <v>-1.9298042956108166E-2</v>
+        <v>-1.929807177548587E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="B136" s="2">
         <f ca="1"/>
-        <v>-4.4749493709051257E-2</v>
+        <v>-4.4749479017709363E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B137" s="2">
         <f ca="1"/>
-        <v>-9.0678596771123207E-2</v>
+        <v>-9.0678569705288481E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="B138" s="2">
         <f ca="1"/>
-        <v>-3.0923939388675638E-2</v>
+        <v>-3.0923939539429145E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B139" s="2">
         <f ca="1"/>
-        <v>-2.9881957994631437E-2</v>
+        <v>-2.9881972017313421E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B140" s="2">
         <f ca="1"/>
-        <v>5.4457899840922634E-2</v>
+        <v>5.4457887376870545E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B141" s="2">
         <f ca="1"/>
-        <v>-7.2111635967449621E-3</v>
+        <v>-7.2111587248301244E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="B142" s="2">
         <f ca="1"/>
-        <v>-5.4046577341141148E-2</v>
+        <v>-5.4046558471934E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="B143" s="2">
         <f ca="1"/>
-        <v>8.696429160970999E-2</v>
+        <v>8.6964286607635818E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="B144" s="2">
         <f ca="1"/>
-        <v>-2.4897187524530528E-2</v>
+        <v>-2.4897248988683493E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="B145" s="2">
         <f ca="1"/>
-        <v>-6.639558950381045E-3</v>
+        <v>-6.6395435019259092E-3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="B146" s="2">
         <f ca="1"/>
-        <v>2.4531624897984331E-2</v>
+        <v>2.4531621083243391E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B147" s="2">
         <f ca="1"/>
-        <v>-4.380340987499002E-4</v>
+        <v>-4.3801070390893327E-4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="B148" s="2">
         <f ca="1"/>
-        <v>9.5020733222310985E-2</v>
+        <v>9.5020769364874788E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B149" s="2">
         <f ca="1"/>
-        <v>5.80868077263356E-2</v>
+        <v>5.808679274466174E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -14718,7 +14718,7 @@
       </c>
       <c r="B150" s="2">
         <f ca="1"/>
-        <v>8.4919275718641052E-2</v>
+        <v>8.4919257261135639E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B151" s="2">
         <f ca="1"/>
-        <v>0.12271155334217032</v>
+        <v>0.12271158181375387</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="B152" s="2">
         <f ca="1"/>
-        <v>0.11977981544422499</v>
+        <v>0.11977983401917836</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="B153" s="2">
         <f ca="1"/>
-        <v>0.15704446904897074</v>
+        <v>0.15704447839860172</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="B154" s="2">
         <f ca="1"/>
-        <v>0.16716193139548538</v>
+        <v>0.16716193174549726</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B155" s="2">
         <f ca="1"/>
-        <v>0.19196195993548995</v>
+        <v>0.19196195989677184</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="B156" s="2">
         <f ca="1"/>
-        <v>0.16610268076803708</v>
+        <v>0.16610268077769558</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="B157" s="2">
         <f ca="1"/>
-        <v>0.1468929241662659</v>
+        <v>0.14689292417894023</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B158" s="2">
         <f ca="1"/>
-        <v>0.11164641419811623</v>
+        <v>0.11164641422117055</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="B159" s="2">
         <f ca="1"/>
-        <v>7.2302934888453116E-2</v>
+        <v>7.2302934873832964E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="B160" s="2">
         <f ca="1"/>
-        <v>1.5991845526103221E-2</v>
+        <v>1.5991845529247987E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -14828,7 +14828,7 @@
       </c>
       <c r="B161" s="2">
         <f ca="1"/>
-        <v>2.2210896564019896E-4</v>
+        <v>2.2210896568387623E-4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="B186" s="2">
         <f ca="1"/>
-        <v>-3.9255420672941607E-4</v>
+        <v>-3.9255464578055499E-4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="B187" s="2">
         <f ca="1"/>
-        <v>-2.8263902884517852E-2</v>
+        <v>-2.8263934496199773E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="B188" s="2">
         <f ca="1"/>
-        <v>3.8413011407639017E-2</v>
+        <v>3.8413029586830495E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="B189" s="2">
         <f ca="1"/>
-        <v>-6.8287572205409985E-2</v>
+        <v>-6.8287620646185473E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="B190" s="2">
         <f ca="1"/>
-        <v>3.3860763706726686E-2</v>
+        <v>3.3860746465718045E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="B191" s="2">
         <f ca="1"/>
-        <v>-5.3069358129611728E-2</v>
+        <v>-5.3069351998088869E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B192" s="2">
         <f ca="1"/>
-        <v>-0.10281271019745253</v>
+        <v>-0.10281274351493404</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B193" s="2">
         <f ca="1"/>
-        <v>-3.3669478748832429E-2</v>
+        <v>-3.3669479025143965E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -15158,7 +15158,7 @@
       </c>
       <c r="B194" s="2">
         <f ca="1"/>
-        <v>-0.10987855312022399</v>
+        <v>-0.10987855490523067</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B195" s="2">
         <f ca="1"/>
-        <v>5.8718879844918651E-2</v>
+        <v>5.8718822055161823E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="B196" s="2">
         <f ca="1"/>
-        <v>1.0923061236847323E-2</v>
+        <v>1.0923066847322334E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="B197" s="2">
         <f ca="1"/>
-        <v>8.2014247917257352E-2</v>
+        <v>8.2014264768315776E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B198" s="2">
         <f ca="1"/>
-        <v>2.1422852110631042E-2</v>
+        <v>2.1422895610129784E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B199" s="2">
         <f ca="1"/>
-        <v>-0.11287436982667164</v>
+        <v>-0.11287437641078936</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="B200" s="2">
         <f ca="1"/>
-        <v>-2.9102806434239056E-2</v>
+        <v>-2.9102809359297706E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -15228,7 +15228,7 @@
       </c>
       <c r="B201" s="2">
         <f ca="1"/>
-        <v>-5.6512441330922966E-2</v>
+        <v>-5.6512480763965325E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="B202" s="2">
         <f ca="1"/>
-        <v>-1.9664174655798637E-2</v>
+        <v>-1.9664163359350267E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="B203" s="2">
         <f ca="1"/>
-        <v>-3.4698984221480905E-2</v>
+        <v>-3.469897867012809E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="B204" s="2">
         <f ca="1"/>
-        <v>7.8551388643135836E-2</v>
+        <v>7.855141314185618E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="B205" s="2">
         <f ca="1"/>
-        <v>4.5785441276977673E-2</v>
+        <v>4.5785398113251968E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="B206" s="2">
         <f ca="1"/>
-        <v>4.2448699637412234E-2</v>
+        <v>4.2448686167654931E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="B207" s="2">
         <f ca="1"/>
-        <v>4.1515898325537669E-2</v>
+        <v>4.1515914017708683E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="B208" s="2">
         <f ca="1"/>
-        <v>-3.1015274808778661E-2</v>
+        <v>-3.1015242132387006E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B209" s="2">
         <f ca="1"/>
-        <v>0.1267485980621175</v>
+        <v>0.12674862305347423</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="B210" s="2">
         <f ca="1"/>
-        <v>7.1367287086596287E-2</v>
+        <v>7.136726247668379E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -15328,7 +15328,7 @@
       </c>
       <c r="B211" s="2">
         <f ca="1"/>
-        <v>3.6467501108799399E-2</v>
+        <v>3.6467500407916284E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="B212" s="2">
         <f ca="1"/>
-        <v>0.11981152118901649</v>
+        <v>0.11981153048100275</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B213" s="2">
         <f ca="1"/>
-        <v>0.15333955014410167</v>
+        <v>0.15333952766305378</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="B214" s="2">
         <f ca="1"/>
-        <v>0.1629546105474681</v>
+        <v>0.1629546213486146</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="B215" s="2">
         <f ca="1"/>
-        <v>0.17745458673410036</v>
+        <v>0.17745458203014644</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="B216" s="2">
         <f ca="1"/>
-        <v>0.23049453616565926</v>
+        <v>0.23049453933678432</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="B217" s="2">
         <f ca="1"/>
-        <v>0.21784563710450638</v>
+        <v>0.21784564062421086</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="B218" s="2">
         <f ca="1"/>
-        <v>0.26125471251609389</v>
+        <v>0.26125471249432458</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -15408,7 +15408,7 @@
       </c>
       <c r="B219" s="2">
         <f ca="1"/>
-        <v>0.24459686496630828</v>
+        <v>0.24459686494684643</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="B220" s="2">
         <f ca="1"/>
-        <v>0.22083407247350836</v>
+        <v>0.22083407249755474</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B221" s="2">
         <f ca="1"/>
-        <v>0.13260357650199375</v>
+        <v>0.13260357651720817</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="B222" s="2">
         <f ca="1"/>
-        <v>1.8417163403044439E-3</v>
+        <v>1.8417163405157553E-3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B247" s="2">
         <f ca="1"/>
-        <v>-2.0862435925704843E-4</v>
+        <v>-2.0862435966503379E-4</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="B248" s="2">
         <f ca="1"/>
-        <v>-1.5020953866507423E-2</v>
+        <v>-1.5020953895882353E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B249" s="2">
         <f ca="1"/>
-        <v>-1.4380759595116208E-2</v>
+        <v>-1.4380743052704127E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="B250" s="2">
         <f ca="1"/>
-        <v>1.7522675955808718E-2</v>
+        <v>1.7522706838884058E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="B251" s="2">
         <f ca="1"/>
-        <v>-8.7888478570886715E-3</v>
+        <v>-8.7888558568905706E-3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="B252" s="2">
         <f ca="1"/>
-        <v>4.9355546516059541E-3</v>
+        <v>4.9355472136867499E-3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="B253" s="2">
         <f ca="1"/>
-        <v>7.108626354897455E-3</v>
+        <v>7.1086242798729625E-3</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="B254" s="2">
         <f ca="1"/>
-        <v>-2.5337815414962765E-2</v>
+        <v>-2.5337801289941279E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="B255" s="2">
         <f ca="1"/>
-        <v>-0.11612487877905761</v>
+        <v>-0.11612488202799215</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="B256" s="2">
         <f ca="1"/>
-        <v>-5.8648859739655654E-2</v>
+        <v>-5.8648916080208183E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -15788,7 +15788,7 @@
       </c>
       <c r="B257" s="2">
         <f ca="1"/>
-        <v>-4.3304721609924374E-3</v>
+        <v>-4.3304934080170389E-3</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -15798,7 +15798,7 @@
       </c>
       <c r="B258" s="2">
         <f ca="1"/>
-        <v>-8.895074349476223E-2</v>
+        <v>-8.8950748292461024E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="B259" s="2">
         <f ca="1"/>
-        <v>-7.4574954671423388E-2</v>
+        <v>-7.4574925204204681E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B260" s="2">
         <f ca="1"/>
-        <v>-6.3770228063802198E-2</v>
+        <v>-6.3770197070516621E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B261" s="2">
         <f ca="1"/>
-        <v>-9.8042409360542884E-2</v>
+        <v>-9.8042382654361521E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="B262" s="2">
         <f ca="1"/>
-        <v>-9.3097700569503006E-2</v>
+        <v>-9.3097678906043466E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B263" s="2">
         <f ca="1"/>
-        <v>-0.11941089957353555</v>
+        <v>-0.11941087249417986</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="B264" s="2">
         <f ca="1"/>
-        <v>-4.1911285482248609E-2</v>
+        <v>-4.1911309209193573E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B265" s="2">
         <f ca="1"/>
-        <v>-4.9209763496715353E-2</v>
+        <v>-4.9209765937386386E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B266" s="2">
         <f ca="1"/>
-        <v>-0.100708537345972</v>
+        <v>-0.10070851646203358</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="B267" s="2">
         <f ca="1"/>
-        <v>-2.3840185607008013E-2</v>
+        <v>-2.3840208221991004E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="B268" s="2">
         <f ca="1"/>
-        <v>-8.0955049446206878E-2</v>
+        <v>-8.0955061024159169E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -15908,7 +15908,7 @@
       </c>
       <c r="B269" s="2">
         <f ca="1"/>
-        <v>-7.5932453422678778E-2</v>
+        <v>-7.593244909056851E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="B270" s="2">
         <f ca="1"/>
-        <v>-9.279997456164521E-2</v>
+        <v>-9.2799921586484077E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B271" s="2">
         <f ca="1"/>
-        <v>-5.105550940904581E-2</v>
+        <v>-5.1055527672067204E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="B272" s="2">
         <f ca="1"/>
-        <v>2.559124043291804E-3</v>
+        <v>2.5591386796541878E-3</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="B273" s="2">
         <f ca="1"/>
-        <v>2.1403665727298991E-2</v>
+        <v>2.1403676533997357E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="B274" s="2">
         <f ca="1"/>
-        <v>2.6870703673845715E-2</v>
+        <v>2.6870685575214572E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B275" s="2">
         <f ca="1"/>
-        <v>3.1713996320224536E-2</v>
+        <v>3.1714038150464294E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="B276" s="2">
         <f ca="1"/>
-        <v>0.11376555461340551</v>
+        <v>0.11376553779335623</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B277" s="2">
         <f ca="1"/>
-        <v>0.15541429641221988</v>
+        <v>0.15541427107056557</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="B278" s="2">
         <f ca="1"/>
-        <v>0.20893626028019152</v>
+        <v>0.20893625912312286</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="B279" s="2">
         <f ca="1"/>
-        <v>0.29493769344625942</v>
+        <v>0.29493769457027491</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="B280" s="2">
         <f ca="1"/>
-        <v>0.33026728033335195</v>
+        <v>0.33026726964031577</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="B281" s="2">
         <f ca="1"/>
-        <v>0.39363894106408781</v>
+        <v>0.39363894096388841</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -16038,7 +16038,7 @@
       </c>
       <c r="B282" s="2">
         <f ca="1"/>
-        <v>0.43151991421416086</v>
+        <v>0.4315199141639362</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="B283" s="2">
         <f ca="1"/>
-        <v>5.9933321418600112E-3</v>
+        <v>5.9933321411624442E-3</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="B308" s="2">
         <f ca="1"/>
-        <v>-4.8347030483162242E-5</v>
+        <v>-4.8347028357413893E-5</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="B309" s="2">
         <f ca="1"/>
-        <v>-3.480986194787667E-3</v>
+        <v>-3.4809860417337863E-3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="B310" s="2">
         <f ca="1"/>
-        <v>-3.0312416181988221E-2</v>
+        <v>-3.0312389025451893E-2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B311" s="2">
         <f ca="1"/>
-        <v>2.301283755098817E-2</v>
+        <v>2.3012830974864493E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="B312" s="2">
         <f ca="1"/>
-        <v>3.4233108391332812E-2</v>
+        <v>3.4233097271332731E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="B313" s="2">
         <f ca="1"/>
-        <v>-6.497170565672851E-2</v>
+        <v>-6.497169343783063E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="B314" s="2">
         <f ca="1"/>
-        <v>5.4362653608987428E-4</v>
+        <v>5.4362187269229971E-4</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="B315" s="2">
         <f ca="1"/>
-        <v>7.01385541887488E-2</v>
+        <v>7.0138576820903326E-2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B316" s="2">
         <f ca="1"/>
-        <v>-1.2147391548103225E-2</v>
+        <v>-1.2147398542868174E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="B317" s="2">
         <f ca="1"/>
-        <v>-3.2557727089331669E-2</v>
+        <v>-3.2557737779500086E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -16398,7 +16398,7 @@
       </c>
       <c r="B318" s="2">
         <f ca="1"/>
-        <v>-7.8024090114401853E-2</v>
+        <v>-7.8024131269831501E-2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B319" s="2">
         <f ca="1"/>
-        <v>2.6328656553939664E-3</v>
+        <v>2.6329103969047422E-3</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="B320" s="2">
         <f ca="1"/>
-        <v>-5.4328234612548335E-2</v>
+        <v>-5.4328213413367084E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -16428,7 +16428,7 @@
       </c>
       <c r="B321" s="2">
         <f ca="1"/>
-        <v>-8.138699274751332E-2</v>
+        <v>-8.1386993328939533E-2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="B322" s="2">
         <f ca="1"/>
-        <v>-5.6885405624501305E-2</v>
+        <v>-5.6885410218157267E-2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B323" s="2">
         <f ca="1"/>
-        <v>-0.15744063962690194</v>
+        <v>-0.15744064572469663</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="B324" s="2">
         <f ca="1"/>
-        <v>-0.16169435871420096</v>
+        <v>-0.16169435700200543</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="B325" s="2">
         <f ca="1"/>
-        <v>-0.15591689227316108</v>
+        <v>-0.15591691062692858</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B326" s="2">
         <f ca="1"/>
-        <v>-6.2712778465919425E-2</v>
+        <v>-6.2712768310948186E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="B327" s="2">
         <f ca="1"/>
-        <v>-0.15750433232192232</v>
+        <v>-0.15750433634963051</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B328" s="2">
         <f ca="1"/>
-        <v>-0.16425912239138699</v>
+        <v>-0.16425910265466842</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -16508,7 +16508,7 @@
       </c>
       <c r="B329" s="2">
         <f ca="1"/>
-        <v>-0.10273547333289515</v>
+        <v>-0.10273550876319847</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -16518,7 +16518,7 @@
       </c>
       <c r="B330" s="2">
         <f ca="1"/>
-        <v>-2.1306395116870876E-2</v>
+        <v>-2.1306418001236841E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="B331" s="2">
         <f ca="1"/>
-        <v>-0.17312592423842935</v>
+        <v>-0.17312592238913507</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -16538,7 +16538,7 @@
       </c>
       <c r="B332" s="2">
         <f ca="1"/>
-        <v>-4.4121213353492212E-4</v>
+        <v>-4.4124933020050355E-4</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="B333" s="2">
         <f ca="1"/>
-        <v>-3.5148506821089338E-2</v>
+        <v>-3.5148489348011465E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B334" s="2">
         <f ca="1"/>
-        <v>-7.4193339473567807E-2</v>
+        <v>-7.419331840832083E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="B335" s="2">
         <f ca="1"/>
-        <v>-9.6751975315919184E-2</v>
+        <v>-9.6751978141538256E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="B336" s="2">
         <f ca="1"/>
-        <v>-8.0597615613745066E-2</v>
+        <v>-8.0597600275753023E-2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="B337" s="2">
         <f ca="1"/>
-        <v>-1.5453267907106508E-2</v>
+        <v>-1.5453247097470622E-2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B338" s="2">
         <f ca="1"/>
-        <v>9.1703560009253074E-2</v>
+        <v>9.170359789181573E-2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="B339" s="2">
         <f ca="1"/>
-        <v>7.9580685011292673E-2</v>
+        <v>7.9580657083422338E-2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="B340" s="2">
         <f ca="1"/>
-        <v>0.21198310966374206</v>
+        <v>0.21198314169711344</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="B341" s="2">
         <f ca="1"/>
-        <v>0.24457061859669901</v>
+        <v>0.2445705781011635</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="B342" s="2">
         <f ca="1"/>
-        <v>0.4197205793386673</v>
+        <v>0.41972057899932891</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B343" s="2">
         <f ca="1"/>
-        <v>0.56726797787714855</v>
+        <v>0.56726797785923344</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="B344" s="2">
         <f ca="1"/>
-        <v>7.878721914956012E-3</v>
+        <v>7.8787219147071937E-3</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="B369" s="2">
         <f ca="1"/>
-        <v>-2.1841962278912376E-7</v>
+        <v>-2.1841962273875474E-7</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="B370" s="2">
         <f ca="1"/>
-        <v>-1.5726212840816848E-5</v>
+        <v>-1.5726212837190402E-5</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B371" s="2">
         <f ca="1"/>
-        <v>9.6827320472107469E-4</v>
+        <v>9.6827358051698633E-4</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="B372" s="2">
         <f ca="1"/>
-        <v>-2.2710238258977319E-2</v>
+        <v>-2.2710237690299437E-2</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="B373" s="2">
         <f ca="1"/>
-        <v>-2.25426372932122E-3</v>
+        <v>-2.2542598148589084E-3</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="B374" s="2">
         <f ca="1"/>
-        <v>-1.6270201617567009E-2</v>
+        <v>-1.6270192067250774E-2</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B375" s="2">
         <f ca="1"/>
-        <v>-3.4732067587726206E-3</v>
+        <v>-3.4732090680708399E-3</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="B376" s="2">
         <f ca="1"/>
-        <v>-2.9207887966732075E-2</v>
+        <v>-2.9207881891838473E-2</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="B377" s="2">
         <f ca="1"/>
-        <v>-1.0230503621507398E-2</v>
+        <v>-1.0230505248267284E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="B378" s="2">
         <f ca="1"/>
-        <v>-1.3169467828551528E-2</v>
+        <v>-1.3169470011013661E-2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B379" s="2">
         <f ca="1"/>
-        <v>-7.6822331584351557E-3</v>
+        <v>-7.6822312854924425E-3</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="B380" s="2">
         <f ca="1"/>
-        <v>-1.6248652165568329E-2</v>
+        <v>-1.6248629089287009E-2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B381" s="2">
         <f ca="1"/>
-        <v>7.0209671960031559E-3</v>
+        <v>7.0209749795946659E-3</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="B382" s="2">
         <f ca="1"/>
-        <v>-0.17513593418058696</v>
+        <v>-0.17513593707789399</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="B383" s="2">
         <f ca="1"/>
-        <v>-7.2382746931977951E-2</v>
+        <v>-7.2382747415497925E-2</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
       </c>
       <c r="B384" s="2">
         <f ca="1"/>
-        <v>-9.3997524105941435E-2</v>
+        <v>-9.3997518935997948E-2</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="B385" s="2">
         <f ca="1"/>
-        <v>-8.8195500971166976E-2</v>
+        <v>-8.8195500051975184E-2</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -17078,7 +17078,7 @@
       </c>
       <c r="B386" s="2">
         <f ca="1"/>
-        <v>-7.9760907031164868E-2</v>
+        <v>-7.9760926831229442E-2</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="B387" s="2">
         <f ca="1"/>
-        <v>-0.12553881185293711</v>
+        <v>-0.12553879311367297</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="B388" s="2">
         <f ca="1"/>
-        <v>-9.2086280385282882E-2</v>
+        <v>-9.2086280005939158E-2</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B389" s="2">
         <f ca="1"/>
-        <v>-0.13239746379984066</v>
+        <v>-0.13239741495568536</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B390" s="2">
         <f ca="1"/>
-        <v>-5.6801927861656488E-3</v>
+        <v>-5.6801960232578178E-3</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B391" s="2">
         <f ca="1"/>
-        <v>-5.8106445683426947E-2</v>
+        <v>-5.8106462198939626E-2</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="B392" s="2">
         <f ca="1"/>
-        <v>-0.11817975155158646</v>
+        <v>-0.11817977254735521</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -17148,7 +17148,7 @@
       </c>
       <c r="B393" s="2">
         <f ca="1"/>
-        <v>-0.12239830327371735</v>
+        <v>-0.1223983316027204</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -17158,7 +17158,7 @@
       </c>
       <c r="B394" s="2">
         <f ca="1"/>
-        <v>-0.16659831448192131</v>
+        <v>-0.16659833842398619</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="B395" s="2">
         <f ca="1"/>
-        <v>-0.10706670853672878</v>
+        <v>-0.10706668914591944</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B396" s="2">
         <f ca="1"/>
-        <v>-0.21625105197456621</v>
+        <v>-0.21625101456168758</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="B397" s="2">
         <f ca="1"/>
-        <v>-0.16581159950480137</v>
+        <v>-0.16581157955543027</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="B398" s="2">
         <f ca="1"/>
-        <v>-0.18451534138838316</v>
+        <v>-0.18451533532345249</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B399" s="2">
         <f ca="1"/>
-        <v>-5.8928413989768842E-2</v>
+        <v>-5.892837975165563E-2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="B400" s="2">
         <f ca="1"/>
-        <v>-8.5186930301782149E-2</v>
+        <v>-8.5186937584167191E-2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -17228,7 +17228,7 @@
       </c>
       <c r="B401" s="2">
         <f ca="1"/>
-        <v>3.4801204196464701E-2</v>
+        <v>3.4801175997271803E-2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="B402" s="2">
         <f ca="1"/>
-        <v>6.0421174111007961E-2</v>
+        <v>6.0421125956968191E-2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="B403" s="2">
         <f ca="1"/>
-        <v>0.23314159306866039</v>
+        <v>0.23314158406691063</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="B404" s="2">
         <f ca="1"/>
-        <v>0.3295252407458048</v>
+        <v>0.32952524069739486</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B405" s="2">
         <f ca="1"/>
-        <v>4.5767394548002962E-3</v>
+        <v>4.5767394541279382E-3</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="B432" s="2">
         <f ca="1"/>
-        <v>-2.6521052335938024E-4</v>
+        <v>-2.6521051493953566E-4</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="B433" s="2">
         <f ca="1"/>
-        <v>-2.6618146567946432E-2</v>
+        <v>-2.6618145543446194E-2</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="B434" s="2">
         <f ca="1"/>
-        <v>-7.1317190402018366E-3</v>
+        <v>-7.1317190354289279E-3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="B435" s="2">
         <f ca="1"/>
-        <v>-6.3354949805203824E-3</v>
+        <v>-6.3354944011611769E-3</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="B436" s="2">
         <f ca="1"/>
-        <v>1.0240208024478784E-2</v>
+        <v>1.0240209910368106E-2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="B437" s="2">
         <f ca="1"/>
-        <v>1.2337705923768589E-2</v>
+        <v>1.2337722141768096E-2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="B438" s="2">
         <f ca="1"/>
-        <v>5.499382986829001E-3</v>
+        <v>5.4993733601367946E-3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B439" s="2">
         <f ca="1"/>
-        <v>4.2453580161497034E-3</v>
+        <v>4.2453242848161203E-3</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="B440" s="2">
         <f ca="1"/>
-        <v>9.5279599260142418E-3</v>
+        <v>9.5279557495104895E-3</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -17628,7 +17628,7 @@
       </c>
       <c r="B441" s="2">
         <f ca="1"/>
-        <v>-1.1879528117007638E-2</v>
+        <v>-1.1879520753645593E-2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="B442" s="2">
         <f ca="1"/>
-        <v>-2.796284151149124E-2</v>
+        <v>-2.7962826879477959E-2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -17648,7 +17648,7 @@
       </c>
       <c r="B443" s="2">
         <f ca="1"/>
-        <v>-7.3485923096474143E-2</v>
+        <v>-7.3485916332895418E-2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="B444" s="2">
         <f ca="1"/>
-        <v>-0.10393058992705416</v>
+        <v>-0.10393057941528151</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="B445" s="2">
         <f ca="1"/>
-        <v>-7.0449646345525946E-2</v>
+        <v>-7.0449633199037062E-2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="B446" s="2">
         <f ca="1"/>
-        <v>-5.3150984839357505E-2</v>
+        <v>-5.3150988427562579E-2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B447" s="2">
         <f ca="1"/>
-        <v>3.9400023907720681E-3</v>
+        <v>3.9400057232531899E-3</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="B448" s="2">
         <f ca="1"/>
-        <v>-5.758570950865112E-2</v>
+        <v>-5.7585684867079316E-2</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="B449" s="2">
         <f ca="1"/>
-        <v>-2.2786779282485094E-2</v>
+        <v>-2.2786797595392101E-2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="B450" s="2">
         <f ca="1"/>
-        <v>2.9036645589148348E-3</v>
+        <v>2.9036735079821566E-3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="B451" s="2">
         <f ca="1"/>
-        <v>-0.15698017773851833</v>
+        <v>-0.15698019269047989</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B452" s="2">
         <f ca="1"/>
-        <v>-0.13015022309456598</v>
+        <v>-0.13015024102017325</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B453" s="2">
         <f ca="1"/>
-        <v>-0.14233550249360086</v>
+        <v>-0.14233552679825931</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="B454" s="2">
         <f ca="1"/>
-        <v>-0.21559681938861069</v>
+        <v>-0.21559681342895917</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="B455" s="2">
         <f ca="1"/>
-        <v>-0.1009613808303729</v>
+        <v>-0.10096133615520698</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="B456" s="2">
         <f ca="1"/>
-        <v>-0.139678351783497</v>
+        <v>-0.13967833228237614</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B457" s="2">
         <f ca="1"/>
-        <v>-0.10605392938062973</v>
+        <v>-0.10605392633709919</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -17798,7 +17798,7 @@
       </c>
       <c r="B458" s="2">
         <f ca="1"/>
-        <v>-0.23960933688950367</v>
+        <v>-0.23960933926594408</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="B459" s="2">
         <f ca="1"/>
-        <v>-0.22800527355329084</v>
+        <v>-0.22800524012132958</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -17818,7 +17818,7 @@
       </c>
       <c r="B460" s="2">
         <f ca="1"/>
-        <v>-0.2169013299394271</v>
+        <v>-0.21690130728023255</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="B461" s="2">
         <f ca="1"/>
-        <v>-0.23056345483299345</v>
+        <v>-0.23056343494480985</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="B462" s="2">
         <f ca="1"/>
-        <v>-0.20304226963084693</v>
+        <v>-0.20304225254604433</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B463" s="2">
         <f ca="1"/>
-        <v>-0.25673439827676781</v>
+        <v>-0.25673440794411279</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B464" s="2">
         <f ca="1"/>
-        <v>-0.18569946683609437</v>
+        <v>-0.18569946049188757</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="B465" s="2">
         <f ca="1"/>
-        <v>5.9811527305723665E-2</v>
+        <v>5.9811506196559783E-2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -17878,7 +17878,7 @@
       </c>
       <c r="B466" s="2">
         <f ca="1"/>
-        <v>8.3071565702347782E-4</v>
+        <v>8.3071536384064575E-4</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -18148,7 +18148,7 @@
       </c>
       <c r="B493" s="2">
         <f ca="1"/>
-        <v>-1.3061421591816856E-6</v>
+        <v>-1.3061421921065206E-6</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B494" s="2">
         <f ca="1"/>
-        <v>-5.6342081303498307E-5</v>
+        <v>-5.6342082255556543E-5</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B495" s="2">
         <f ca="1"/>
-        <v>-8.164277354777978E-4</v>
+        <v>-8.1642781392308778E-4</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="B496" s="2">
         <f ca="1"/>
-        <v>8.3318865303612481E-3</v>
+        <v>8.3318859714268459E-3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -18188,7 +18188,7 @@
       </c>
       <c r="B497" s="2">
         <f ca="1"/>
-        <v>3.2263739464982347E-3</v>
+        <v>3.2263736620671262E-3</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B498" s="2">
         <f ca="1"/>
-        <v>2.1796884050092209E-4</v>
+        <v>2.1797556836962797E-4</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="B499" s="2">
         <f ca="1"/>
-        <v>2.4374184477279617E-3</v>
+        <v>2.4374141224689908E-3</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="B500" s="2">
         <f ca="1"/>
-        <v>-8.2868303325102748E-3</v>
+        <v>-8.2868359329918116E-3</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="B501" s="2">
         <f ca="1"/>
-        <v>3.9012375116392217E-2</v>
+        <v>3.9012369858512572E-2</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="B502" s="2">
         <f ca="1"/>
-        <v>7.7288575862316392E-3</v>
+        <v>7.7288726724656573E-3</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B503" s="2">
         <f ca="1"/>
-        <v>3.1705224784555597E-3</v>
+        <v>3.1705217542810143E-3</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="B504" s="2">
         <f ca="1"/>
-        <v>9.876433742231348E-3</v>
+        <v>9.8764364258007581E-3</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B505" s="2">
         <f ca="1"/>
-        <v>-2.8703753397112203E-2</v>
+        <v>-2.8703736132048192E-2</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="B506" s="2">
         <f ca="1"/>
-        <v>-4.4568752578013494E-2</v>
+        <v>-4.4568753449664614E-2</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -18288,7 +18288,7 @@
       </c>
       <c r="B507" s="2">
         <f ca="1"/>
-        <v>-3.1904952826660553E-2</v>
+        <v>-3.1904973531068699E-2</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="B508" s="2">
         <f ca="1"/>
-        <v>-2.8718159712431711E-2</v>
+        <v>-2.8718159494477237E-2</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -18308,7 +18308,7 @@
       </c>
       <c r="B509" s="2">
         <f ca="1"/>
-        <v>-7.7173718379038594E-2</v>
+        <v>-7.7173700902086154E-2</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="B510" s="2">
         <f ca="1"/>
-        <v>-2.5566801400960619E-2</v>
+        <v>-2.5566808235024916E-2</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B511" s="2">
         <f ca="1"/>
-        <v>-3.0701040799952582E-2</v>
+        <v>-3.0701046906069299E-2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="B512" s="2">
         <f ca="1"/>
-        <v>-3.8198257404831251E-2</v>
+        <v>-3.8198289629260286E-2</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -18348,7 +18348,7 @@
       </c>
       <c r="B513" s="2">
         <f ca="1"/>
-        <v>-7.9203291203080881E-2</v>
+        <v>-7.9203292223979843E-2</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B514" s="2">
         <f ca="1"/>
-        <v>-0.14951386318023199</v>
+        <v>-0.14951388085350079</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B515" s="2">
         <f ca="1"/>
-        <v>-9.1735462841414844E-2</v>
+        <v>-9.1735449217999365E-2</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -18378,7 +18378,7 @@
       </c>
       <c r="B516" s="2">
         <f ca="1"/>
-        <v>-9.7594168918200788E-2</v>
+        <v>-9.759415945439788E-2</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="B517" s="2">
         <f ca="1"/>
-        <v>-8.1710950812973596E-2</v>
+        <v>-8.1710978214185825E-2</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="B518" s="2">
         <f ca="1"/>
-        <v>-6.5623790581543121E-2</v>
+        <v>-6.5623827583619912E-2</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="B519" s="2">
         <f ca="1"/>
-        <v>-0.15052871719957162</v>
+        <v>-0.15052873262864944</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="B520" s="2">
         <f ca="1"/>
-        <v>-0.16032955584810774</v>
+        <v>-0.16032955958602818</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -18428,7 +18428,7 @@
       </c>
       <c r="B521" s="2">
         <f ca="1"/>
-        <v>-0.21103282604993978</v>
+        <v>-0.21103282665333914</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="B522" s="2">
         <f ca="1"/>
-        <v>-0.4578617236929739</v>
+        <v>-0.45786172585358292</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="B523" s="2">
         <f ca="1"/>
-        <v>-0.38394735650999218</v>
+        <v>-0.38394734664697128</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="B524" s="2">
         <f ca="1"/>
-        <v>-0.39848520080270938</v>
+        <v>-0.39848519221207462</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B525" s="2">
         <f ca="1"/>
-        <v>-0.4383011715835361</v>
+        <v>-0.43830116423392801</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="B526" s="2">
         <f ca="1"/>
-        <v>-0.23859935503755314</v>
+        <v>-0.23859934452186157</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -18488,7 +18488,7 @@
       </c>
       <c r="B527" s="2">
         <f ca="1"/>
-        <v>-3.3138799310752838E-3</v>
+        <v>-3.313879785024012E-3</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="B554" s="2">
         <f ca="1"/>
-        <v>3.1210009471669389E-8</v>
+        <v>3.121001036814224E-8</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -18768,7 +18768,7 @@
       </c>
       <c r="B555" s="2">
         <f ca="1"/>
-        <v>3.7660078095814558E-6</v>
+        <v>3.7660079177558611E-6</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="B556" s="2">
         <f ca="1"/>
-        <v>-1.5640465862012075E-3</v>
+        <v>-1.5640466391332799E-3</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B557" s="2">
         <f ca="1"/>
-        <v>5.6903347556354746E-4</v>
+        <v>5.6903336961268371E-4</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -18798,7 +18798,7 @@
       </c>
       <c r="B558" s="2">
         <f ca="1"/>
-        <v>-5.2618304776231644E-3</v>
+        <v>-5.2618304178514552E-3</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B559" s="2">
         <f ca="1"/>
-        <v>7.4503413703162465E-4</v>
+        <v>7.4503514022817945E-4</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="B560" s="2">
         <f ca="1"/>
-        <v>-1.5140072270049898E-3</v>
+        <v>-1.5140074761377899E-3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="B561" s="2">
         <f ca="1"/>
-        <v>-7.9931498621999501E-3</v>
+        <v>-7.9931516851239077E-3</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="B562" s="2">
         <f ca="1"/>
-        <v>8.8803726723411282E-4</v>
+        <v>8.8803828596795598E-4</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B563" s="2">
         <f ca="1"/>
-        <v>-2.1760743962648932E-2</v>
+        <v>-2.1760753201071577E-2</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="B564" s="2">
         <f ca="1"/>
-        <v>-8.2246672697162976E-3</v>
+        <v>-8.2246678169016034E-3</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="B565" s="2">
         <f ca="1"/>
-        <v>-6.8143247133793687E-3</v>
+        <v>-6.8143211120142962E-3</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B566" s="2">
         <f ca="1"/>
-        <v>-4.1576757826627835E-2</v>
+        <v>-4.1576759556241238E-2</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B567" s="2">
         <f ca="1"/>
-        <v>2.9530970353184216E-4</v>
+        <v>2.9530704363667703E-4</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="B568" s="2">
         <f ca="1"/>
-        <v>1.8420333077006842E-2</v>
+        <v>1.8420331141227337E-2</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="B569" s="2">
         <f ca="1"/>
-        <v>-1.7070306843896627E-2</v>
+        <v>-1.7070314664847343E-2</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -18918,7 +18918,7 @@
       </c>
       <c r="B570" s="2">
         <f ca="1"/>
-        <v>4.1343244655881843E-3</v>
+        <v>4.1343282206215432E-3</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="B571" s="2">
         <f ca="1"/>
-        <v>-6.1539187617287432E-2</v>
+        <v>-6.1539189393361289E-2</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="B572" s="2">
         <f ca="1"/>
-        <v>-6.7249879838961147E-5</v>
+        <v>-6.7263979823625579E-5</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B573" s="2">
         <f ca="1"/>
-        <v>-8.5302534104769165E-2</v>
+        <v>-8.5302534263757251E-2</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="B574" s="2">
         <f ca="1"/>
-        <v>-8.7238741537604456E-2</v>
+        <v>-8.7238737834049798E-2</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="B575" s="2">
         <f ca="1"/>
-        <v>-6.2186887537424275E-2</v>
+        <v>-6.2186878945907652E-2</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B576" s="2">
         <f ca="1"/>
-        <v>-7.2445857109134051E-2</v>
+        <v>-7.2445853610820038E-2</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="B577" s="2">
         <f ca="1"/>
-        <v>-5.509022266872312E-2</v>
+        <v>-5.5090222678546664E-2</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B578" s="2">
         <f ca="1"/>
-        <v>-5.0222641199212117E-2</v>
+        <v>-5.022265640353709E-2</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -19008,7 +19008,7 @@
       </c>
       <c r="B579" s="2">
         <f ca="1"/>
-        <v>-8.4279696237616372E-2</v>
+        <v>-8.4279713377572507E-2</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="B580" s="2">
         <f ca="1"/>
-        <v>-0.12968545782107116</v>
+        <v>-0.12968544929365763</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -19028,7 +19028,7 @@
       </c>
       <c r="B581" s="2">
         <f ca="1"/>
-        <v>-0.13286770704115775</v>
+        <v>-0.13286769457092407</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="B582" s="2">
         <f ca="1"/>
-        <v>-8.2677754224045844E-2</v>
+        <v>-8.2677747862713813E-2</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B583" s="2">
         <f ca="1"/>
-        <v>-0.43355153858727935</v>
+        <v>-0.43355152287587334</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -19058,7 +19058,7 @@
       </c>
       <c r="B584" s="2">
         <f ca="1"/>
-        <v>-0.36533344147994862</v>
+        <v>-0.36533346686771001</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="B585" s="2">
         <f ca="1"/>
-        <v>-0.37186010754371945</v>
+        <v>-0.37186012506655991</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="B586" s="2">
         <f ca="1"/>
-        <v>-0.4973644688329707</v>
+        <v>-0.49736447706832465</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B587" s="2">
         <f ca="1"/>
-        <v>-0.57984193235508263</v>
+        <v>-0.5798418421856405</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="B588" s="2">
         <f ca="1"/>
-        <v>-8.0533601715938874E-3</v>
+        <v>-8.0533589192405275E-3</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B617" s="2">
         <f ca="1"/>
-        <v>6.3558809425259085E-6</v>
+        <v>6.3558808026502655E-6</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -19398,7 +19398,7 @@
       </c>
       <c r="B618" s="2">
         <f ca="1"/>
-        <v>-6.2469563249489498E-4</v>
+        <v>-6.2469563850292347E-4</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="B619" s="2">
         <f ca="1"/>
-        <v>-3.0032211501854855E-3</v>
+        <v>-3.0032211784157209E-3</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B620" s="2">
         <f ca="1"/>
-        <v>-2.1865384535867051E-3</v>
+        <v>-2.1865384298796545E-3</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B621" s="2">
         <f ca="1"/>
-        <v>-3.8525864593305491E-3</v>
+        <v>-3.85258646480101E-3</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -19438,7 +19438,7 @@
       </c>
       <c r="B622" s="2">
         <f ca="1"/>
-        <v>-3.4974471699186034E-3</v>
+        <v>-3.4974471680378674E-3</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="B623" s="2">
         <f ca="1"/>
-        <v>1.177424161929507E-3</v>
+        <v>1.1774242985881703E-3</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="B624" s="2">
         <f ca="1"/>
-        <v>-6.6868059150330724E-3</v>
+        <v>-6.6868061049098161E-3</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="B625" s="2">
         <f ca="1"/>
-        <v>-5.7469620198946662E-3</v>
+        <v>-5.7469583407716305E-3</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="B626" s="2">
         <f ca="1"/>
-        <v>-1.0102037409112523E-2</v>
+        <v>-1.010203738406351E-2</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="B627" s="2">
         <f ca="1"/>
-        <v>1.1847176475939369E-3</v>
+        <v>1.1847167541298876E-3</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="B628" s="2">
         <f ca="1"/>
-        <v>8.790757165518092E-3</v>
+        <v>8.7907559857553046E-3</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -19508,7 +19508,7 @@
       </c>
       <c r="B629" s="2">
         <f ca="1"/>
-        <v>-1.5640842721462742E-2</v>
+        <v>-1.5640842190890906E-2</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -19518,7 +19518,7 @@
       </c>
       <c r="B630" s="2">
         <f ca="1"/>
-        <v>1.5548082565436444E-3</v>
+        <v>1.5548084568716056E-3</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B631" s="2">
         <f ca="1"/>
-        <v>1.3657223005036911E-2</v>
+        <v>1.3657225736741985E-2</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -19538,7 +19538,7 @@
       </c>
       <c r="B632" s="2">
         <f ca="1"/>
-        <v>-2.2842670268599131E-2</v>
+        <v>-2.2842669251792104E-2</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="B633" s="2">
         <f ca="1"/>
-        <v>-7.7039212679589405E-3</v>
+        <v>-7.7039246679207465E-3</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B634" s="2">
         <f ca="1"/>
-        <v>-1.6728806629086445E-2</v>
+        <v>-1.6728810361702973E-2</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B635" s="2">
         <f ca="1"/>
-        <v>-1.1678126744170191E-2</v>
+        <v>-1.1678126368305956E-2</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="B636" s="2">
         <f ca="1"/>
-        <v>-6.7297511696458631E-2</v>
+        <v>-6.7297511015460901E-2</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="B637" s="2">
         <f ca="1"/>
-        <v>-4.2278125544469528E-3</v>
+        <v>-4.2278126166275104E-3</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="B638" s="2">
         <f ca="1"/>
-        <v>-2.6285458446885294E-2</v>
+        <v>-2.6285458859666488E-2</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="B639" s="2">
         <f ca="1"/>
-        <v>2.1769348142651728E-2</v>
+        <v>2.1769341108701698E-2</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="B640" s="2">
         <f ca="1"/>
-        <v>-1.8866858649220945E-2</v>
+        <v>-1.8866853459708652E-2</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="B641" s="2">
         <f ca="1"/>
-        <v>-8.2617366048636218E-2</v>
+        <v>-8.261734999614502E-2</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="B642" s="2">
         <f ca="1"/>
-        <v>-2.5900143849050372E-2</v>
+        <v>-2.5900128980033982E-2</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="B643" s="2">
         <f ca="1"/>
-        <v>-6.6136479755132635E-2</v>
+        <v>-6.6136475626835195E-2</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="B644" s="2">
         <f ca="1"/>
-        <v>-0.18942151206370353</v>
+        <v>-0.18942151393474713</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="B645" s="2">
         <f ca="1"/>
-        <v>-0.15797102361415083</v>
+        <v>-0.15797104620291005</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -19678,7 +19678,7 @@
       </c>
       <c r="B646" s="2">
         <f ca="1"/>
-        <v>-0.19704345781942675</v>
+        <v>-0.19704346211824189</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -19688,7 +19688,7 @@
       </c>
       <c r="B647" s="2">
         <f ca="1"/>
-        <v>-0.25260047131521501</v>
+        <v>-0.25260048033225663</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="B648" s="2">
         <f ca="1"/>
-        <v>-0.45969305996472043</v>
+        <v>-0.45969308302709661</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B649" s="2">
         <f ca="1"/>
-        <v>-6.3846258328397847E-3</v>
+        <v>-6.384626153150566E-3</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B679" s="2">
         <f ca="1"/>
-        <v>-9.195691884457646E-5</v>
+        <v>-9.1956919297080447E-5</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="B680" s="2">
         <f ca="1"/>
-        <v>-2.2728180860001184E-4</v>
+        <v>-2.2728180914015789E-4</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -20028,7 +20028,7 @@
       </c>
       <c r="B681" s="2">
         <f ca="1"/>
-        <v>-1.6513461681791181E-3</v>
+        <v>-1.6513461832294339E-3</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -20038,7 +20038,7 @@
       </c>
       <c r="B682" s="2">
         <f ca="1"/>
-        <v>-4.2726099982705535E-4</v>
+        <v>-4.2726098783501122E-4</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="B683" s="2">
         <f ca="1"/>
-        <v>-7.6580361721267681E-4</v>
+        <v>-7.6580360578996909E-4</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="B684" s="2">
         <f ca="1"/>
-        <v>3.692034825417453E-4</v>
+        <v>3.692034813362942E-4</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B685" s="2">
         <f ca="1"/>
-        <v>-1.4877049378111476E-3</v>
+        <v>-1.4877049409109994E-3</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -20078,7 +20078,7 @@
       </c>
       <c r="B686" s="2">
         <f ca="1"/>
-        <v>6.0375000568015265E-3</v>
+        <v>6.0375094106518796E-3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="B687" s="2">
         <f ca="1"/>
-        <v>5.427618316792995E-3</v>
+        <v>5.4276183195019678E-3</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B688" s="2">
         <f ca="1"/>
-        <v>6.6398667422950782E-3</v>
+        <v>6.6398666352791404E-3</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="B689" s="2">
         <f ca="1"/>
-        <v>1.642304218183727E-2</v>
+        <v>1.6423042259847316E-2</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="B690" s="2">
         <f ca="1"/>
-        <v>-4.5584251155405863E-3</v>
+        <v>-4.5584251350566677E-3</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -20128,7 +20128,7 @@
       </c>
       <c r="B691" s="2">
         <f ca="1"/>
-        <v>2.995341644567209E-3</v>
+        <v>2.9953416431644157E-3</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B692" s="2">
         <f ca="1"/>
-        <v>1.6540255338376483E-3</v>
+        <v>1.6540249833152901E-3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -20148,7 +20148,7 @@
       </c>
       <c r="B693" s="2">
         <f ca="1"/>
-        <v>-8.0391604157737176E-3</v>
+        <v>-8.0391604254017816E-3</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="B694" s="2">
         <f ca="1"/>
-        <v>4.9181172439796521E-4</v>
+        <v>4.9181166024969789E-4</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="B695" s="2">
         <f ca="1"/>
-        <v>-1.3215098356893842E-3</v>
+        <v>-1.321510346034989E-3</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -20178,7 +20178,7 @@
       </c>
       <c r="B696" s="2">
         <f ca="1"/>
-        <v>8.1053932209813832E-3</v>
+        <v>8.1053941301888286E-3</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="B697" s="2">
         <f ca="1"/>
-        <v>-9.1195020665199946E-4</v>
+        <v>-9.1195037393993145E-4</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -20198,7 +20198,7 @@
       </c>
       <c r="B698" s="2">
         <f ca="1"/>
-        <v>2.8218452401562372E-2</v>
+        <v>2.8218451637307448E-2</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B699" s="2">
         <f ca="1"/>
-        <v>1.7151077144903298E-2</v>
+        <v>1.7151077020216926E-2</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="B700" s="2">
         <f ca="1"/>
-        <v>2.152820821607505E-2</v>
+        <v>2.152820597831746E-2</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="B701" s="2">
         <f ca="1"/>
-        <v>2.110343177008207E-2</v>
+        <v>2.1103432788699777E-2</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B702" s="2">
         <f ca="1"/>
-        <v>-1.488859034885061E-2</v>
+        <v>-1.4888590103807216E-2</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B703" s="2">
         <f ca="1"/>
-        <v>6.1809457004878329E-3</v>
+        <v>6.1809413419452834E-3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B704" s="2">
         <f ca="1"/>
-        <v>-1.2343031554105093E-2</v>
+        <v>-1.2343031730705216E-2</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="B705" s="2">
         <f ca="1"/>
-        <v>-1.4956687903525053E-2</v>
+        <v>-1.4956689022212748E-2</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="B706" s="2">
         <f ca="1"/>
-        <v>-1.1060991747494376E-2</v>
+        <v>-1.1060992562027647E-2</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B707" s="2">
         <f ca="1"/>
-        <v>-6.4989123521288503E-3</v>
+        <v>-6.4989070967123499E-3</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="B708" s="2">
         <f ca="1"/>
-        <v>-3.1949185870576457E-3</v>
+        <v>-3.1949182376464847E-3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="B709" s="2">
         <f ca="1"/>
-        <v>-0.10745404791781793</v>
+        <v>-0.10745405048058784</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="B710" s="2">
         <f ca="1"/>
-        <v>-1.4924173321910852E-3</v>
+        <v>-1.4924173677851118E-3</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="B742" s="2">
         <f ca="1"/>
-        <v>-2.1754526716366179E-9</v>
+        <v>-2.175454140956702E-9</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
@@ -20648,7 +20648,7 @@
       </c>
       <c r="B743" s="2">
         <f ca="1"/>
-        <v>-4.7934860461242653E-8</v>
+        <v>-4.7934890815218453E-8</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="B744" s="2">
         <f ca="1"/>
-        <v>-1.9097385086190111E-8</v>
+        <v>-1.9097318017036365E-8</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B749" s="2">
         <f ca="1"/>
-        <v>-9.2110472679232333E-8</v>
+        <v>-9.2110357600458871E-8</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="B750" s="2">
         <f ca="1"/>
-        <v>-5.0894490210199203E-8</v>
+        <v>-5.0894484282001879E-8</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B751" s="2">
         <f ca="1"/>
-        <v>-6.6319409330719171E-8</v>
+        <v>-6.6319603844744188E-8</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="B752" s="2">
         <f ca="1"/>
-        <v>9.0561739209276636E-8</v>
+        <v>9.0561901712158593E-8</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B753" s="2">
         <f ca="1"/>
-        <v>6.3426682292033905E-6</v>
+        <v>6.3426657877394114E-6</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
@@ -20758,7 +20758,7 @@
       </c>
       <c r="B754" s="2">
         <f ca="1"/>
-        <v>-5.9004747608715708E-8</v>
+        <v>-5.9004753567630694E-8</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B755" s="2">
         <f ca="1"/>
-        <v>-2.1555197093513946E-7</v>
+        <v>-2.1555201195615113E-7</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B756" s="2">
         <f ca="1"/>
-        <v>-1.7718571320019268E-8</v>
+        <v>-1.7718603458883167E-8</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="B757" s="2">
         <f ca="1"/>
-        <v>5.524898934713773E-7</v>
+        <v>5.524865940632872E-7</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
@@ -20798,7 +20798,7 @@
       </c>
       <c r="B758" s="2">
         <f ca="1"/>
-        <v>-2.3441790907758117E-7</v>
+        <v>-2.3441785469969591E-7</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B759" s="2">
         <f ca="1"/>
-        <v>3.7842155407972695E-6</v>
+        <v>3.7842203650271679E-6</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="B760" s="2">
         <f ca="1"/>
-        <v>9.437332176566014E-8</v>
+        <v>9.4373474327068094E-8</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -20828,7 +20828,7 @@
       </c>
       <c r="B761" s="2">
         <f ca="1"/>
-        <v>-3.8516622170193711E-7</v>
+        <v>-3.8516604895209628E-7</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
@@ -20838,7 +20838,7 @@
       </c>
       <c r="B762" s="2">
         <f ca="1"/>
-        <v>2.0785014066992679E-5</v>
+        <v>2.0785011382270199E-5</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="B763" s="2">
         <f ca="1"/>
-        <v>2.3314004021688024E-7</v>
+        <v>2.3313971390988906E-7</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="B764" s="2">
         <f ca="1"/>
-        <v>-3.5192593033660005E-7</v>
+        <v>-3.519257803106092E-7</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B765" s="2">
         <f ca="1"/>
-        <v>-4.8424731164017358E-7</v>
+        <v>-4.842471269190981E-7</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="B766" s="2">
         <f ca="1"/>
-        <v>-2.4755942077928211E-7</v>
+        <v>-2.4755953605010548E-7</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B767" s="2">
         <f ca="1"/>
-        <v>-2.2274285470981509E-7</v>
+        <v>-2.2274306562103111E-7</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
@@ -20898,7 +20898,7 @@
       </c>
       <c r="B768" s="2">
         <f ca="1"/>
-        <v>-3.6497396281960273E-7</v>
+        <v>-3.6497425097484331E-7</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B769" s="2">
         <f ca="1"/>
-        <v>-4.5295636361228098E-7</v>
+        <v>-4.5295637160828175E-7</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B770" s="2">
         <f ca="1"/>
-        <v>-6.4317927711195186E-7</v>
+        <v>-6.4317892646278221E-7</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -20928,7 +20928,7 @@
       </c>
       <c r="B771" s="2">
         <f ca="1"/>
-        <v>-8.9330455154388043E-9</v>
+        <v>-8.9330406453114495E-9</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -40178,7 +40178,7 @@
       </c>
       <c r="B2696" s="2">
         <f ca="1"/>
-        <v>1.087695424610613E-6</v>
+        <v>1.0876954268986095E-6</v>
       </c>
     </row>
     <row r="2697" spans="1:2" x14ac:dyDescent="0.25">
@@ -40188,7 +40188,7 @@
       </c>
       <c r="B2697" s="2">
         <f ca="1"/>
-        <v>2.7150264051802805E-5</v>
+        <v>2.7150264108539789E-5</v>
       </c>
     </row>
     <row r="2698" spans="1:2" x14ac:dyDescent="0.25">
@@ -40198,7 +40198,7 @@
       </c>
       <c r="B2698" s="2">
         <f ca="1"/>
-        <v>-6.1276350824948176E-6</v>
+        <v>-6.1276351145288168E-6</v>
       </c>
     </row>
     <row r="2699" spans="1:2" x14ac:dyDescent="0.25">
@@ -40208,7 +40208,7 @@
       </c>
       <c r="B2699" s="2">
         <f ca="1"/>
-        <v>5.4412958990180913E-5</v>
+        <v>5.441295908304636E-5</v>
       </c>
     </row>
     <row r="2700" spans="1:2" x14ac:dyDescent="0.25">
@@ -40218,7 +40218,7 @@
       </c>
       <c r="B2700" s="2">
         <f ca="1"/>
-        <v>2.7283692890763851E-5</v>
+        <v>2.7283693070197068E-5</v>
       </c>
     </row>
     <row r="2701" spans="1:2" x14ac:dyDescent="0.25">
@@ -40228,7 +40228,7 @@
       </c>
       <c r="B2701" s="2">
         <f ca="1"/>
-        <v>1.6785953641741193E-6</v>
+        <v>1.678595457010246E-6</v>
       </c>
     </row>
     <row r="2702" spans="1:2" x14ac:dyDescent="0.25">
@@ -40238,7 +40238,7 @@
       </c>
       <c r="B2702" s="2">
         <f ca="1"/>
-        <v>4.0179795110108731E-5</v>
+        <v>4.0179795390202848E-5</v>
       </c>
     </row>
     <row r="2703" spans="1:2" x14ac:dyDescent="0.25">
@@ -40248,7 +40248,7 @@
       </c>
       <c r="B2703" s="2">
         <f ca="1"/>
-        <v>1.7534771833678678E-6</v>
+        <v>1.7534771780098699E-6</v>
       </c>
     </row>
     <row r="2704" spans="1:2" x14ac:dyDescent="0.25">
@@ -40258,7 +40258,7 @@
       </c>
       <c r="B2704" s="2">
         <f ca="1"/>
-        <v>2.0040835337596091E-7</v>
+        <v>2.0040835402270979E-7</v>
       </c>
     </row>
     <row r="2705" spans="1:2" x14ac:dyDescent="0.25">
@@ -40268,7 +40268,7 @@
       </c>
       <c r="B2705" s="2">
         <f ca="1"/>
-        <v>5.6585454008448074E-6</v>
+        <v>5.6585453747459969E-6</v>
       </c>
     </row>
     <row r="2706" spans="1:2" x14ac:dyDescent="0.25">
@@ -40278,7 +40278,7 @@
       </c>
       <c r="B2706" s="2">
         <f ca="1"/>
-        <v>8.3682786945111319E-6</v>
+        <v>8.3682786051090879E-6</v>
       </c>
     </row>
     <row r="2707" spans="1:2" x14ac:dyDescent="0.25">
@@ -40288,7 +40288,7 @@
       </c>
       <c r="B2707" s="2">
         <f ca="1"/>
-        <v>7.0396239494860621E-6</v>
+        <v>7.0396238875959608E-6</v>
       </c>
     </row>
     <row r="2708" spans="1:2" x14ac:dyDescent="0.25">
@@ -40298,7 +40298,7 @@
       </c>
       <c r="B2708" s="2">
         <f ca="1"/>
-        <v>5.738842893538908E-8</v>
+        <v>5.7388428934134644E-8</v>
       </c>
     </row>
     <row r="2709" spans="1:2" x14ac:dyDescent="0.25">
@@ -40308,7 +40308,7 @@
       </c>
       <c r="B2709" s="2">
         <f ca="1"/>
-        <v>1.0415999851788016E-5</v>
+        <v>1.0415999851560342E-5</v>
       </c>
     </row>
     <row r="2710" spans="1:2" x14ac:dyDescent="0.25">
@@ -40748,7 +40748,7 @@
       </c>
       <c r="B2753" s="2">
         <f ca="1"/>
-        <v>1.0106818569217017E-5</v>
+        <v>1.0106818478564486E-5</v>
       </c>
     </row>
     <row r="2754" spans="1:2" x14ac:dyDescent="0.25">
@@ -40758,7 +40758,7 @@
       </c>
       <c r="B2754" s="2">
         <f ca="1"/>
-        <v>1.1205603885775575E-5</v>
+        <v>1.120560377819886E-5</v>
       </c>
     </row>
     <row r="2755" spans="1:2" x14ac:dyDescent="0.25">
@@ -40768,7 +40768,7 @@
       </c>
       <c r="B2755" s="2">
         <f ca="1"/>
-        <v>5.5130322711184953E-5</v>
+        <v>5.5130323008210283E-5</v>
       </c>
     </row>
     <row r="2756" spans="1:2" x14ac:dyDescent="0.25">
@@ -40778,7 +40778,7 @@
       </c>
       <c r="B2756" s="2">
         <f ca="1"/>
-        <v>1.3310720771745355E-4</v>
+        <v>1.3310720757365321E-4</v>
       </c>
     </row>
     <row r="2757" spans="1:2" x14ac:dyDescent="0.25">
@@ -40788,7 +40788,7 @@
       </c>
       <c r="B2757" s="2">
         <f ca="1"/>
-        <v>-1.5875023037630153E-5</v>
+        <v>-1.5875023254355818E-5</v>
       </c>
     </row>
     <row r="2758" spans="1:2" x14ac:dyDescent="0.25">
@@ -40798,7 +40798,7 @@
       </c>
       <c r="B2758" s="2">
         <f ca="1"/>
-        <v>1.6261511304264188E-4</v>
+        <v>1.6261511283231376E-4</v>
       </c>
     </row>
     <row r="2759" spans="1:2" x14ac:dyDescent="0.25">
@@ -40808,7 +40808,7 @@
       </c>
       <c r="B2759" s="2">
         <f ca="1"/>
-        <v>1.0902259687521756E-4</v>
+        <v>1.0902259681376699E-4</v>
       </c>
     </row>
     <row r="2760" spans="1:2" x14ac:dyDescent="0.25">
@@ -40818,7 +40818,7 @@
       </c>
       <c r="B2760" s="2">
         <f ca="1"/>
-        <v>1.4817601644986222E-4</v>
+        <v>1.4817601613185488E-4</v>
       </c>
     </row>
     <row r="2761" spans="1:2" x14ac:dyDescent="0.25">
@@ -40828,7 +40828,7 @@
       </c>
       <c r="B2761" s="2">
         <f ca="1"/>
-        <v>2.7528763085695314E-4</v>
+        <v>2.7528763038668158E-4</v>
       </c>
     </row>
     <row r="2762" spans="1:2" x14ac:dyDescent="0.25">
@@ -40838,7 +40838,7 @@
       </c>
       <c r="B2762" s="2">
         <f ca="1"/>
-        <v>2.2598380650695667E-4</v>
+        <v>2.2598380616395267E-4</v>
       </c>
     </row>
     <row r="2763" spans="1:2" x14ac:dyDescent="0.25">
@@ -40848,7 +40848,7 @@
       </c>
       <c r="B2763" s="2">
         <f ca="1"/>
-        <v>3.6921101319554333E-4</v>
+        <v>3.6921101303506504E-4</v>
       </c>
     </row>
     <row r="2764" spans="1:2" x14ac:dyDescent="0.25">
@@ -40858,7 +40858,7 @@
       </c>
       <c r="B2764" s="2">
         <f ca="1"/>
-        <v>3.8001587174832396E-4</v>
+        <v>3.8001587097361819E-4</v>
       </c>
     </row>
     <row r="2765" spans="1:2" x14ac:dyDescent="0.25">
@@ -40868,7 +40868,7 @@
       </c>
       <c r="B2765" s="2">
         <f ca="1"/>
-        <v>2.2769698645790413E-4</v>
+        <v>2.2769698716931938E-4</v>
       </c>
     </row>
     <row r="2766" spans="1:2" x14ac:dyDescent="0.25">
@@ -40878,7 +40878,7 @@
       </c>
       <c r="B2766" s="2">
         <f ca="1"/>
-        <v>1.3390211872828006E-4</v>
+        <v>1.3390211839379399E-4</v>
       </c>
     </row>
     <row r="2767" spans="1:2" x14ac:dyDescent="0.25">
@@ -40888,7 +40888,7 @@
       </c>
       <c r="B2767" s="2">
         <f ca="1"/>
-        <v>1.2623381655343501E-4</v>
+        <v>1.2623381665366015E-4</v>
       </c>
     </row>
     <row r="2768" spans="1:2" x14ac:dyDescent="0.25">
@@ -40898,7 +40898,7 @@
       </c>
       <c r="B2768" s="2">
         <f ca="1"/>
-        <v>2.1966882436039322E-4</v>
+        <v>2.1966882463819395E-4</v>
       </c>
     </row>
     <row r="2769" spans="1:2" x14ac:dyDescent="0.25">
@@ -40908,7 +40908,7 @@
       </c>
       <c r="B2769" s="2">
         <f ca="1"/>
-        <v>9.0100664738817208E-5</v>
+        <v>9.0100664611096376E-5</v>
       </c>
     </row>
     <row r="2770" spans="1:2" x14ac:dyDescent="0.25">
@@ -40918,7 +40918,7 @@
       </c>
       <c r="B2770" s="2">
         <f ca="1"/>
-        <v>1.1760576344356734E-4</v>
+        <v>1.1760576358607249E-4</v>
       </c>
     </row>
     <row r="2771" spans="1:2" x14ac:dyDescent="0.25">
@@ -40928,7 +40928,7 @@
       </c>
       <c r="B2771" s="2">
         <f ca="1"/>
-        <v>3.9616605856833298E-5</v>
+        <v>3.9616605846424869E-5</v>
       </c>
     </row>
     <row r="2772" spans="1:2" x14ac:dyDescent="0.25">
@@ -40938,7 +40938,7 @@
       </c>
       <c r="B2772" s="2">
         <f ca="1"/>
-        <v>4.0221128100988279E-5</v>
+        <v>4.0221127834268717E-5</v>
       </c>
     </row>
     <row r="2773" spans="1:2" x14ac:dyDescent="0.25">
@@ -40948,7 +40948,7 @@
       </c>
       <c r="B2773" s="2">
         <f ca="1"/>
-        <v>8.9376619758272066E-5</v>
+        <v>8.9376620271621263E-5</v>
       </c>
     </row>
     <row r="2774" spans="1:2" x14ac:dyDescent="0.25">
@@ -40958,7 +40958,7 @@
       </c>
       <c r="B2774" s="2">
         <f ca="1"/>
-        <v>1.8446959475396946E-6</v>
+        <v>1.8446959479570955E-6</v>
       </c>
     </row>
     <row r="2775" spans="1:2" x14ac:dyDescent="0.25">
@@ -40968,7 +40968,7 @@
       </c>
       <c r="B2775" s="2">
         <f ca="1"/>
-        <v>4.9250247195104244E-9</v>
+        <v>4.9250243287331837E-9</v>
       </c>
     </row>
     <row r="2776" spans="1:2" x14ac:dyDescent="0.25">
@@ -41328,7 +41328,7 @@
       </c>
       <c r="B2811" s="2">
         <f ca="1"/>
-        <v>1.8383096573408098E-7</v>
+        <v>1.838309674000969E-7</v>
       </c>
     </row>
     <row r="2812" spans="1:2" x14ac:dyDescent="0.25">
@@ -41338,7 +41338,7 @@
       </c>
       <c r="B2812" s="2">
         <f ca="1"/>
-        <v>2.2182269865245868E-5</v>
+        <v>2.2182270066278455E-5</v>
       </c>
     </row>
     <row r="2813" spans="1:2" x14ac:dyDescent="0.25">
@@ -41348,7 +41348,7 @@
       </c>
       <c r="B2813" s="2">
         <f ca="1"/>
-        <v>6.9783817578016036E-5</v>
+        <v>6.978381792271829E-5</v>
       </c>
     </row>
     <row r="2814" spans="1:2" x14ac:dyDescent="0.25">
@@ -41358,7 +41358,7 @@
       </c>
       <c r="B2814" s="2">
         <f ca="1"/>
-        <v>1.3756708013831949E-4</v>
+        <v>1.3756708070875053E-4</v>
       </c>
     </row>
     <row r="2815" spans="1:2" x14ac:dyDescent="0.25">
@@ -41368,7 +41368,7 @@
       </c>
       <c r="B2815" s="2">
         <f ca="1"/>
-        <v>2.0652263756400159E-4</v>
+        <v>2.0652263805804298E-4</v>
       </c>
     </row>
     <row r="2816" spans="1:2" x14ac:dyDescent="0.25">
@@ -41378,7 +41378,7 @@
       </c>
       <c r="B2816" s="2">
         <f ca="1"/>
-        <v>3.3264476732470377E-4</v>
+        <v>3.3264476669787993E-4</v>
       </c>
     </row>
     <row r="2817" spans="1:2" x14ac:dyDescent="0.25">
@@ -41388,7 +41388,7 @@
       </c>
       <c r="B2817" s="2">
         <f ca="1"/>
-        <v>8.2898519523061538E-4</v>
+        <v>8.2898519510128644E-4</v>
       </c>
     </row>
     <row r="2818" spans="1:2" x14ac:dyDescent="0.25">
@@ -41398,7 +41398,7 @@
       </c>
       <c r="B2818" s="2">
         <f ca="1"/>
-        <v>9.0774585557699765E-4</v>
+        <v>9.0774585518735502E-4</v>
       </c>
     </row>
     <row r="2819" spans="1:2" x14ac:dyDescent="0.25">
@@ -41408,7 +41408,7 @@
       </c>
       <c r="B2819" s="2">
         <f ca="1"/>
-        <v>9.3676883804788417E-4</v>
+        <v>9.3676891311278258E-4</v>
       </c>
     </row>
     <row r="2820" spans="1:2" x14ac:dyDescent="0.25">
@@ -41418,7 +41418,7 @@
       </c>
       <c r="B2820" s="2">
         <f ca="1"/>
-        <v>-5.1135061593842466E-3</v>
+        <v>-5.113502320706397E-3</v>
       </c>
     </row>
     <row r="2821" spans="1:2" x14ac:dyDescent="0.25">
@@ -41428,7 +41428,7 @@
       </c>
       <c r="B2821" s="2">
         <f ca="1"/>
-        <v>1.035651226433232E-3</v>
+        <v>1.0356512340977874E-3</v>
       </c>
     </row>
     <row r="2822" spans="1:2" x14ac:dyDescent="0.25">
@@ -41438,7 +41438,7 @@
       </c>
       <c r="B2822" s="2">
         <f ca="1"/>
-        <v>-4.6320198139817191E-3</v>
+        <v>-4.6320193407789739E-3</v>
       </c>
     </row>
     <row r="2823" spans="1:2" x14ac:dyDescent="0.25">
@@ -41448,7 +41448,7 @@
       </c>
       <c r="B2823" s="2">
         <f ca="1"/>
-        <v>-4.6620083718240386E-4</v>
+        <v>-4.662008048269238E-4</v>
       </c>
     </row>
     <row r="2824" spans="1:2" x14ac:dyDescent="0.25">
@@ -41458,7 +41458,7 @@
       </c>
       <c r="B2824" s="2">
         <f ca="1"/>
-        <v>8.0601892953308671E-4</v>
+        <v>8.0601893068972291E-4</v>
       </c>
     </row>
     <row r="2825" spans="1:2" x14ac:dyDescent="0.25">
@@ -41468,7 +41468,7 @@
       </c>
       <c r="B2825" s="2">
         <f ca="1"/>
-        <v>1.5009708235129565E-3</v>
+        <v>1.5009708246851985E-3</v>
       </c>
     </row>
     <row r="2826" spans="1:2" x14ac:dyDescent="0.25">
@@ -41478,7 +41478,7 @@
       </c>
       <c r="B2826" s="2">
         <f ca="1"/>
-        <v>1.4296446440943042E-3</v>
+        <v>1.4296446449058062E-3</v>
       </c>
     </row>
     <row r="2827" spans="1:2" x14ac:dyDescent="0.25">
@@ -41488,7 +41488,7 @@
       </c>
       <c r="B2827" s="2">
         <f ca="1"/>
-        <v>1.1849205024007505E-3</v>
+        <v>1.1849205024019934E-3</v>
       </c>
     </row>
     <row r="2828" spans="1:2" x14ac:dyDescent="0.25">
@@ -41498,7 +41498,7 @@
       </c>
       <c r="B2828" s="2">
         <f ca="1"/>
-        <v>9.2183156238170036E-4</v>
+        <v>9.2183156261833226E-4</v>
       </c>
     </row>
     <row r="2829" spans="1:2" x14ac:dyDescent="0.25">
@@ -41508,7 +41508,7 @@
       </c>
       <c r="B2829" s="2">
         <f ca="1"/>
-        <v>7.9555216355614989E-4</v>
+        <v>7.9555216455429168E-4</v>
       </c>
     </row>
     <row r="2830" spans="1:2" x14ac:dyDescent="0.25">
@@ -41518,7 +41518,7 @@
       </c>
       <c r="B2830" s="2">
         <f ca="1"/>
-        <v>8.1656025569387593E-4</v>
+        <v>8.1656025593537308E-4</v>
       </c>
     </row>
     <row r="2831" spans="1:2" x14ac:dyDescent="0.25">
@@ -41528,7 +41528,7 @@
       </c>
       <c r="B2831" s="2">
         <f ca="1"/>
-        <v>5.1474117289377393E-4</v>
+        <v>5.147411722284395E-4</v>
       </c>
     </row>
     <row r="2832" spans="1:2" x14ac:dyDescent="0.25">
@@ -41538,7 +41538,7 @@
       </c>
       <c r="B2832" s="2">
         <f ca="1"/>
-        <v>2.5582321115537158E-4</v>
+        <v>2.5582321107454122E-4</v>
       </c>
     </row>
     <row r="2833" spans="1:2" x14ac:dyDescent="0.25">
@@ -41548,7 +41548,7 @@
       </c>
       <c r="B2833" s="2">
         <f ca="1"/>
-        <v>5.0958570339839629E-4</v>
+        <v>5.0958570455222657E-4</v>
       </c>
     </row>
     <row r="2834" spans="1:2" x14ac:dyDescent="0.25">
@@ -41558,7 +41558,7 @@
       </c>
       <c r="B2834" s="2">
         <f ca="1"/>
-        <v>1.5481522213157199E-4</v>
+        <v>1.5481522167214119E-4</v>
       </c>
     </row>
     <row r="2835" spans="1:2" x14ac:dyDescent="0.25">
@@ -41568,7 +41568,7 @@
       </c>
       <c r="B2835" s="2">
         <f ca="1"/>
-        <v>1.0724119902918091E-4</v>
+        <v>1.0724119891988078E-4</v>
       </c>
     </row>
     <row r="2836" spans="1:2" x14ac:dyDescent="0.25">
@@ -41578,7 +41578,7 @@
       </c>
       <c r="B2836" s="2">
         <f ca="1"/>
-        <v>7.8622935179772848E-5</v>
+        <v>7.862293492809239E-5</v>
       </c>
     </row>
     <row r="2837" spans="1:2" x14ac:dyDescent="0.25">
@@ -41588,7 +41588,7 @@
       </c>
       <c r="B2837" s="2">
         <f ca="1"/>
-        <v>6.3368958301956669E-6</v>
+        <v>6.3368958257181152E-6</v>
       </c>
     </row>
     <row r="2838" spans="1:2" x14ac:dyDescent="0.25">
@@ -41598,7 +41598,7 @@
       </c>
       <c r="B2838" s="2">
         <f ca="1"/>
-        <v>3.1194796072506961E-6</v>
+        <v>3.1194796050052215E-6</v>
       </c>
     </row>
     <row r="2839" spans="1:2" x14ac:dyDescent="0.25">
@@ -41608,7 +41608,7 @@
       </c>
       <c r="B2839" s="2">
         <f ca="1"/>
-        <v>1.0002547751250297E-5</v>
+        <v>1.0002547719410489E-5</v>
       </c>
     </row>
     <row r="2840" spans="1:2" x14ac:dyDescent="0.25">
@@ -41938,7 +41938,7 @@
       </c>
       <c r="B2872" s="2">
         <f ca="1"/>
-        <v>3.4645135292201478E-5</v>
+        <v>3.4645134904294026E-5</v>
       </c>
     </row>
     <row r="2873" spans="1:2" x14ac:dyDescent="0.25">
@@ -41948,7 +41948,7 @@
       </c>
       <c r="B2873" s="2">
         <f ca="1"/>
-        <v>-1.1900821086081447E-4</v>
+        <v>-1.1900821647792257E-4</v>
       </c>
     </row>
     <row r="2874" spans="1:2" x14ac:dyDescent="0.25">
@@ -41958,7 +41958,7 @@
       </c>
       <c r="B2874" s="2">
         <f ca="1"/>
-        <v>5.9836393597630761E-4</v>
+        <v>5.9836393639187883E-4</v>
       </c>
     </row>
     <row r="2875" spans="1:2" x14ac:dyDescent="0.25">
@@ -41968,7 +41968,7 @@
       </c>
       <c r="B2875" s="2">
         <f ca="1"/>
-        <v>9.6048592402346068E-4</v>
+        <v>9.604859223893129E-4</v>
       </c>
     </row>
     <row r="2876" spans="1:2" x14ac:dyDescent="0.25">
@@ -41978,7 +41978,7 @@
       </c>
       <c r="B2876" s="2">
         <f ca="1"/>
-        <v>1.7108826879089825E-3</v>
+        <v>1.7108826953515276E-3</v>
       </c>
     </row>
     <row r="2877" spans="1:2" x14ac:dyDescent="0.25">
@@ -41988,7 +41988,7 @@
       </c>
       <c r="B2877" s="2">
         <f ca="1"/>
-        <v>3.1990970659372909E-3</v>
+        <v>3.1990972977910077E-3</v>
       </c>
     </row>
     <row r="2878" spans="1:2" x14ac:dyDescent="0.25">
@@ -41998,7 +41998,7 @@
       </c>
       <c r="B2878" s="2">
         <f ca="1"/>
-        <v>5.4987996735860042E-3</v>
+        <v>5.498798979569325E-3</v>
       </c>
     </row>
     <row r="2879" spans="1:2" x14ac:dyDescent="0.25">
@@ -42008,7 +42008,7 @@
       </c>
       <c r="B2879" s="2">
         <f ca="1"/>
-        <v>1.1285551171613303E-2</v>
+        <v>1.1285547036024529E-2</v>
       </c>
     </row>
     <row r="2880" spans="1:2" x14ac:dyDescent="0.25">
@@ -42018,7 +42018,7 @@
       </c>
       <c r="B2880" s="2">
         <f ca="1"/>
-        <v>1.3727485079341918E-2</v>
+        <v>1.3727480318554764E-2</v>
       </c>
     </row>
     <row r="2881" spans="1:2" x14ac:dyDescent="0.25">
@@ -42028,7 +42028,7 @@
       </c>
       <c r="B2881" s="2">
         <f ca="1"/>
-        <v>-1.2152831814204209E-2</v>
+        <v>-1.2152820392688335E-2</v>
       </c>
     </row>
     <row r="2882" spans="1:2" x14ac:dyDescent="0.25">
@@ -42038,7 +42038,7 @@
       </c>
       <c r="B2882" s="2">
         <f ca="1"/>
-        <v>1.8845471207105707E-2</v>
+        <v>1.884546702372774E-2</v>
       </c>
     </row>
     <row r="2883" spans="1:2" x14ac:dyDescent="0.25">
@@ -42048,7 +42048,7 @@
       </c>
       <c r="B2883" s="2">
         <f ca="1"/>
-        <v>-6.1239006322049826E-3</v>
+        <v>-6.1238931617351895E-3</v>
       </c>
     </row>
     <row r="2884" spans="1:2" x14ac:dyDescent="0.25">
@@ -42058,7 +42058,7 @@
       </c>
       <c r="B2884" s="2">
         <f ca="1"/>
-        <v>-2.1351090306107066E-2</v>
+        <v>-2.1351078372440185E-2</v>
       </c>
     </row>
     <row r="2885" spans="1:2" x14ac:dyDescent="0.25">
@@ -42068,7 +42068,7 @@
       </c>
       <c r="B2885" s="2">
         <f ca="1"/>
-        <v>6.0464770705072092E-3</v>
+        <v>6.0464771362810556E-3</v>
       </c>
     </row>
     <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
@@ -42078,7 +42078,7 @@
       </c>
       <c r="B2886" s="2">
         <f ca="1"/>
-        <v>7.0384461794873376E-3</v>
+        <v>7.0384461749707162E-3</v>
       </c>
     </row>
     <row r="2887" spans="1:2" x14ac:dyDescent="0.25">
@@ -42088,7 +42088,7 @@
       </c>
       <c r="B2887" s="2">
         <f ca="1"/>
-        <v>5.140000198031726E-3</v>
+        <v>5.1400001946518333E-3</v>
       </c>
     </row>
     <row r="2888" spans="1:2" x14ac:dyDescent="0.25">
@@ -42098,7 +42098,7 @@
       </c>
       <c r="B2888" s="2">
         <f ca="1"/>
-        <v>5.4681851769958819E-3</v>
+        <v>5.4681851800856092E-3</v>
       </c>
     </row>
     <row r="2889" spans="1:2" x14ac:dyDescent="0.25">
@@ -42108,7 +42108,7 @@
       </c>
       <c r="B2889" s="2">
         <f ca="1"/>
-        <v>4.6918324753688692E-3</v>
+        <v>4.6918324729403578E-3</v>
       </c>
     </row>
     <row r="2890" spans="1:2" x14ac:dyDescent="0.25">
@@ -42118,7 +42118,7 @@
       </c>
       <c r="B2890" s="2">
         <f ca="1"/>
-        <v>4.7451248450224729E-3</v>
+        <v>4.7451248431534723E-3</v>
       </c>
     </row>
     <row r="2891" spans="1:2" x14ac:dyDescent="0.25">
@@ -42128,7 +42128,7 @@
       </c>
       <c r="B2891" s="2">
         <f ca="1"/>
-        <v>3.6049517073788585E-3</v>
+        <v>3.6049517076143008E-3</v>
       </c>
     </row>
     <row r="2892" spans="1:2" x14ac:dyDescent="0.25">
@@ -42138,7 +42138,7 @@
       </c>
       <c r="B2892" s="2">
         <f ca="1"/>
-        <v>2.4217907050729753E-3</v>
+        <v>2.4217907068691006E-3</v>
       </c>
     </row>
     <row r="2893" spans="1:2" x14ac:dyDescent="0.25">
@@ -42148,7 +42148,7 @@
       </c>
       <c r="B2893" s="2">
         <f ca="1"/>
-        <v>1.7898701735215006E-3</v>
+        <v>1.7898701722892511E-3</v>
       </c>
     </row>
     <row r="2894" spans="1:2" x14ac:dyDescent="0.25">
@@ -42158,7 +42158,7 @@
       </c>
       <c r="B2894" s="2">
         <f ca="1"/>
-        <v>1.769923133161771E-3</v>
+        <v>1.7699231331620594E-3</v>
       </c>
     </row>
     <row r="2895" spans="1:2" x14ac:dyDescent="0.25">
@@ -42168,7 +42168,7 @@
       </c>
       <c r="B2895" s="2">
         <f ca="1"/>
-        <v>1.282789220146239E-3</v>
+        <v>1.2827892204138273E-3</v>
       </c>
     </row>
     <row r="2896" spans="1:2" x14ac:dyDescent="0.25">
@@ -42178,7 +42178,7 @@
       </c>
       <c r="B2896" s="2">
         <f ca="1"/>
-        <v>1.1563278308616975E-3</v>
+        <v>1.1563278310793876E-3</v>
       </c>
     </row>
     <row r="2897" spans="1:2" x14ac:dyDescent="0.25">
@@ -42188,7 +42188,7 @@
       </c>
       <c r="B2897" s="2">
         <f ca="1"/>
-        <v>4.4143499825032495E-4</v>
+        <v>4.4143499818719261E-4</v>
       </c>
     </row>
     <row r="2898" spans="1:2" x14ac:dyDescent="0.25">
@@ -42198,7 +42198,7 @@
       </c>
       <c r="B2898" s="2">
         <f ca="1"/>
-        <v>2.0259301988216464E-4</v>
+        <v>2.0259301967291371E-4</v>
       </c>
     </row>
     <row r="2899" spans="1:2" x14ac:dyDescent="0.25">
@@ -42208,7 +42208,7 @@
       </c>
       <c r="B2899" s="2">
         <f ca="1"/>
-        <v>1.0136961721692786E-4</v>
+        <v>1.0136961718639648E-4</v>
       </c>
     </row>
     <row r="2900" spans="1:2" x14ac:dyDescent="0.25">
@@ -42218,7 +42218,7 @@
       </c>
       <c r="B2900" s="2">
         <f ca="1"/>
-        <v>7.087164509984753E-5</v>
+        <v>7.0871644819455419E-5</v>
       </c>
     </row>
     <row r="2901" spans="1:2" x14ac:dyDescent="0.25">
@@ -42228,7 +42228,7 @@
       </c>
       <c r="B2901" s="2">
         <f ca="1"/>
-        <v>2.7856063087168978E-5</v>
+        <v>2.7856062974525275E-5</v>
       </c>
     </row>
     <row r="2902" spans="1:2" x14ac:dyDescent="0.25">
@@ -42238,7 +42238,7 @@
       </c>
       <c r="B2902" s="2">
         <f ca="1"/>
-        <v>7.6527645843798848E-8</v>
+        <v>7.6527645534338127E-8</v>
       </c>
     </row>
     <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
@@ -42528,7 +42528,7 @@
       </c>
       <c r="B2931" s="2">
         <f ca="1"/>
-        <v>-8.1945089090335682E-8</v>
+        <v>-8.1945087386718803E-8</v>
       </c>
     </row>
     <row r="2932" spans="1:2" x14ac:dyDescent="0.25">
@@ -42538,7 +42538,7 @@
       </c>
       <c r="B2932" s="2">
         <f ca="1"/>
-        <v>-5.9000464145041441E-6</v>
+        <v>-5.9000462918438131E-6</v>
       </c>
     </row>
     <row r="2933" spans="1:2" x14ac:dyDescent="0.25">
@@ -42548,7 +42548,7 @@
       </c>
       <c r="B2933" s="2">
         <f ca="1"/>
-        <v>4.7614898312341912E-4</v>
+        <v>4.7614897168975456E-4</v>
       </c>
     </row>
     <row r="2934" spans="1:2" x14ac:dyDescent="0.25">
@@ -42558,7 +42558,7 @@
       </c>
       <c r="B2934" s="2">
         <f ca="1"/>
-        <v>-7.3152879518847127E-3</v>
+        <v>-7.3152896505655346E-3</v>
       </c>
     </row>
     <row r="2935" spans="1:2" x14ac:dyDescent="0.25">
@@ -42568,7 +42568,7 @@
       </c>
       <c r="B2935" s="2">
         <f ca="1"/>
-        <v>6.2782965123773828E-3</v>
+        <v>6.2782965123847701E-3</v>
       </c>
     </row>
     <row r="2936" spans="1:2" x14ac:dyDescent="0.25">
@@ -42578,7 +42578,7 @@
       </c>
       <c r="B2936" s="2">
         <f ca="1"/>
-        <v>5.0197719377004469E-3</v>
+        <v>5.0197695489984642E-3</v>
       </c>
     </row>
     <row r="2937" spans="1:2" x14ac:dyDescent="0.25">
@@ -42588,7 +42588,7 @@
       </c>
       <c r="B2937" s="2">
         <f ca="1"/>
-        <v>4.5203159461533219E-3</v>
+        <v>4.5203152502125742E-3</v>
       </c>
     </row>
     <row r="2938" spans="1:2" x14ac:dyDescent="0.25">
@@ -42598,7 +42598,7 @@
       </c>
       <c r="B2938" s="2">
         <f ca="1"/>
-        <v>2.5532265094045273E-2</v>
+        <v>2.5532258229290544E-2</v>
       </c>
     </row>
     <row r="2939" spans="1:2" x14ac:dyDescent="0.25">
@@ -42608,7 +42608,7 @@
       </c>
       <c r="B2939" s="2">
         <f ca="1"/>
-        <v>1.2695800483996909E-2</v>
+        <v>1.2695801909007208E-2</v>
       </c>
     </row>
     <row r="2940" spans="1:2" x14ac:dyDescent="0.25">
@@ -42618,7 +42618,7 @@
       </c>
       <c r="B2940" s="2">
         <f ca="1"/>
-        <v>4.5380049465796506E-3</v>
+        <v>4.5380004238387769E-3</v>
       </c>
     </row>
     <row r="2941" spans="1:2" x14ac:dyDescent="0.25">
@@ -42628,7 +42628,7 @@
       </c>
       <c r="B2941" s="2">
         <f ca="1"/>
-        <v>1.6615806374719422E-2</v>
+        <v>1.6615806221893695E-2</v>
       </c>
     </row>
     <row r="2942" spans="1:2" x14ac:dyDescent="0.25">
@@ -42638,7 +42638,7 @@
       </c>
       <c r="B2942" s="2">
         <f ca="1"/>
-        <v>2.1894540333010103E-2</v>
+        <v>2.1894540362311313E-2</v>
       </c>
     </row>
     <row r="2943" spans="1:2" x14ac:dyDescent="0.25">
@@ -42648,7 +42648,7 @@
       </c>
       <c r="B2943" s="2">
         <f ca="1"/>
-        <v>3.9793645331153822E-2</v>
+        <v>3.979363710945711E-2</v>
       </c>
     </row>
     <row r="2944" spans="1:2" x14ac:dyDescent="0.25">
@@ -42658,7 +42658,7 @@
       </c>
       <c r="B2944" s="2">
         <f ca="1"/>
-        <v>1.993163510913196E-2</v>
+        <v>1.9931635107750489E-2</v>
       </c>
     </row>
     <row r="2945" spans="1:2" x14ac:dyDescent="0.25">
@@ -42668,7 +42668,7 @@
       </c>
       <c r="B2945" s="2">
         <f ca="1"/>
-        <v>4.4017115449998352E-3</v>
+        <v>4.4017204783677573E-3</v>
       </c>
     </row>
     <row r="2946" spans="1:2" x14ac:dyDescent="0.25">
@@ -42678,7 +42678,7 @@
       </c>
       <c r="B2946" s="2">
         <f ca="1"/>
-        <v>1.3847710083967157E-2</v>
+        <v>1.384771036216239E-2</v>
       </c>
     </row>
     <row r="2947" spans="1:2" x14ac:dyDescent="0.25">
@@ -42688,7 +42688,7 @@
       </c>
       <c r="B2947" s="2">
         <f ca="1"/>
-        <v>9.6846381394690168E-3</v>
+        <v>9.6846393034922037E-3</v>
       </c>
     </row>
     <row r="2948" spans="1:2" x14ac:dyDescent="0.25">
@@ -42698,7 +42698,7 @@
       </c>
       <c r="B2948" s="2">
         <f ca="1"/>
-        <v>1.7317374962206509E-2</v>
+        <v>1.731737497662952E-2</v>
       </c>
     </row>
     <row r="2949" spans="1:2" x14ac:dyDescent="0.25">
@@ -42708,7 +42708,7 @@
       </c>
       <c r="B2949" s="2">
         <f ca="1"/>
-        <v>1.6689872310477718E-2</v>
+        <v>1.6689872310116982E-2</v>
       </c>
     </row>
     <row r="2950" spans="1:2" x14ac:dyDescent="0.25">
@@ -42718,7 +42718,7 @@
       </c>
       <c r="B2950" s="2">
         <f ca="1"/>
-        <v>1.5838190407696837E-2</v>
+        <v>1.5838190410669233E-2</v>
       </c>
     </row>
     <row r="2951" spans="1:2" x14ac:dyDescent="0.25">
@@ -42728,7 +42728,7 @@
       </c>
       <c r="B2951" s="2">
         <f ca="1"/>
-        <v>1.4209091505928547E-2</v>
+        <v>1.4209091508303412E-2</v>
       </c>
     </row>
     <row r="2952" spans="1:2" x14ac:dyDescent="0.25">
@@ -42738,7 +42738,7 @@
       </c>
       <c r="B2952" s="2">
         <f ca="1"/>
-        <v>1.1960554485785955E-2</v>
+        <v>1.1960554491420423E-2</v>
       </c>
     </row>
     <row r="2953" spans="1:2" x14ac:dyDescent="0.25">
@@ -42748,7 +42748,7 @@
       </c>
       <c r="B2953" s="2">
         <f ca="1"/>
-        <v>1.1111464118679439E-2</v>
+        <v>1.1111464114800972E-2</v>
       </c>
     </row>
     <row r="2954" spans="1:2" x14ac:dyDescent="0.25">
@@ -42758,7 +42758,7 @@
       </c>
       <c r="B2954" s="2">
         <f ca="1"/>
-        <v>9.4146786903627419E-3</v>
+        <v>9.4146786905299727E-3</v>
       </c>
     </row>
     <row r="2955" spans="1:2" x14ac:dyDescent="0.25">
@@ -42768,7 +42768,7 @@
       </c>
       <c r="B2955" s="2">
         <f ca="1"/>
-        <v>6.5071797317269179E-3</v>
+        <v>6.5071797312432986E-3</v>
       </c>
     </row>
     <row r="2956" spans="1:2" x14ac:dyDescent="0.25">
@@ -42778,7 +42778,7 @@
       </c>
       <c r="B2956" s="2">
         <f ca="1"/>
-        <v>5.5597128398286854E-3</v>
+        <v>5.5597128397305781E-3</v>
       </c>
     </row>
     <row r="2957" spans="1:2" x14ac:dyDescent="0.25">
@@ -42788,7 +42788,7 @@
       </c>
       <c r="B2957" s="2">
         <f ca="1"/>
-        <v>4.0220085167203615E-3</v>
+        <v>4.0220085210374897E-3</v>
       </c>
     </row>
     <row r="2958" spans="1:2" x14ac:dyDescent="0.25">
@@ -42798,7 +42798,7 @@
       </c>
       <c r="B2958" s="2">
         <f ca="1"/>
-        <v>3.2505949794185058E-3</v>
+        <v>3.2505949811735789E-3</v>
       </c>
     </row>
     <row r="2959" spans="1:2" x14ac:dyDescent="0.25">
@@ -42808,7 +42808,7 @@
       </c>
       <c r="B2959" s="2">
         <f ca="1"/>
-        <v>1.6372388175979618E-3</v>
+        <v>1.6372388186939016E-3</v>
       </c>
     </row>
     <row r="2960" spans="1:2" x14ac:dyDescent="0.25">
@@ -42818,7 +42818,7 @@
       </c>
       <c r="B2960" s="2">
         <f ca="1"/>
-        <v>4.8433657468262764E-4</v>
+        <v>4.843365761872343E-4</v>
       </c>
     </row>
     <row r="2961" spans="1:2" x14ac:dyDescent="0.25">
@@ -42828,7 +42828,7 @@
       </c>
       <c r="B2961" s="2">
         <f ca="1"/>
-        <v>6.2750684734373468E-4</v>
+        <v>6.2750684831972871E-4</v>
       </c>
     </row>
     <row r="2962" spans="1:2" x14ac:dyDescent="0.25">
@@ -42838,7 +42838,7 @@
       </c>
       <c r="B2962" s="2">
         <f ca="1"/>
-        <v>1.009100966218265E-4</v>
+        <v>1.0091009648170917E-4</v>
       </c>
     </row>
     <row r="2963" spans="1:2" x14ac:dyDescent="0.25">
@@ -42848,7 +42848,7 @@
       </c>
       <c r="B2963" s="2">
         <f ca="1"/>
-        <v>1.0696219900520829E-5</v>
+        <v>1.0696219696137515E-5</v>
       </c>
     </row>
     <row r="2964" spans="1:2" x14ac:dyDescent="0.25">
@@ -43138,7 +43138,7 @@
       </c>
       <c r="B2992" s="2">
         <f ca="1"/>
-        <v>2.4868467294820589E-5</v>
+        <v>2.4868467285976935E-5</v>
       </c>
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.25">
@@ -43148,7 +43148,7 @@
       </c>
       <c r="B2993" s="2">
         <f ca="1"/>
-        <v>1.7905296452270755E-3</v>
+        <v>1.7905296445903389E-3</v>
       </c>
     </row>
     <row r="2994" spans="1:2" x14ac:dyDescent="0.25">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="B2994" s="2">
         <f ca="1"/>
-        <v>1.3300309210313655E-2</v>
+        <v>1.3300311855126867E-2</v>
       </c>
     </row>
     <row r="2995" spans="1:2" x14ac:dyDescent="0.25">
@@ -43168,7 +43168,7 @@
       </c>
       <c r="B2995" s="2">
         <f ca="1"/>
-        <v>-2.5801952742929E-3</v>
+        <v>-2.5801951505175103E-3</v>
       </c>
     </row>
     <row r="2996" spans="1:2" x14ac:dyDescent="0.25">
@@ -43178,7 +43178,7 @@
       </c>
       <c r="B2996" s="2">
         <f ca="1"/>
-        <v>2.6130482008837511E-2</v>
+        <v>2.6130483399006688E-2</v>
       </c>
     </row>
     <row r="2997" spans="1:2" x14ac:dyDescent="0.25">
@@ -43188,7 +43188,7 @@
       </c>
       <c r="B2997" s="2">
         <f ca="1"/>
-        <v>-4.0247998254956379E-3</v>
+        <v>-4.024822648667499E-3</v>
       </c>
     </row>
     <row r="2998" spans="1:2" x14ac:dyDescent="0.25">
@@ -43198,7 +43198,7 @@
       </c>
       <c r="B2998" s="2">
         <f ca="1"/>
-        <v>2.370725732581018E-2</v>
+        <v>2.3707253324242658E-2</v>
       </c>
     </row>
     <row r="2999" spans="1:2" x14ac:dyDescent="0.25">
@@ -43208,7 +43208,7 @@
       </c>
       <c r="B2999" s="2">
         <f ca="1"/>
-        <v>-4.9891875757826776E-3</v>
+        <v>-4.9892076764638284E-3</v>
       </c>
     </row>
     <row r="3000" spans="1:2" x14ac:dyDescent="0.25">
@@ -43218,7 +43218,7 @@
       </c>
       <c r="B3000" s="2">
         <f ca="1"/>
-        <v>2.0306141428083402E-2</v>
+        <v>2.0306143423254944E-2</v>
       </c>
     </row>
     <row r="3001" spans="1:2" x14ac:dyDescent="0.25">
@@ -43228,7 +43228,7 @@
       </c>
       <c r="B3001" s="2">
         <f ca="1"/>
-        <v>2.0991566559245497E-2</v>
+        <v>2.0991556336594237E-2</v>
       </c>
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.25">
@@ -43238,7 +43238,7 @@
       </c>
       <c r="B3002" s="2">
         <f ca="1"/>
-        <v>3.9806040754752095E-2</v>
+        <v>3.9806040309067661E-2</v>
       </c>
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
@@ -43248,7 +43248,7 @@
       </c>
       <c r="B3003" s="2">
         <f ca="1"/>
-        <v>4.0079582461745998E-2</v>
+        <v>4.0079582337420275E-2</v>
       </c>
     </row>
     <row r="3004" spans="1:2" x14ac:dyDescent="0.25">
@@ -43258,7 +43258,7 @@
       </c>
       <c r="B3004" s="2">
         <f ca="1"/>
-        <v>3.5017427172510857E-2</v>
+        <v>3.5017422515606578E-2</v>
       </c>
     </row>
     <row r="3005" spans="1:2" x14ac:dyDescent="0.25">
@@ -43268,7 +43268,7 @@
       </c>
       <c r="B3005" s="2">
         <f ca="1"/>
-        <v>2.9379383527493384E-2</v>
+        <v>2.9379387614554855E-2</v>
       </c>
     </row>
     <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
@@ -43278,7 +43278,7 @@
       </c>
       <c r="B3006" s="2">
         <f ca="1"/>
-        <v>1.8045110573770153E-2</v>
+        <v>1.8045093174895079E-2</v>
       </c>
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
@@ -43288,7 +43288,7 @@
       </c>
       <c r="B3007" s="2">
         <f ca="1"/>
-        <v>6.1858272801062321E-3</v>
+        <v>6.1858284920538915E-3</v>
       </c>
     </row>
     <row r="3008" spans="1:2" x14ac:dyDescent="0.25">
@@ -43298,7 +43298,7 @@
       </c>
       <c r="B3008" s="2">
         <f ca="1"/>
-        <v>2.5677979032468667E-2</v>
+        <v>2.5677983650450379E-2</v>
       </c>
     </row>
     <row r="3009" spans="1:2" x14ac:dyDescent="0.25">
@@ -43308,7 +43308,7 @@
       </c>
       <c r="B3009" s="2">
         <f ca="1"/>
-        <v>3.2400749572355308E-3</v>
+        <v>3.2400920662707627E-3</v>
       </c>
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
@@ -43318,7 +43318,7 @@
       </c>
       <c r="B3010" s="2">
         <f ca="1"/>
-        <v>4.0317400056518238E-2</v>
+        <v>4.0317400587381633E-2</v>
       </c>
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.25">
@@ -43328,7 +43328,7 @@
       </c>
       <c r="B3011" s="2">
         <f ca="1"/>
-        <v>3.5349020640628219E-2</v>
+        <v>3.5349018092846143E-2</v>
       </c>
     </row>
     <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
@@ -43338,7 +43338,7 @@
       </c>
       <c r="B3012" s="2">
         <f ca="1"/>
-        <v>3.3250925493826612E-2</v>
+        <v>3.3250925480759357E-2</v>
       </c>
     </row>
     <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
@@ -43348,7 +43348,7 @@
       </c>
       <c r="B3013" s="2">
         <f ca="1"/>
-        <v>3.3169684641129085E-2</v>
+        <v>3.3169684630711467E-2</v>
       </c>
     </row>
     <row r="3014" spans="1:2" x14ac:dyDescent="0.25">
@@ -43358,7 +43358,7 @@
       </c>
       <c r="B3014" s="2">
         <f ca="1"/>
-        <v>2.9115323589151476E-2</v>
+        <v>2.9115323595936226E-2</v>
       </c>
     </row>
     <row r="3015" spans="1:2" x14ac:dyDescent="0.25">
@@ -43368,7 +43368,7 @@
       </c>
       <c r="B3015" s="2">
         <f ca="1"/>
-        <v>2.6471605267304101E-2</v>
+        <v>2.6471605268054303E-2</v>
       </c>
     </row>
     <row r="3016" spans="1:2" x14ac:dyDescent="0.25">
@@ -43378,7 +43378,7 @@
       </c>
       <c r="B3016" s="2">
         <f ca="1"/>
-        <v>2.1171120976651542E-2</v>
+        <v>2.1171120977489966E-2</v>
       </c>
     </row>
     <row r="3017" spans="1:2" x14ac:dyDescent="0.25">
@@ -43388,7 +43388,7 @@
       </c>
       <c r="B3017" s="2">
         <f ca="1"/>
-        <v>1.9942216107184645E-2</v>
+        <v>1.994221610208138E-2</v>
       </c>
     </row>
     <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
@@ -43398,7 +43398,7 @@
       </c>
       <c r="B3018" s="2">
         <f ca="1"/>
-        <v>1.3628789475842638E-2</v>
+        <v>1.3628789471540132E-2</v>
       </c>
     </row>
     <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
@@ -43408,7 +43408,7 @@
       </c>
       <c r="B3019" s="2">
         <f ca="1"/>
-        <v>1.2624512049921278E-2</v>
+        <v>1.2624512053119034E-2</v>
       </c>
     </row>
     <row r="3020" spans="1:2" x14ac:dyDescent="0.25">
@@ -43418,7 +43418,7 @@
       </c>
       <c r="B3020" s="2">
         <f ca="1"/>
-        <v>7.4368848390451358E-3</v>
+        <v>7.4368848412497638E-3</v>
       </c>
     </row>
     <row r="3021" spans="1:2" x14ac:dyDescent="0.25">
@@ -43428,7 +43428,7 @@
       </c>
       <c r="B3021" s="2">
         <f ca="1"/>
-        <v>3.9511726617780839E-3</v>
+        <v>3.9511726617454E-3</v>
       </c>
     </row>
     <row r="3022" spans="1:2" x14ac:dyDescent="0.25">
@@ -43438,7 +43438,7 @@
       </c>
       <c r="B3022" s="2">
         <f ca="1"/>
-        <v>2.7687827504945767E-3</v>
+        <v>2.7687827500155948E-3</v>
       </c>
     </row>
     <row r="3023" spans="1:2" x14ac:dyDescent="0.25">
@@ -43448,7 +43448,7 @@
       </c>
       <c r="B3023" s="2">
         <f ca="1"/>
-        <v>9.2073568159719936E-4</v>
+        <v>9.2073568403084119E-4</v>
       </c>
     </row>
     <row r="3024" spans="1:2" x14ac:dyDescent="0.25">
@@ -43458,7 +43458,7 @@
       </c>
       <c r="B3024" s="2">
         <f ca="1"/>
-        <v>4.2961969045739667E-4</v>
+        <v>4.2961968926362909E-4</v>
       </c>
     </row>
     <row r="3025" spans="1:2" x14ac:dyDescent="0.25">
@@ -43468,7 +43468,7 @@
       </c>
       <c r="B3025" s="2">
         <f ca="1"/>
-        <v>1.1252596540676143E-5</v>
+        <v>1.1252596564616144E-5</v>
       </c>
     </row>
     <row r="3026" spans="1:2" x14ac:dyDescent="0.25">
@@ -43478,7 +43478,7 @@
       </c>
       <c r="B3026" s="2">
         <f ca="1"/>
-        <v>9.3253562491703058E-8</v>
+        <v>9.3253562690100845E-8</v>
       </c>
     </row>
     <row r="3027" spans="1:2" x14ac:dyDescent="0.25">
@@ -43748,7 +43748,7 @@
       </c>
       <c r="B3053" s="2">
         <f ca="1"/>
-        <v>2.0265693368503226E-4</v>
+        <v>2.0265697410235862E-4</v>
       </c>
     </row>
     <row r="3054" spans="1:2" x14ac:dyDescent="0.25">
@@ -43758,7 +43758,7 @@
       </c>
       <c r="B3054" s="2">
         <f ca="1"/>
-        <v>1.4591299225322265E-2</v>
+        <v>1.4591302135369843E-2</v>
       </c>
     </row>
     <row r="3055" spans="1:2" x14ac:dyDescent="0.25">
@@ -43768,7 +43768,7 @@
       </c>
       <c r="B3055" s="2">
         <f ca="1"/>
-        <v>-2.1331842949220997E-2</v>
+        <v>-2.1331844397653909E-2</v>
       </c>
     </row>
     <row r="3056" spans="1:2" x14ac:dyDescent="0.25">
@@ -43778,7 +43778,7 @@
       </c>
       <c r="B3056" s="2">
         <f ca="1"/>
-        <v>1.6070552073662855E-2</v>
+        <v>1.60705641874699E-2</v>
       </c>
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.25">
@@ -43788,7 +43788,7 @@
       </c>
       <c r="B3057" s="2">
         <f ca="1"/>
-        <v>0.10010823415690601</v>
+        <v>0.100108262818583</v>
       </c>
     </row>
     <row r="3058" spans="1:2" x14ac:dyDescent="0.25">
@@ -43798,7 +43798,7 @@
       </c>
       <c r="B3058" s="2">
         <f ca="1"/>
-        <v>3.5087113793571448E-2</v>
+        <v>3.508708642309271E-2</v>
       </c>
     </row>
     <row r="3059" spans="1:2" x14ac:dyDescent="0.25">
@@ -43808,7 +43808,7 @@
       </c>
       <c r="B3059" s="2">
         <f ca="1"/>
-        <v>-1.2627936094841082E-2</v>
+        <v>-1.26279378035772E-2</v>
       </c>
     </row>
     <row r="3060" spans="1:2" x14ac:dyDescent="0.25">
@@ -43818,7 +43818,7 @@
       </c>
       <c r="B3060" s="2">
         <f ca="1"/>
-        <v>3.210952738736985E-2</v>
+        <v>3.2109516035202443E-2</v>
       </c>
     </row>
     <row r="3061" spans="1:2" x14ac:dyDescent="0.25">
@@ -43828,7 +43828,7 @@
       </c>
       <c r="B3061" s="2">
         <f ca="1"/>
-        <v>4.7613273503380793E-2</v>
+        <v>4.7613292509808544E-2</v>
       </c>
     </row>
     <row r="3062" spans="1:2" x14ac:dyDescent="0.25">
@@ -43838,7 +43838,7 @@
       </c>
       <c r="B3062" s="2">
         <f ca="1"/>
-        <v>1.0198638823481727E-2</v>
+        <v>1.0198644794615847E-2</v>
       </c>
     </row>
     <row r="3063" spans="1:2" x14ac:dyDescent="0.25">
@@ -43848,7 +43848,7 @@
       </c>
       <c r="B3063" s="2">
         <f ca="1"/>
-        <v>5.5601080042232132E-2</v>
+        <v>5.5601069315449454E-2</v>
       </c>
     </row>
     <row r="3064" spans="1:2" x14ac:dyDescent="0.25">
@@ -43858,7 +43858,7 @@
       </c>
       <c r="B3064" s="2">
         <f ca="1"/>
-        <v>2.2311712989518995E-2</v>
+        <v>2.2311718623702757E-2</v>
       </c>
     </row>
     <row r="3065" spans="1:2" x14ac:dyDescent="0.25">
@@ -43868,7 +43868,7 @@
       </c>
       <c r="B3065" s="2">
         <f ca="1"/>
-        <v>7.2256109107311589E-2</v>
+        <v>7.2256117310899634E-2</v>
       </c>
     </row>
     <row r="3066" spans="1:2" x14ac:dyDescent="0.25">
@@ -43878,7 +43878,7 @@
       </c>
       <c r="B3066" s="2">
         <f ca="1"/>
-        <v>-3.751457980944442E-2</v>
+        <v>-3.7514574604065758E-2</v>
       </c>
     </row>
     <row r="3067" spans="1:2" x14ac:dyDescent="0.25">
@@ -43888,7 +43888,7 @@
       </c>
       <c r="B3067" s="2">
         <f ca="1"/>
-        <v>5.4323273859493877E-2</v>
+        <v>5.4323284290775674E-2</v>
       </c>
     </row>
     <row r="3068" spans="1:2" x14ac:dyDescent="0.25">
@@ -43898,7 +43898,7 @@
       </c>
       <c r="B3068" s="2">
         <f ca="1"/>
-        <v>3.0023489154078174E-2</v>
+        <v>3.0023472962204908E-2</v>
       </c>
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.25">
@@ -43908,7 +43908,7 @@
       </c>
       <c r="B3069" s="2">
         <f ca="1"/>
-        <v>2.6981639410449312E-2</v>
+        <v>2.6981666837263545E-2</v>
       </c>
     </row>
     <row r="3070" spans="1:2" x14ac:dyDescent="0.25">
@@ -43918,7 +43918,7 @@
       </c>
       <c r="B3070" s="2">
         <f ca="1"/>
-        <v>1.1645364224225832E-2</v>
+        <v>1.1645355367153923E-2</v>
       </c>
     </row>
     <row r="3071" spans="1:2" x14ac:dyDescent="0.25">
@@ -43928,7 +43928,7 @@
       </c>
       <c r="B3071" s="2">
         <f ca="1"/>
-        <v>4.5359947857672007E-2</v>
+        <v>4.5359965974929917E-2</v>
       </c>
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.25">
@@ -43938,7 +43938,7 @@
       </c>
       <c r="B3072" s="2">
         <f ca="1"/>
-        <v>4.4802294960866344E-2</v>
+        <v>4.4802290020235759E-2</v>
       </c>
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.25">
@@ -43948,7 +43948,7 @@
       </c>
       <c r="B3073" s="2">
         <f ca="1"/>
-        <v>5.5470180751382464E-2</v>
+        <v>5.5470184052407612E-2</v>
       </c>
     </row>
     <row r="3074" spans="1:2" x14ac:dyDescent="0.25">
@@ -43958,7 +43958,7 @@
       </c>
       <c r="B3074" s="2">
         <f ca="1"/>
-        <v>6.5588982898362402E-2</v>
+        <v>6.5588982911719135E-2</v>
       </c>
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.25">
@@ -43968,7 +43968,7 @@
       </c>
       <c r="B3075" s="2">
         <f ca="1"/>
-        <v>4.884650741357454E-2</v>
+        <v>4.8846507335729254E-2</v>
       </c>
     </row>
     <row r="3076" spans="1:2" x14ac:dyDescent="0.25">
@@ -43978,7 +43978,7 @@
       </c>
       <c r="B3076" s="2">
         <f ca="1"/>
-        <v>5.9922888750416639E-2</v>
+        <v>5.9922888756217374E-2</v>
       </c>
     </row>
     <row r="3077" spans="1:2" x14ac:dyDescent="0.25">
@@ -43988,7 +43988,7 @@
       </c>
       <c r="B3077" s="2">
         <f ca="1"/>
-        <v>4.8469563479215834E-2</v>
+        <v>4.8469563482849989E-2</v>
       </c>
     </row>
     <row r="3078" spans="1:2" x14ac:dyDescent="0.25">
@@ -43998,7 +43998,7 @@
       </c>
       <c r="B3078" s="2">
         <f ca="1"/>
-        <v>4.9028787502323652E-2</v>
+        <v>4.9028787517982265E-2</v>
       </c>
     </row>
     <row r="3079" spans="1:2" x14ac:dyDescent="0.25">
@@ -44008,7 +44008,7 @@
       </c>
       <c r="B3079" s="2">
         <f ca="1"/>
-        <v>3.9633957365786343E-2</v>
+        <v>3.963395736420975E-2</v>
       </c>
     </row>
     <row r="3080" spans="1:2" x14ac:dyDescent="0.25">
@@ -44018,7 +44018,7 @@
       </c>
       <c r="B3080" s="2">
         <f ca="1"/>
-        <v>3.4115270483208587E-2</v>
+        <v>3.411527047432332E-2</v>
       </c>
     </row>
     <row r="3081" spans="1:2" x14ac:dyDescent="0.25">
@@ -44028,7 +44028,7 @@
       </c>
       <c r="B3081" s="2">
         <f ca="1"/>
-        <v>2.5710711901896555E-2</v>
+        <v>2.5710711902156302E-2</v>
       </c>
     </row>
     <row r="3082" spans="1:2" x14ac:dyDescent="0.25">
@@ -44038,7 +44038,7 @@
       </c>
       <c r="B3082" s="2">
         <f ca="1"/>
-        <v>1.7483561680647169E-2</v>
+        <v>1.7483561688488344E-2</v>
       </c>
     </row>
     <row r="3083" spans="1:2" x14ac:dyDescent="0.25">
@@ -44048,7 +44048,7 @@
       </c>
       <c r="B3083" s="2">
         <f ca="1"/>
-        <v>1.3856231520587434E-2</v>
+        <v>1.3856231523007009E-2</v>
       </c>
     </row>
     <row r="3084" spans="1:2" x14ac:dyDescent="0.25">
@@ -44058,7 +44058,7 @@
       </c>
       <c r="B3084" s="2">
         <f ca="1"/>
-        <v>6.4206129628520047E-3</v>
+        <v>6.4206129547222648E-3</v>
       </c>
     </row>
     <row r="3085" spans="1:2" x14ac:dyDescent="0.25">
@@ -44068,7 +44068,7 @@
       </c>
       <c r="B3085" s="2">
         <f ca="1"/>
-        <v>2.8494195061942278E-3</v>
+        <v>2.8494195076983679E-3</v>
       </c>
     </row>
     <row r="3086" spans="1:2" x14ac:dyDescent="0.25">
@@ -44078,7 +44078,7 @@
       </c>
       <c r="B3086" s="2">
         <f ca="1"/>
-        <v>8.1165999877547221E-4</v>
+        <v>8.1165999834056717E-4</v>
       </c>
     </row>
     <row r="3087" spans="1:2" x14ac:dyDescent="0.25">
@@ -44088,7 +44088,7 @@
       </c>
       <c r="B3087" s="2">
         <f ca="1"/>
-        <v>4.1708889077641709E-5</v>
+        <v>4.1708889124395082E-5</v>
       </c>
     </row>
     <row r="3088" spans="1:2" x14ac:dyDescent="0.25">
@@ -44358,7 +44358,7 @@
       </c>
       <c r="B3114" s="2">
         <f ca="1"/>
-        <v>-1.0398885517697506E-3</v>
+        <v>-1.0398884717612363E-3</v>
       </c>
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.25">
@@ -44368,7 +44368,7 @@
       </c>
       <c r="B3115" s="2">
         <f ca="1"/>
-        <v>-7.4871975727421741E-2</v>
+        <v>-7.4871969966808366E-2</v>
       </c>
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.25">
@@ -44378,7 +44378,7 @@
       </c>
       <c r="B3116" s="2">
         <f ca="1"/>
-        <v>-0.16383959702621256</v>
+        <v>-0.16383958516873337</v>
       </c>
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
@@ -44388,7 +44388,7 @@
       </c>
       <c r="B3117" s="2">
         <f ca="1"/>
-        <v>0.10996888895739372</v>
+        <v>0.10996890020056284</v>
       </c>
     </row>
     <row r="3118" spans="1:2" x14ac:dyDescent="0.25">
@@ -44398,7 +44398,7 @@
       </c>
       <c r="B3118" s="2">
         <f ca="1"/>
-        <v>3.9911725130003468E-2</v>
+        <v>3.9911759748649675E-2</v>
       </c>
     </row>
     <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
@@ -44408,7 +44408,7 @@
       </c>
       <c r="B3119" s="2">
         <f ca="1"/>
-        <v>-1.4182044089331623E-2</v>
+        <v>-1.4182017298474441E-2</v>
       </c>
     </row>
     <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
@@ -44418,7 +44418,7 @@
       </c>
       <c r="B3120" s="2">
         <f ca="1"/>
-        <v>-2.078214318179292E-2</v>
+        <v>-2.0782133655757214E-2</v>
       </c>
     </row>
     <row r="3121" spans="1:2" x14ac:dyDescent="0.25">
@@ -44428,7 +44428,7 @@
       </c>
       <c r="B3121" s="2">
         <f ca="1"/>
-        <v>2.3238846937107871E-2</v>
+        <v>2.3238868679766309E-2</v>
       </c>
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.25">
@@ -44438,7 +44438,7 @@
       </c>
       <c r="B3122" s="2">
         <f ca="1"/>
-        <v>1.9491825796464407E-3</v>
+        <v>1.9491831146230647E-3</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.25">
@@ -44448,7 +44448,7 @@
       </c>
       <c r="B3123" s="2">
         <f ca="1"/>
-        <v>1.1970008344626777E-2</v>
+        <v>1.1970013107793803E-2</v>
       </c>
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.25">
@@ -44458,7 +44458,7 @@
       </c>
       <c r="B3124" s="2">
         <f ca="1"/>
-        <v>-5.6051881624982466E-2</v>
+        <v>-5.6051893206685688E-2</v>
       </c>
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.25">
@@ -44468,7 +44468,7 @@
       </c>
       <c r="B3125" s="2">
         <f ca="1"/>
-        <v>0.12441411174393302</v>
+        <v>0.12441414406872305</v>
       </c>
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.25">
@@ -44478,7 +44478,7 @@
       </c>
       <c r="B3126" s="2">
         <f ca="1"/>
-        <v>-2.7405124137619401E-2</v>
+        <v>-2.7405110586537475E-2</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
@@ -44488,7 +44488,7 @@
       </c>
       <c r="B3127" s="2">
         <f ca="1"/>
-        <v>3.6623908766539696E-2</v>
+        <v>3.6623880601438071E-2</v>
       </c>
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.25">
@@ -44498,7 +44498,7 @@
       </c>
       <c r="B3128" s="2">
         <f ca="1"/>
-        <v>-9.1428266300953281E-3</v>
+        <v>-9.1428270355113084E-3</v>
       </c>
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.25">
@@ -44508,7 +44508,7 @@
       </c>
       <c r="B3129" s="2">
         <f ca="1"/>
-        <v>9.2325881079934433E-2</v>
+        <v>9.2325881661123294E-2</v>
       </c>
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.25">
@@ -44518,7 +44518,7 @@
       </c>
       <c r="B3130" s="2">
         <f ca="1"/>
-        <v>-1.9836099009100154E-2</v>
+        <v>-1.9836086318133841E-2</v>
       </c>
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
@@ -44528,7 +44528,7 @@
       </c>
       <c r="B3131" s="2">
         <f ca="1"/>
-        <v>6.7900905997593811E-2</v>
+        <v>6.7900904320631089E-2</v>
       </c>
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
@@ -44538,7 +44538,7 @@
       </c>
       <c r="B3132" s="2">
         <f ca="1"/>
-        <v>-5.1219613251074839E-5</v>
+        <v>-5.1200587462892078E-5</v>
       </c>
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.25">
@@ -44548,7 +44548,7 @@
       </c>
       <c r="B3133" s="2">
         <f ca="1"/>
-        <v>4.6495522923674294E-2</v>
+        <v>4.6495525987705261E-2</v>
       </c>
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.25">
@@ -44558,7 +44558,7 @@
       </c>
       <c r="B3134" s="2">
         <f ca="1"/>
-        <v>2.9760006415976314E-2</v>
+        <v>2.9760017416754412E-2</v>
       </c>
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.25">
@@ -44568,7 +44568,7 @@
       </c>
       <c r="B3135" s="2">
         <f ca="1"/>
-        <v>8.2008247858478267E-2</v>
+        <v>8.2008240844447064E-2</v>
       </c>
     </row>
     <row r="3136" spans="1:2" x14ac:dyDescent="0.25">
@@ -44578,7 +44578,7 @@
       </c>
       <c r="B3136" s="2">
         <f ca="1"/>
-        <v>9.1131309162188895E-2</v>
+        <v>9.1131328977810247E-2</v>
       </c>
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.25">
@@ -44588,7 +44588,7 @@
       </c>
       <c r="B3137" s="2">
         <f ca="1"/>
-        <v>0.10270711169854356</v>
+        <v>0.10270711171238499</v>
       </c>
     </row>
     <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
@@ -44598,7 +44598,7 @@
       </c>
       <c r="B3138" s="2">
         <f ca="1"/>
-        <v>7.6093231858503835E-2</v>
+        <v>7.609323197625216E-2</v>
       </c>
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.25">
@@ -44608,7 +44608,7 @@
       </c>
       <c r="B3139" s="2">
         <f ca="1"/>
-        <v>8.7537122032357459E-2</v>
+        <v>8.7537122022663061E-2</v>
       </c>
     </row>
     <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
@@ -44618,7 +44618,7 @@
       </c>
       <c r="B3140" s="2">
         <f ca="1"/>
-        <v>7.7482324089321764E-2</v>
+        <v>7.7482324032535868E-2</v>
       </c>
     </row>
     <row r="3141" spans="1:2" x14ac:dyDescent="0.25">
@@ -44628,7 +44628,7 @@
       </c>
       <c r="B3141" s="2">
         <f ca="1"/>
-        <v>7.708851488896673E-2</v>
+        <v>7.708851489808799E-2</v>
       </c>
     </row>
     <row r="3142" spans="1:2" x14ac:dyDescent="0.25">
@@ -44638,7 +44638,7 @@
       </c>
       <c r="B3142" s="2">
         <f ca="1"/>
-        <v>6.7479023369483457E-2</v>
+        <v>6.7479023357714329E-2</v>
       </c>
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
@@ -44648,7 +44648,7 @@
       </c>
       <c r="B3143" s="2">
         <f ca="1"/>
-        <v>4.9518007631030876E-2</v>
+        <v>4.9518007616428814E-2</v>
       </c>
     </row>
     <row r="3144" spans="1:2" x14ac:dyDescent="0.25">
@@ -44658,7 +44658,7 @@
       </c>
       <c r="B3144" s="2">
         <f ca="1"/>
-        <v>4.4709056978562402E-2</v>
+        <v>4.4709056977672919E-2</v>
       </c>
     </row>
     <row r="3145" spans="1:2" x14ac:dyDescent="0.25">
@@ -44668,7 +44668,7 @@
       </c>
       <c r="B3145" s="2">
         <f ca="1"/>
-        <v>2.8422963938232529E-2</v>
+        <v>2.8422963944759919E-2</v>
       </c>
     </row>
     <row r="3146" spans="1:2" x14ac:dyDescent="0.25">
@@ -44678,7 +44678,7 @@
       </c>
       <c r="B3146" s="2">
         <f ca="1"/>
-        <v>1.6432332610320313E-2</v>
+        <v>1.6432332620299125E-2</v>
       </c>
     </row>
     <row r="3147" spans="1:2" x14ac:dyDescent="0.25">
@@ -44688,7 +44688,7 @@
       </c>
       <c r="B3147" s="2">
         <f ca="1"/>
-        <v>5.9078620610136254E-3</v>
+        <v>5.9078620634117974E-3</v>
       </c>
     </row>
     <row r="3148" spans="1:2" x14ac:dyDescent="0.25">
@@ -44698,7 +44698,7 @@
       </c>
       <c r="B3148" s="2">
         <f ca="1"/>
-        <v>1.0701492249171475E-3</v>
+        <v>1.0701492257093627E-3</v>
       </c>
     </row>
     <row r="3149" spans="1:2" x14ac:dyDescent="0.25">
@@ -44968,7 +44968,7 @@
       </c>
       <c r="B3175" s="2">
         <f ca="1"/>
-        <v>12.894551937246204</v>
+        <v>12.894552066749327</v>
       </c>
     </row>
   </sheetData>
